--- a/data/Вузы.xlsx
+++ b/data/Вузы.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\NIR_Engoyan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485CDF2-FCB7-4E62-9E8C-2076FC772993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC870957-2B70-44C5-9D67-E04B762EC33C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6289" uniqueCount="6077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="6074">
   <si>
     <t>idlistedu</t>
   </si>
@@ -15433,15 +15433,6 @@
   </si>
   <si>
     <t>105005, г. Москва, ул. Малая Почтовая, д. 2/2, стр.8</t>
-  </si>
-  <si>
-    <t>Частное образовательное учреждение высшего образования "Институт международной торговли и права"</t>
-  </si>
-  <si>
-    <t>Институт международной торговли и права</t>
-  </si>
-  <si>
-    <t>121108, г Москва, ул. Кастанаевская, д. 59, корп. 2</t>
   </si>
   <si>
     <t>Частное образовательное учреждение высшего образования "Приамурский институт агроэкономики и бизнеса"</t>
@@ -18608,10 +18599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1571"/>
+  <dimension ref="A1:J1570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1555" workbookViewId="0">
-      <selection activeCell="F1566" sqref="F1566"/>
+    <sheetView tabSelected="1" topLeftCell="A1539" workbookViewId="0">
+      <selection activeCell="L1547" sqref="L1547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18625,7 +18616,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6076</v>
+        <v>6073</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -60705,13 +60696,13 @@
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1316">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B1316">
-        <v>13606</v>
+        <v>13607</v>
       </c>
       <c r="C1316">
-        <v>13606</v>
+        <v>13607</v>
       </c>
       <c r="D1316" t="s">
         <v>5136</v>
@@ -60722,16 +60713,28 @@
       <c r="F1316" t="s">
         <v>5138</v>
       </c>
+      <c r="G1316" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1316">
+        <v>27</v>
+      </c>
+      <c r="I1316">
+        <v>8</v>
+      </c>
+      <c r="J1316">
+        <v>9999</v>
+      </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1317">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B1317">
-        <v>13607</v>
+        <v>13617</v>
       </c>
       <c r="C1317">
-        <v>13607</v>
+        <v>13603</v>
       </c>
       <c r="D1317" t="s">
         <v>5139</v>
@@ -60746,10 +60749,10 @@
         <v>1083</v>
       </c>
       <c r="H1317">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I1317">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1317">
         <v>9999</v>
@@ -60757,13 +60760,13 @@
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1318">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B1318">
-        <v>13617</v>
+        <v>13621</v>
       </c>
       <c r="C1318">
-        <v>13603</v>
+        <v>13621</v>
       </c>
       <c r="D1318" t="s">
         <v>5142</v>
@@ -60775,13 +60778,13 @@
         <v>5144</v>
       </c>
       <c r="G1318" t="s">
-        <v>1083</v>
+        <v>5145</v>
       </c>
       <c r="H1318">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I1318">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1318">
         <v>9999</v>
@@ -60789,31 +60792,31 @@
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1319">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B1319">
-        <v>13621</v>
+        <v>13967</v>
       </c>
       <c r="C1319">
-        <v>13621</v>
+        <v>13967</v>
       </c>
       <c r="D1319" t="s">
-        <v>5145</v>
+        <v>5146</v>
       </c>
       <c r="E1319" t="s">
-        <v>5146</v>
+        <v>5147</v>
       </c>
       <c r="F1319" t="s">
-        <v>5147</v>
+        <v>5148</v>
       </c>
       <c r="G1319" t="s">
-        <v>5148</v>
+        <v>5149</v>
       </c>
       <c r="H1319">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I1319">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1319">
         <v>9999</v>
@@ -60821,25 +60824,25 @@
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1320">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B1320">
-        <v>13967</v>
+        <v>13970</v>
       </c>
       <c r="C1320">
-        <v>13967</v>
+        <v>13970</v>
       </c>
       <c r="D1320" t="s">
-        <v>5149</v>
+        <v>5150</v>
       </c>
       <c r="E1320" t="s">
-        <v>5150</v>
+        <v>5151</v>
       </c>
       <c r="F1320" t="s">
-        <v>5151</v>
+        <v>5152</v>
       </c>
       <c r="G1320" t="s">
-        <v>5152</v>
+        <v>5153</v>
       </c>
       <c r="H1320">
         <v>77</v>
@@ -60853,31 +60856,31 @@
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1321">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1321">
-        <v>13970</v>
+        <v>13971</v>
       </c>
       <c r="C1321">
-        <v>13970</v>
+        <v>13971</v>
       </c>
       <c r="D1321" t="s">
-        <v>5153</v>
+        <v>5154</v>
       </c>
       <c r="E1321" t="s">
-        <v>5154</v>
+        <v>5155</v>
       </c>
       <c r="F1321" t="s">
-        <v>5155</v>
+        <v>5156</v>
       </c>
       <c r="G1321" t="s">
-        <v>5156</v>
+        <v>5157</v>
       </c>
       <c r="H1321">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="I1321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1321">
         <v>9999</v>
@@ -60885,95 +60888,95 @@
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1322">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1322">
-        <v>13971</v>
+        <v>13984</v>
       </c>
       <c r="C1322">
-        <v>13971</v>
+        <v>13984</v>
       </c>
       <c r="D1322" t="s">
-        <v>5157</v>
+        <v>5158</v>
       </c>
       <c r="E1322" t="s">
-        <v>5158</v>
+        <v>5159</v>
       </c>
       <c r="F1322" t="s">
-        <v>5159</v>
+        <v>5160</v>
       </c>
       <c r="G1322" t="s">
-        <v>5160</v>
+        <v>5161</v>
       </c>
       <c r="H1322">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="I1322">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1322">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1323">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1323">
-        <v>13984</v>
+        <v>14045</v>
       </c>
       <c r="C1323">
-        <v>13984</v>
+        <v>14045</v>
       </c>
       <c r="D1323" t="s">
-        <v>5161</v>
+        <v>5162</v>
       </c>
       <c r="E1323" t="s">
-        <v>5162</v>
+        <v>5163</v>
       </c>
       <c r="F1323" t="s">
-        <v>5163</v>
+        <v>5164</v>
       </c>
       <c r="G1323" t="s">
-        <v>5164</v>
+        <v>5165</v>
       </c>
       <c r="H1323">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I1323">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J1323">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1324">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B1324">
-        <v>14045</v>
+        <v>14073</v>
       </c>
       <c r="C1324">
-        <v>14045</v>
+        <v>14073</v>
       </c>
       <c r="D1324" t="s">
-        <v>5165</v>
+        <v>5166</v>
       </c>
       <c r="E1324" t="s">
-        <v>5166</v>
+        <v>5167</v>
       </c>
       <c r="F1324" t="s">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="G1324" t="s">
-        <v>5168</v>
+        <v>1083</v>
       </c>
       <c r="H1324">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I1324">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1324">
         <v>9999</v>
@@ -60981,13 +60984,13 @@
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1325">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1325">
-        <v>14073</v>
+        <v>14074</v>
       </c>
       <c r="C1325">
-        <v>14073</v>
+        <v>14074</v>
       </c>
       <c r="D1325" t="s">
         <v>5169</v>
@@ -61002,24 +61005,24 @@
         <v>1083</v>
       </c>
       <c r="H1325">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1325">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1326">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1326">
-        <v>14074</v>
+        <v>14076</v>
       </c>
       <c r="C1326">
-        <v>14074</v>
+        <v>14076</v>
       </c>
       <c r="D1326" t="s">
         <v>5172</v>
@@ -61031,45 +61034,45 @@
         <v>5174</v>
       </c>
       <c r="G1326" t="s">
-        <v>1083</v>
+        <v>5175</v>
       </c>
       <c r="H1326">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I1326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1326">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1327">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B1327">
-        <v>14076</v>
+        <v>14097</v>
       </c>
       <c r="C1327">
-        <v>14076</v>
+        <v>14097</v>
       </c>
       <c r="D1327" t="s">
-        <v>5175</v>
+        <v>5176</v>
       </c>
       <c r="E1327" t="s">
-        <v>5176</v>
+        <v>5177</v>
       </c>
       <c r="F1327" t="s">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="G1327" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="H1327">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I1327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1327">
         <v>9999</v>
@@ -61077,28 +61080,28 @@
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1328">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B1328">
-        <v>14097</v>
+        <v>14098</v>
       </c>
       <c r="C1328">
-        <v>14097</v>
+        <v>14098</v>
       </c>
       <c r="D1328" t="s">
-        <v>5179</v>
+        <v>5180</v>
       </c>
       <c r="E1328" t="s">
-        <v>5180</v>
+        <v>5181</v>
       </c>
       <c r="F1328" t="s">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="G1328" t="s">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="H1328">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I1328">
         <v>1</v>
@@ -61109,28 +61112,28 @@
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1329">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B1329">
-        <v>14098</v>
+        <v>14099</v>
       </c>
       <c r="C1329">
-        <v>14098</v>
+        <v>14099</v>
       </c>
       <c r="D1329" t="s">
-        <v>5183</v>
+        <v>5184</v>
       </c>
       <c r="E1329" t="s">
-        <v>5184</v>
+        <v>5185</v>
       </c>
       <c r="F1329" t="s">
-        <v>5185</v>
+        <v>5186</v>
       </c>
       <c r="G1329" t="s">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="H1329">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1329">
         <v>1</v>
@@ -61141,31 +61144,31 @@
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1330">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B1330">
-        <v>14099</v>
+        <v>14100</v>
       </c>
       <c r="C1330">
-        <v>14099</v>
+        <v>14100</v>
       </c>
       <c r="D1330" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="E1330" t="s">
-        <v>5188</v>
+        <v>5189</v>
       </c>
       <c r="F1330" t="s">
-        <v>5189</v>
+        <v>5190</v>
       </c>
       <c r="G1330" t="s">
-        <v>5190</v>
+        <v>5191</v>
       </c>
       <c r="H1330">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1330">
         <v>9999</v>
@@ -61173,31 +61176,31 @@
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1331">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B1331">
-        <v>14100</v>
+        <v>14101</v>
       </c>
       <c r="C1331">
-        <v>14100</v>
+        <v>14101</v>
       </c>
       <c r="D1331" t="s">
-        <v>5191</v>
+        <v>5192</v>
       </c>
       <c r="E1331" t="s">
-        <v>5192</v>
+        <v>5193</v>
       </c>
       <c r="F1331" t="s">
-        <v>5193</v>
+        <v>5194</v>
       </c>
       <c r="G1331" t="s">
-        <v>5194</v>
+        <v>5195</v>
       </c>
       <c r="H1331">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I1331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1331">
         <v>9999</v>
@@ -61205,31 +61208,31 @@
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1332">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B1332">
-        <v>14101</v>
+        <v>14102</v>
       </c>
       <c r="C1332">
-        <v>14101</v>
+        <v>14102</v>
       </c>
       <c r="D1332" t="s">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="E1332" t="s">
-        <v>5196</v>
+        <v>5197</v>
       </c>
       <c r="F1332" t="s">
-        <v>5197</v>
+        <v>5198</v>
       </c>
       <c r="G1332" t="s">
-        <v>5198</v>
+        <v>1083</v>
       </c>
       <c r="H1332">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I1332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1332">
         <v>9999</v>
@@ -61237,13 +61240,13 @@
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1333">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B1333">
-        <v>14102</v>
+        <v>14108</v>
       </c>
       <c r="C1333">
-        <v>14102</v>
+        <v>14108</v>
       </c>
       <c r="D1333" t="s">
         <v>5199</v>
@@ -61255,13 +61258,13 @@
         <v>5201</v>
       </c>
       <c r="G1333" t="s">
-        <v>1083</v>
+        <v>5202</v>
       </c>
       <c r="H1333">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I1333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1333">
         <v>9999</v>
@@ -61269,31 +61272,31 @@
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1334">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B1334">
-        <v>14108</v>
+        <v>14112</v>
       </c>
       <c r="C1334">
-        <v>14108</v>
+        <v>14112</v>
       </c>
       <c r="D1334" t="s">
-        <v>5202</v>
+        <v>5203</v>
       </c>
       <c r="E1334" t="s">
-        <v>5203</v>
+        <v>5204</v>
       </c>
       <c r="F1334" t="s">
-        <v>5204</v>
+        <v>5205</v>
       </c>
       <c r="G1334" t="s">
-        <v>5205</v>
+        <v>5206</v>
       </c>
       <c r="H1334">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1334">
         <v>9999</v>
@@ -61301,153 +61304,153 @@
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1335">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B1335">
-        <v>14112</v>
+        <v>14124</v>
       </c>
       <c r="C1335">
-        <v>14112</v>
+        <v>11049</v>
       </c>
       <c r="D1335" t="s">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="E1335" t="s">
-        <v>5207</v>
+        <v>5208</v>
       </c>
       <c r="F1335" t="s">
-        <v>5208</v>
+        <v>5209</v>
       </c>
       <c r="G1335" t="s">
-        <v>5209</v>
+        <v>5210</v>
       </c>
       <c r="H1335">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I1335">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1335">
-        <v>9999</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1336">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B1336">
-        <v>14124</v>
+        <v>14200</v>
       </c>
       <c r="C1336">
-        <v>11049</v>
+        <v>14200</v>
       </c>
       <c r="D1336" t="s">
-        <v>5210</v>
+        <v>5211</v>
       </c>
       <c r="E1336" t="s">
-        <v>5211</v>
+        <v>5212</v>
       </c>
       <c r="F1336" t="s">
-        <v>5212</v>
+        <v>5213</v>
       </c>
       <c r="G1336" t="s">
-        <v>5213</v>
+        <v>5214</v>
       </c>
       <c r="H1336">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I1336">
         <v>5</v>
       </c>
       <c r="J1336">
-        <v>84</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1337">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B1337">
-        <v>14200</v>
+        <v>14204</v>
       </c>
       <c r="C1337">
-        <v>14200</v>
+        <v>14204</v>
       </c>
       <c r="D1337" t="s">
-        <v>5214</v>
+        <v>5215</v>
       </c>
       <c r="E1337" t="s">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="F1337" t="s">
-        <v>5216</v>
+        <v>5217</v>
       </c>
       <c r="G1337" t="s">
-        <v>5217</v>
+        <v>5218</v>
       </c>
       <c r="H1337">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I1337">
         <v>5</v>
       </c>
       <c r="J1337">
-        <v>9999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1338">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B1338">
-        <v>14204</v>
+        <v>14205</v>
       </c>
       <c r="C1338">
-        <v>14204</v>
+        <v>14205</v>
       </c>
       <c r="D1338" t="s">
-        <v>5218</v>
+        <v>5219</v>
       </c>
       <c r="E1338" t="s">
-        <v>5219</v>
+        <v>5220</v>
       </c>
       <c r="F1338" t="s">
-        <v>5220</v>
+        <v>5221</v>
       </c>
       <c r="G1338" t="s">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="H1338">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="I1338">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="J1338">
-        <v>75</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1339">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B1339">
-        <v>14205</v>
+        <v>14206</v>
       </c>
       <c r="C1339">
-        <v>14205</v>
+        <v>14206</v>
       </c>
       <c r="D1339" t="s">
-        <v>5222</v>
+        <v>5223</v>
       </c>
       <c r="E1339" t="s">
-        <v>5223</v>
+        <v>5224</v>
       </c>
       <c r="F1339" t="s">
-        <v>5224</v>
+        <v>5225</v>
       </c>
       <c r="G1339" t="s">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="H1339">
         <v>93</v>
@@ -61456,30 +61459,30 @@
         <v>9999</v>
       </c>
       <c r="J1339">
-        <v>318</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1340">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B1340">
-        <v>14206</v>
+        <v>14207</v>
       </c>
       <c r="C1340">
-        <v>14206</v>
+        <v>14207</v>
       </c>
       <c r="D1340" t="s">
-        <v>5226</v>
+        <v>5227</v>
       </c>
       <c r="E1340" t="s">
-        <v>5227</v>
+        <v>5228</v>
       </c>
       <c r="F1340" t="s">
-        <v>5228</v>
+        <v>5229</v>
       </c>
       <c r="G1340" t="s">
-        <v>5229</v>
+        <v>5230</v>
       </c>
       <c r="H1340">
         <v>93</v>
@@ -61493,25 +61496,25 @@
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1341">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B1341">
-        <v>14207</v>
+        <v>14208</v>
       </c>
       <c r="C1341">
-        <v>14207</v>
+        <v>14208</v>
       </c>
       <c r="D1341" t="s">
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="E1341" t="s">
-        <v>5231</v>
+        <v>5232</v>
       </c>
       <c r="F1341" t="s">
-        <v>5232</v>
+        <v>5233</v>
       </c>
       <c r="G1341" t="s">
-        <v>5233</v>
+        <v>5234</v>
       </c>
       <c r="H1341">
         <v>93</v>
@@ -61525,25 +61528,25 @@
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1342">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B1342">
-        <v>14208</v>
+        <v>14209</v>
       </c>
       <c r="C1342">
-        <v>14208</v>
+        <v>14209</v>
       </c>
       <c r="D1342" t="s">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="E1342" t="s">
-        <v>5235</v>
+        <v>5236</v>
       </c>
       <c r="F1342" t="s">
-        <v>5236</v>
+        <v>5237</v>
       </c>
       <c r="G1342" t="s">
-        <v>5237</v>
+        <v>5238</v>
       </c>
       <c r="H1342">
         <v>93</v>
@@ -61557,25 +61560,25 @@
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1343">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B1343">
-        <v>14209</v>
+        <v>14210</v>
       </c>
       <c r="C1343">
-        <v>14209</v>
+        <v>14210</v>
       </c>
       <c r="D1343" t="s">
-        <v>5238</v>
+        <v>5239</v>
       </c>
       <c r="E1343" t="s">
-        <v>5239</v>
+        <v>5240</v>
       </c>
       <c r="F1343" t="s">
-        <v>5240</v>
+        <v>5241</v>
       </c>
       <c r="G1343" t="s">
-        <v>5241</v>
+        <v>5242</v>
       </c>
       <c r="H1343">
         <v>93</v>
@@ -61589,25 +61592,25 @@
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1344">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B1344">
-        <v>14210</v>
+        <v>14211</v>
       </c>
       <c r="C1344">
-        <v>14210</v>
+        <v>14211</v>
       </c>
       <c r="D1344" t="s">
-        <v>5242</v>
+        <v>5243</v>
       </c>
       <c r="E1344" t="s">
-        <v>5243</v>
+        <v>5244</v>
       </c>
       <c r="F1344" t="s">
-        <v>5244</v>
+        <v>5245</v>
       </c>
       <c r="G1344" t="s">
-        <v>5245</v>
+        <v>5246</v>
       </c>
       <c r="H1344">
         <v>93</v>
@@ -61616,30 +61619,30 @@
         <v>9999</v>
       </c>
       <c r="J1344">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1345">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B1345">
-        <v>14211</v>
+        <v>14212</v>
       </c>
       <c r="C1345">
-        <v>14211</v>
+        <v>14212</v>
       </c>
       <c r="D1345" t="s">
-        <v>5246</v>
+        <v>5247</v>
       </c>
       <c r="E1345" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="F1345" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="G1345" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
       <c r="H1345">
         <v>93</v>
@@ -61648,30 +61651,30 @@
         <v>9999</v>
       </c>
       <c r="J1345">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1346">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B1346">
-        <v>14212</v>
+        <v>14213</v>
       </c>
       <c r="C1346">
-        <v>14212</v>
+        <v>14213</v>
       </c>
       <c r="D1346" t="s">
-        <v>5250</v>
+        <v>5251</v>
       </c>
       <c r="E1346" t="s">
-        <v>5251</v>
+        <v>5252</v>
       </c>
       <c r="F1346" t="s">
-        <v>5252</v>
+        <v>5253</v>
       </c>
       <c r="G1346" t="s">
-        <v>5253</v>
+        <v>5254</v>
       </c>
       <c r="H1346">
         <v>93</v>
@@ -61685,25 +61688,25 @@
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1347">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B1347">
-        <v>14213</v>
+        <v>14214</v>
       </c>
       <c r="C1347">
-        <v>14213</v>
+        <v>14214</v>
       </c>
       <c r="D1347" t="s">
-        <v>5254</v>
+        <v>5255</v>
       </c>
       <c r="E1347" t="s">
-        <v>5255</v>
+        <v>5256</v>
       </c>
       <c r="F1347" t="s">
-        <v>5256</v>
+        <v>5257</v>
       </c>
       <c r="G1347" t="s">
-        <v>5257</v>
+        <v>5258</v>
       </c>
       <c r="H1347">
         <v>93</v>
@@ -61712,30 +61715,30 @@
         <v>9999</v>
       </c>
       <c r="J1347">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1348">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B1348">
-        <v>14214</v>
+        <v>14215</v>
       </c>
       <c r="C1348">
-        <v>14214</v>
+        <v>14215</v>
       </c>
       <c r="D1348" t="s">
-        <v>5258</v>
+        <v>5259</v>
       </c>
       <c r="E1348" t="s">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="F1348" t="s">
-        <v>5260</v>
+        <v>5261</v>
       </c>
       <c r="G1348" t="s">
-        <v>5261</v>
+        <v>5262</v>
       </c>
       <c r="H1348">
         <v>93</v>
@@ -61744,30 +61747,30 @@
         <v>9999</v>
       </c>
       <c r="J1348">
-        <v>73</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1349">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B1349">
-        <v>14215</v>
+        <v>14216</v>
       </c>
       <c r="C1349">
-        <v>14215</v>
+        <v>14216</v>
       </c>
       <c r="D1349" t="s">
-        <v>5262</v>
+        <v>5263</v>
       </c>
       <c r="E1349" t="s">
-        <v>5263</v>
+        <v>5264</v>
       </c>
       <c r="F1349" t="s">
-        <v>5264</v>
+        <v>5265</v>
       </c>
       <c r="G1349" t="s">
-        <v>5265</v>
+        <v>5266</v>
       </c>
       <c r="H1349">
         <v>93</v>
@@ -61776,30 +61779,30 @@
         <v>9999</v>
       </c>
       <c r="J1349">
-        <v>1001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1350">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B1350">
-        <v>14216</v>
+        <v>14217</v>
       </c>
       <c r="C1350">
-        <v>14216</v>
+        <v>14217</v>
       </c>
       <c r="D1350" t="s">
-        <v>5266</v>
+        <v>5267</v>
       </c>
       <c r="E1350" t="s">
-        <v>5267</v>
+        <v>5268</v>
       </c>
       <c r="F1350" t="s">
-        <v>5268</v>
+        <v>5269</v>
       </c>
       <c r="G1350" t="s">
-        <v>5269</v>
+        <v>5270</v>
       </c>
       <c r="H1350">
         <v>93</v>
@@ -61808,30 +61811,30 @@
         <v>9999</v>
       </c>
       <c r="J1350">
-        <v>109</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1351">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B1351">
-        <v>14217</v>
+        <v>14218</v>
       </c>
       <c r="C1351">
-        <v>14217</v>
+        <v>14218</v>
       </c>
       <c r="D1351" t="s">
-        <v>5270</v>
+        <v>5271</v>
       </c>
       <c r="E1351" t="s">
-        <v>5271</v>
+        <v>5272</v>
       </c>
       <c r="F1351" t="s">
-        <v>5272</v>
+        <v>5273</v>
       </c>
       <c r="G1351" t="s">
-        <v>5273</v>
+        <v>5274</v>
       </c>
       <c r="H1351">
         <v>93</v>
@@ -61840,30 +61843,30 @@
         <v>9999</v>
       </c>
       <c r="J1351">
-        <v>1001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1352">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B1352">
-        <v>14218</v>
+        <v>14219</v>
       </c>
       <c r="C1352">
-        <v>14218</v>
+        <v>14219</v>
       </c>
       <c r="D1352" t="s">
-        <v>5274</v>
+        <v>5275</v>
       </c>
       <c r="E1352" t="s">
-        <v>5275</v>
+        <v>5276</v>
       </c>
       <c r="F1352" t="s">
-        <v>5276</v>
+        <v>5277</v>
       </c>
       <c r="G1352" t="s">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="H1352">
         <v>93</v>
@@ -61872,62 +61875,62 @@
         <v>9999</v>
       </c>
       <c r="J1352">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1353">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B1353">
-        <v>14219</v>
+        <v>14221</v>
       </c>
       <c r="C1353">
-        <v>14219</v>
+        <v>14221</v>
       </c>
       <c r="D1353" t="s">
-        <v>5278</v>
+        <v>5279</v>
       </c>
       <c r="E1353" t="s">
-        <v>5279</v>
+        <v>5280</v>
       </c>
       <c r="F1353" t="s">
-        <v>5280</v>
+        <v>5281</v>
       </c>
       <c r="G1353" t="s">
-        <v>5281</v>
+        <v>5282</v>
       </c>
       <c r="H1353">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1353">
         <v>9999</v>
       </c>
       <c r="J1353">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1354">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B1354">
-        <v>14221</v>
+        <v>14222</v>
       </c>
       <c r="C1354">
-        <v>14221</v>
+        <v>14222</v>
       </c>
       <c r="D1354" t="s">
-        <v>5282</v>
+        <v>5283</v>
       </c>
       <c r="E1354" t="s">
-        <v>5283</v>
+        <v>5284</v>
       </c>
       <c r="F1354" t="s">
-        <v>5284</v>
+        <v>5285</v>
       </c>
       <c r="G1354" t="s">
-        <v>5285</v>
+        <v>5286</v>
       </c>
       <c r="H1354">
         <v>94</v>
@@ -61936,30 +61939,30 @@
         <v>9999</v>
       </c>
       <c r="J1354">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1355">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B1355">
-        <v>14222</v>
+        <v>14223</v>
       </c>
       <c r="C1355">
-        <v>14222</v>
+        <v>14223</v>
       </c>
       <c r="D1355" t="s">
-        <v>5286</v>
+        <v>5287</v>
       </c>
       <c r="E1355" t="s">
-        <v>5287</v>
+        <v>5288</v>
       </c>
       <c r="F1355" t="s">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="G1355" t="s">
-        <v>5289</v>
+        <v>5290</v>
       </c>
       <c r="H1355">
         <v>94</v>
@@ -61968,30 +61971,30 @@
         <v>9999</v>
       </c>
       <c r="J1355">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1356">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B1356">
-        <v>14223</v>
+        <v>14224</v>
       </c>
       <c r="C1356">
-        <v>14223</v>
+        <v>14224</v>
       </c>
       <c r="D1356" t="s">
-        <v>5290</v>
+        <v>5291</v>
       </c>
       <c r="E1356" t="s">
-        <v>5291</v>
+        <v>5292</v>
       </c>
       <c r="F1356" t="s">
-        <v>5292</v>
+        <v>5293</v>
       </c>
       <c r="G1356" t="s">
-        <v>5293</v>
+        <v>5294</v>
       </c>
       <c r="H1356">
         <v>94</v>
@@ -62000,30 +62003,30 @@
         <v>9999</v>
       </c>
       <c r="J1356">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1357">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B1357">
-        <v>14224</v>
+        <v>14225</v>
       </c>
       <c r="C1357">
-        <v>14224</v>
+        <v>14225</v>
       </c>
       <c r="D1357" t="s">
-        <v>5294</v>
+        <v>5295</v>
       </c>
       <c r="E1357" t="s">
-        <v>5295</v>
+        <v>5296</v>
       </c>
       <c r="F1357" t="s">
-        <v>5296</v>
+        <v>5297</v>
       </c>
       <c r="G1357" t="s">
-        <v>5297</v>
+        <v>5298</v>
       </c>
       <c r="H1357">
         <v>94</v>
@@ -62032,30 +62035,30 @@
         <v>9999</v>
       </c>
       <c r="J1357">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1358">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B1358">
-        <v>14225</v>
+        <v>14226</v>
       </c>
       <c r="C1358">
-        <v>14225</v>
+        <v>14226</v>
       </c>
       <c r="D1358" t="s">
-        <v>5298</v>
+        <v>5299</v>
       </c>
       <c r="E1358" t="s">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="F1358" t="s">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="G1358" t="s">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="H1358">
         <v>94</v>
@@ -62064,30 +62067,30 @@
         <v>9999</v>
       </c>
       <c r="J1358">
-        <v>54</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1359">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B1359">
-        <v>14226</v>
+        <v>14227</v>
       </c>
       <c r="C1359">
-        <v>14226</v>
+        <v>14227</v>
       </c>
       <c r="D1359" t="s">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="E1359" t="s">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="F1359" t="s">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="G1359" t="s">
-        <v>5305</v>
+        <v>5306</v>
       </c>
       <c r="H1359">
         <v>94</v>
@@ -62096,82 +62099,82 @@
         <v>9999</v>
       </c>
       <c r="J1359">
-        <v>1001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1360">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B1360">
-        <v>14227</v>
+        <v>14228</v>
       </c>
       <c r="C1360">
-        <v>14227</v>
+        <v>14228</v>
       </c>
       <c r="D1360" t="s">
-        <v>5306</v>
+        <v>5307</v>
       </c>
       <c r="E1360" t="s">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="F1360" t="s">
-        <v>5308</v>
+        <v>5309</v>
       </c>
       <c r="G1360" t="s">
-        <v>5309</v>
+        <v>5310</v>
       </c>
       <c r="H1360">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I1360">
         <v>9999</v>
       </c>
       <c r="J1360">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1361">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B1361">
-        <v>14228</v>
+        <v>14229</v>
       </c>
       <c r="C1361">
-        <v>14228</v>
+        <v>14229</v>
       </c>
       <c r="D1361" t="s">
-        <v>5310</v>
+        <v>5311</v>
       </c>
       <c r="E1361" t="s">
-        <v>5311</v>
+        <v>5312</v>
       </c>
       <c r="F1361" t="s">
-        <v>5312</v>
+        <v>5313</v>
       </c>
       <c r="G1361" t="s">
-        <v>5313</v>
+        <v>1083</v>
       </c>
       <c r="H1361">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I1361">
         <v>9999</v>
       </c>
       <c r="J1361">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1362">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B1362">
-        <v>14229</v>
+        <v>14230</v>
       </c>
       <c r="C1362">
-        <v>14229</v>
+        <v>14230</v>
       </c>
       <c r="D1362" t="s">
         <v>5314</v>
@@ -62192,18 +62195,18 @@
         <v>9999</v>
       </c>
       <c r="J1362">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1363">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B1363">
-        <v>14230</v>
+        <v>14231</v>
       </c>
       <c r="C1363">
-        <v>14230</v>
+        <v>14231</v>
       </c>
       <c r="D1363" t="s">
         <v>5317</v>
@@ -62215,7 +62218,7 @@
         <v>5319</v>
       </c>
       <c r="G1363" t="s">
-        <v>1083</v>
+        <v>5320</v>
       </c>
       <c r="H1363">
         <v>95</v>
@@ -62224,30 +62227,30 @@
         <v>9999</v>
       </c>
       <c r="J1363">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1364">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B1364">
-        <v>14231</v>
+        <v>14232</v>
       </c>
       <c r="C1364">
-        <v>14231</v>
+        <v>14232</v>
       </c>
       <c r="D1364" t="s">
-        <v>5320</v>
+        <v>5321</v>
       </c>
       <c r="E1364" t="s">
-        <v>5321</v>
+        <v>5322</v>
       </c>
       <c r="F1364" t="s">
-        <v>5322</v>
+        <v>5323</v>
       </c>
       <c r="G1364" t="s">
-        <v>5323</v>
+        <v>5324</v>
       </c>
       <c r="H1364">
         <v>95</v>
@@ -62256,68 +62259,68 @@
         <v>9999</v>
       </c>
       <c r="J1364">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1365">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B1365">
-        <v>14232</v>
+        <v>14254</v>
       </c>
       <c r="C1365">
-        <v>14232</v>
+        <v>14254</v>
       </c>
       <c r="D1365" t="s">
-        <v>5324</v>
+        <v>5325</v>
       </c>
       <c r="E1365" t="s">
-        <v>5325</v>
+        <v>5326</v>
       </c>
       <c r="F1365" t="s">
-        <v>5326</v>
+        <v>5327</v>
       </c>
       <c r="G1365" t="s">
-        <v>5327</v>
+        <v>5328</v>
       </c>
       <c r="H1365">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I1365">
+        <v>1</v>
+      </c>
+      <c r="J1365">
         <v>9999</v>
-      </c>
-      <c r="J1365">
-        <v>75</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1366">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B1366">
-        <v>14254</v>
+        <v>14255</v>
       </c>
       <c r="C1366">
-        <v>14254</v>
+        <v>14255</v>
       </c>
       <c r="D1366" t="s">
-        <v>5328</v>
+        <v>5329</v>
       </c>
       <c r="E1366" t="s">
-        <v>5329</v>
+        <v>5330</v>
       </c>
       <c r="F1366" t="s">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="G1366" t="s">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="H1366">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1366">
         <v>9999</v>
@@ -62325,45 +62328,45 @@
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1367">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B1367">
-        <v>14255</v>
+        <v>14256</v>
       </c>
       <c r="C1367">
-        <v>14255</v>
+        <v>14256</v>
       </c>
       <c r="D1367" t="s">
-        <v>5332</v>
+        <v>5333</v>
       </c>
       <c r="E1367" t="s">
-        <v>5333</v>
+        <v>5334</v>
       </c>
       <c r="F1367" t="s">
-        <v>5334</v>
+        <v>5335</v>
       </c>
       <c r="G1367" t="s">
-        <v>5335</v>
+        <v>1083</v>
       </c>
       <c r="H1367">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I1367">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="J1367">
-        <v>9999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1368">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B1368">
-        <v>14256</v>
+        <v>14257</v>
       </c>
       <c r="C1368">
-        <v>14256</v>
+        <v>14216</v>
       </c>
       <c r="D1368" t="s">
         <v>5336</v>
@@ -62375,42 +62378,42 @@
         <v>5338</v>
       </c>
       <c r="G1368" t="s">
-        <v>1083</v>
+        <v>5339</v>
       </c>
       <c r="H1368">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I1368">
         <v>9999</v>
       </c>
       <c r="J1368">
-        <v>73</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1369">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B1369">
-        <v>14257</v>
+        <v>14259</v>
       </c>
       <c r="C1369">
-        <v>14216</v>
+        <v>14223</v>
       </c>
       <c r="D1369" t="s">
-        <v>5339</v>
+        <v>5340</v>
       </c>
       <c r="E1369" t="s">
-        <v>5340</v>
+        <v>5341</v>
       </c>
       <c r="F1369" t="s">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="G1369" t="s">
-        <v>5342</v>
+        <v>5343</v>
       </c>
       <c r="H1369">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1369">
         <v>9999</v>
@@ -62421,25 +62424,25 @@
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1370">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B1370">
-        <v>14259</v>
+        <v>14260</v>
       </c>
       <c r="C1370">
         <v>14223</v>
       </c>
       <c r="D1370" t="s">
-        <v>5343</v>
+        <v>5344</v>
       </c>
       <c r="E1370" t="s">
-        <v>5344</v>
+        <v>5345</v>
       </c>
       <c r="F1370" t="s">
-        <v>5345</v>
+        <v>5346</v>
       </c>
       <c r="G1370" t="s">
-        <v>5346</v>
+        <v>5347</v>
       </c>
       <c r="H1370">
         <v>94</v>
@@ -62453,25 +62456,25 @@
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1371">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B1371">
-        <v>14260</v>
+        <v>14261</v>
       </c>
       <c r="C1371">
         <v>14223</v>
       </c>
       <c r="D1371" t="s">
-        <v>5347</v>
+        <v>5348</v>
       </c>
       <c r="E1371" t="s">
-        <v>5348</v>
+        <v>5349</v>
       </c>
       <c r="F1371" t="s">
-        <v>5349</v>
+        <v>5350</v>
       </c>
       <c r="G1371" t="s">
-        <v>5350</v>
+        <v>5351</v>
       </c>
       <c r="H1371">
         <v>94</v>
@@ -62485,28 +62488,28 @@
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1372">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B1372">
-        <v>14261</v>
+        <v>14264</v>
       </c>
       <c r="C1372">
-        <v>14223</v>
+        <v>14207</v>
       </c>
       <c r="D1372" t="s">
-        <v>5351</v>
+        <v>5352</v>
       </c>
       <c r="E1372" t="s">
-        <v>5352</v>
+        <v>5353</v>
       </c>
       <c r="F1372" t="s">
-        <v>5353</v>
+        <v>5354</v>
       </c>
       <c r="G1372" t="s">
-        <v>5354</v>
+        <v>5355</v>
       </c>
       <c r="H1372">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1372">
         <v>9999</v>
@@ -62517,25 +62520,25 @@
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1373">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B1373">
-        <v>14264</v>
+        <v>14265</v>
       </c>
       <c r="C1373">
         <v>14207</v>
       </c>
       <c r="D1373" t="s">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="E1373" t="s">
-        <v>5356</v>
+        <v>5357</v>
       </c>
       <c r="F1373" t="s">
-        <v>5357</v>
+        <v>5358</v>
       </c>
       <c r="G1373" t="s">
-        <v>5358</v>
+        <v>5359</v>
       </c>
       <c r="H1373">
         <v>93</v>
@@ -62549,25 +62552,25 @@
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1374">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B1374">
-        <v>14265</v>
+        <v>14266</v>
       </c>
       <c r="C1374">
         <v>14207</v>
       </c>
       <c r="D1374" t="s">
-        <v>5359</v>
+        <v>5360</v>
       </c>
       <c r="E1374" t="s">
-        <v>5360</v>
+        <v>5361</v>
       </c>
       <c r="F1374" t="s">
-        <v>5361</v>
+        <v>5362</v>
       </c>
       <c r="G1374" t="s">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="H1374">
         <v>93</v>
@@ -62581,25 +62584,25 @@
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1375">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B1375">
-        <v>14266</v>
+        <v>14267</v>
       </c>
       <c r="C1375">
         <v>14207</v>
       </c>
       <c r="D1375" t="s">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="E1375" t="s">
-        <v>5364</v>
+        <v>5365</v>
       </c>
       <c r="F1375" t="s">
-        <v>5365</v>
+        <v>5366</v>
       </c>
       <c r="G1375" t="s">
-        <v>5366</v>
+        <v>5367</v>
       </c>
       <c r="H1375">
         <v>93</v>
@@ -62613,25 +62616,25 @@
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1376">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B1376">
-        <v>14267</v>
+        <v>14269</v>
       </c>
       <c r="C1376">
-        <v>14207</v>
+        <v>14209</v>
       </c>
       <c r="D1376" t="s">
-        <v>5367</v>
+        <v>5368</v>
       </c>
       <c r="E1376" t="s">
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="F1376" t="s">
-        <v>5369</v>
+        <v>5370</v>
       </c>
       <c r="G1376" t="s">
-        <v>5370</v>
+        <v>5371</v>
       </c>
       <c r="H1376">
         <v>93</v>
@@ -62645,25 +62648,25 @@
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1377">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B1377">
-        <v>14269</v>
+        <v>14271</v>
       </c>
       <c r="C1377">
         <v>14209</v>
       </c>
       <c r="D1377" t="s">
-        <v>5371</v>
+        <v>5372</v>
       </c>
       <c r="E1377" t="s">
-        <v>5372</v>
+        <v>5373</v>
       </c>
       <c r="F1377" t="s">
-        <v>5373</v>
+        <v>5374</v>
       </c>
       <c r="G1377" t="s">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="H1377">
         <v>93</v>
@@ -62677,63 +62680,63 @@
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1378">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B1378">
-        <v>14271</v>
+        <v>14275</v>
       </c>
       <c r="C1378">
-        <v>14209</v>
+        <v>14275</v>
       </c>
       <c r="D1378" t="s">
-        <v>5375</v>
+        <v>5376</v>
       </c>
       <c r="E1378" t="s">
-        <v>5376</v>
+        <v>5377</v>
       </c>
       <c r="F1378" t="s">
-        <v>5377</v>
+        <v>5378</v>
       </c>
       <c r="G1378" t="s">
-        <v>5378</v>
+        <v>5379</v>
       </c>
       <c r="H1378">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I1378">
+        <v>5</v>
+      </c>
+      <c r="J1378">
         <v>9999</v>
-      </c>
-      <c r="J1378">
-        <v>1001</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1379">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B1379">
-        <v>14275</v>
+        <v>14276</v>
       </c>
       <c r="C1379">
-        <v>14275</v>
+        <v>14276</v>
       </c>
       <c r="D1379" t="s">
-        <v>5379</v>
+        <v>5380</v>
       </c>
       <c r="E1379" t="s">
-        <v>5380</v>
+        <v>5381</v>
       </c>
       <c r="F1379" t="s">
-        <v>5381</v>
+        <v>5382</v>
       </c>
       <c r="G1379" t="s">
-        <v>5382</v>
+        <v>5383</v>
       </c>
       <c r="H1379">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I1379">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1379">
         <v>9999</v>
@@ -62741,31 +62744,31 @@
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1380">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B1380">
-        <v>14276</v>
+        <v>20021</v>
       </c>
       <c r="C1380">
-        <v>14276</v>
+        <v>2750</v>
       </c>
       <c r="D1380" t="s">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="E1380" t="s">
-        <v>5384</v>
+        <v>5385</v>
       </c>
       <c r="F1380" t="s">
-        <v>5385</v>
+        <v>5386</v>
       </c>
       <c r="G1380" t="s">
-        <v>5386</v>
+        <v>1083</v>
       </c>
       <c r="H1380">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I1380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1380">
         <v>9999</v>
@@ -62773,13 +62776,13 @@
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1381">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B1381">
-        <v>20021</v>
+        <v>20027</v>
       </c>
       <c r="C1381">
-        <v>2750</v>
+        <v>2773</v>
       </c>
       <c r="D1381" t="s">
         <v>5387</v>
@@ -62791,13 +62794,13 @@
         <v>5389</v>
       </c>
       <c r="G1381" t="s">
-        <v>1083</v>
+        <v>5390</v>
       </c>
       <c r="H1381">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I1381">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1381">
         <v>9999</v>
@@ -62805,25 +62808,25 @@
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1382">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B1382">
-        <v>20027</v>
+        <v>20028</v>
       </c>
       <c r="C1382">
         <v>2773</v>
       </c>
       <c r="D1382" t="s">
-        <v>5390</v>
+        <v>5391</v>
       </c>
       <c r="E1382" t="s">
-        <v>5391</v>
+        <v>5392</v>
       </c>
       <c r="F1382" t="s">
-        <v>5392</v>
+        <v>5393</v>
       </c>
       <c r="G1382" t="s">
-        <v>5393</v>
+        <v>5394</v>
       </c>
       <c r="H1382">
         <v>16</v>
@@ -62837,63 +62840,63 @@
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1383">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B1383">
-        <v>20028</v>
+        <v>20090</v>
       </c>
       <c r="C1383">
-        <v>2773</v>
+        <v>238</v>
       </c>
       <c r="D1383" t="s">
-        <v>5394</v>
+        <v>5395</v>
       </c>
       <c r="E1383" t="s">
-        <v>5395</v>
+        <v>5396</v>
       </c>
       <c r="F1383" t="s">
-        <v>5396</v>
+        <v>5397</v>
       </c>
       <c r="G1383" t="s">
-        <v>5397</v>
+        <v>5398</v>
       </c>
       <c r="H1383">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I1383">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1383">
-        <v>9999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1384">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B1384">
-        <v>20090</v>
+        <v>20169</v>
       </c>
       <c r="C1384">
-        <v>238</v>
+        <v>2846</v>
       </c>
       <c r="D1384" t="s">
-        <v>5398</v>
+        <v>5399</v>
       </c>
       <c r="E1384" t="s">
-        <v>5399</v>
+        <v>5400</v>
       </c>
       <c r="F1384" t="s">
-        <v>5400</v>
+        <v>5401</v>
       </c>
       <c r="G1384" t="s">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="H1384">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I1384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1384">
         <v>75</v>
@@ -62901,25 +62904,25 @@
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1385">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B1385">
-        <v>20169</v>
+        <v>20171</v>
       </c>
       <c r="C1385">
         <v>2846</v>
       </c>
       <c r="D1385" t="s">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="E1385" t="s">
-        <v>5403</v>
+        <v>5404</v>
       </c>
       <c r="F1385" t="s">
-        <v>5404</v>
+        <v>5405</v>
       </c>
       <c r="G1385" t="s">
-        <v>5405</v>
+        <v>5406</v>
       </c>
       <c r="H1385">
         <v>50</v>
@@ -62933,25 +62936,25 @@
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1386">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B1386">
-        <v>20171</v>
+        <v>20172</v>
       </c>
       <c r="C1386">
         <v>2846</v>
       </c>
       <c r="D1386" t="s">
-        <v>5406</v>
+        <v>5407</v>
       </c>
       <c r="E1386" t="s">
-        <v>5407</v>
+        <v>5408</v>
       </c>
       <c r="F1386" t="s">
-        <v>5408</v>
+        <v>5409</v>
       </c>
       <c r="G1386" t="s">
-        <v>5409</v>
+        <v>5410</v>
       </c>
       <c r="H1386">
         <v>50</v>
@@ -62965,25 +62968,25 @@
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1387">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B1387">
-        <v>20172</v>
+        <v>20173</v>
       </c>
       <c r="C1387">
         <v>2846</v>
       </c>
       <c r="D1387" t="s">
-        <v>5410</v>
+        <v>5411</v>
       </c>
       <c r="E1387" t="s">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="F1387" t="s">
-        <v>5412</v>
+        <v>5413</v>
       </c>
       <c r="G1387" t="s">
-        <v>5413</v>
+        <v>5414</v>
       </c>
       <c r="H1387">
         <v>50</v>
@@ -62997,31 +63000,31 @@
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1388">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B1388">
-        <v>20173</v>
+        <v>20259</v>
       </c>
       <c r="C1388">
-        <v>2846</v>
+        <v>139</v>
       </c>
       <c r="D1388" t="s">
-        <v>5414</v>
+        <v>5415</v>
       </c>
       <c r="E1388" t="s">
-        <v>5415</v>
+        <v>5416</v>
       </c>
       <c r="F1388" t="s">
-        <v>5416</v>
+        <v>5417</v>
       </c>
       <c r="G1388" t="s">
-        <v>5417</v>
+        <v>5418</v>
       </c>
       <c r="H1388">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I1388">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1388">
         <v>75</v>
@@ -63029,63 +63032,63 @@
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1389">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B1389">
-        <v>20259</v>
+        <v>20264</v>
       </c>
       <c r="C1389">
-        <v>139</v>
+        <v>2748</v>
       </c>
       <c r="D1389" t="s">
-        <v>5418</v>
+        <v>5419</v>
       </c>
       <c r="E1389" t="s">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="F1389" t="s">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="G1389" t="s">
-        <v>5421</v>
+        <v>5422</v>
       </c>
       <c r="H1389">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1389">
         <v>5</v>
       </c>
       <c r="J1389">
-        <v>75</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1390">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B1390">
-        <v>20264</v>
+        <v>20265</v>
       </c>
       <c r="C1390">
         <v>2748</v>
       </c>
       <c r="D1390" t="s">
-        <v>5422</v>
+        <v>5423</v>
       </c>
       <c r="E1390" t="s">
-        <v>5423</v>
+        <v>5424</v>
       </c>
       <c r="F1390" t="s">
-        <v>5424</v>
+        <v>5425</v>
       </c>
       <c r="G1390" t="s">
-        <v>5425</v>
+        <v>5426</v>
       </c>
       <c r="H1390">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I1390">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1390">
         <v>9999</v>
@@ -63093,89 +63096,89 @@
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1391">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B1391">
-        <v>20265</v>
+        <v>20451</v>
       </c>
       <c r="C1391">
-        <v>2748</v>
+        <v>2915</v>
       </c>
       <c r="D1391" t="s">
-        <v>5426</v>
+        <v>5427</v>
       </c>
       <c r="E1391" t="s">
-        <v>5427</v>
+        <v>5428</v>
       </c>
       <c r="F1391" t="s">
-        <v>5428</v>
+        <v>5429</v>
       </c>
       <c r="G1391" t="s">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="H1391">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I1391">
         <v>1</v>
       </c>
       <c r="J1391">
-        <v>9999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1392">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B1392">
-        <v>20451</v>
+        <v>20478</v>
       </c>
       <c r="C1392">
-        <v>2915</v>
+        <v>2760</v>
       </c>
       <c r="D1392" t="s">
-        <v>5430</v>
+        <v>5431</v>
       </c>
       <c r="E1392" t="s">
-        <v>5431</v>
+        <v>5432</v>
       </c>
       <c r="F1392" t="s">
-        <v>5432</v>
+        <v>5433</v>
       </c>
       <c r="G1392" t="s">
-        <v>5433</v>
+        <v>5434</v>
       </c>
       <c r="H1392">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I1392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1392">
-        <v>73</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1393">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B1393">
-        <v>20478</v>
+        <v>20482</v>
       </c>
       <c r="C1393">
         <v>2760</v>
       </c>
       <c r="D1393" t="s">
-        <v>5434</v>
+        <v>5435</v>
       </c>
       <c r="E1393" t="s">
-        <v>5435</v>
+        <v>5436</v>
       </c>
       <c r="F1393" t="s">
-        <v>5436</v>
+        <v>5437</v>
       </c>
       <c r="G1393" t="s">
-        <v>5437</v>
+        <v>5438</v>
       </c>
       <c r="H1393">
         <v>61</v>
@@ -63189,31 +63192,31 @@
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1394">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B1394">
-        <v>20482</v>
+        <v>20489</v>
       </c>
       <c r="C1394">
-        <v>2760</v>
+        <v>2766</v>
       </c>
       <c r="D1394" t="s">
-        <v>5438</v>
+        <v>5439</v>
       </c>
       <c r="E1394" t="s">
-        <v>5439</v>
+        <v>5440</v>
       </c>
       <c r="F1394" t="s">
-        <v>5440</v>
+        <v>5441</v>
       </c>
       <c r="G1394" t="s">
-        <v>5441</v>
+        <v>5442</v>
       </c>
       <c r="H1394">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I1394">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1394">
         <v>9999</v>
@@ -63221,31 +63224,31 @@
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1395">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B1395">
-        <v>20489</v>
+        <v>20491</v>
       </c>
       <c r="C1395">
         <v>2766</v>
       </c>
       <c r="D1395" t="s">
-        <v>5442</v>
+        <v>5443</v>
       </c>
       <c r="E1395" t="s">
-        <v>5443</v>
+        <v>5444</v>
       </c>
       <c r="F1395" t="s">
-        <v>5444</v>
+        <v>5445</v>
       </c>
       <c r="G1395" t="s">
-        <v>5445</v>
+        <v>5446</v>
       </c>
       <c r="H1395">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I1395">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1395">
         <v>9999</v>
@@ -63253,31 +63256,31 @@
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1396">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B1396">
-        <v>20491</v>
+        <v>20494</v>
       </c>
       <c r="C1396">
         <v>2766</v>
       </c>
       <c r="D1396" t="s">
-        <v>5446</v>
+        <v>5447</v>
       </c>
       <c r="E1396" t="s">
-        <v>5447</v>
+        <v>5448</v>
       </c>
       <c r="F1396" t="s">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="G1396" t="s">
-        <v>5449</v>
+        <v>5450</v>
       </c>
       <c r="H1396">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I1396">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1396">
         <v>9999</v>
@@ -63285,31 +63288,31 @@
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1397">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B1397">
-        <v>20494</v>
+        <v>20495</v>
       </c>
       <c r="C1397">
         <v>2766</v>
       </c>
       <c r="D1397" t="s">
-        <v>5450</v>
+        <v>5451</v>
       </c>
       <c r="E1397" t="s">
-        <v>5451</v>
+        <v>5452</v>
       </c>
       <c r="F1397" t="s">
-        <v>5452</v>
+        <v>5453</v>
       </c>
       <c r="G1397" t="s">
-        <v>5453</v>
+        <v>5454</v>
       </c>
       <c r="H1397">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I1397">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1397">
         <v>9999</v>
@@ -63317,31 +63320,31 @@
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1398">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B1398">
-        <v>20495</v>
+        <v>20497</v>
       </c>
       <c r="C1398">
         <v>2766</v>
       </c>
       <c r="D1398" t="s">
-        <v>5454</v>
+        <v>5455</v>
       </c>
       <c r="E1398" t="s">
-        <v>5455</v>
+        <v>5456</v>
       </c>
       <c r="F1398" t="s">
-        <v>5456</v>
+        <v>5457</v>
       </c>
       <c r="G1398" t="s">
-        <v>5457</v>
+        <v>5458</v>
       </c>
       <c r="H1398">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I1398">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1398">
         <v>9999</v>
@@ -63349,31 +63352,31 @@
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1399">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B1399">
-        <v>20497</v>
+        <v>20510</v>
       </c>
       <c r="C1399">
-        <v>2766</v>
+        <v>1528</v>
       </c>
       <c r="D1399" t="s">
-        <v>5458</v>
+        <v>5459</v>
       </c>
       <c r="E1399" t="s">
-        <v>5459</v>
+        <v>5460</v>
       </c>
       <c r="F1399" t="s">
-        <v>5460</v>
+        <v>5461</v>
       </c>
       <c r="G1399" t="s">
-        <v>5461</v>
+        <v>5462</v>
       </c>
       <c r="H1399">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I1399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1399">
         <v>9999</v>
@@ -63381,31 +63384,31 @@
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1400">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B1400">
-        <v>20510</v>
+        <v>20511</v>
       </c>
       <c r="C1400">
         <v>1528</v>
       </c>
       <c r="D1400" t="s">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="E1400" t="s">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="F1400" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
       <c r="G1400" t="s">
-        <v>5465</v>
+        <v>5466</v>
       </c>
       <c r="H1400">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I1400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1400">
         <v>9999</v>
@@ -63413,28 +63416,28 @@
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1401">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B1401">
-        <v>20511</v>
+        <v>20512</v>
       </c>
       <c r="C1401">
         <v>1528</v>
       </c>
       <c r="D1401" t="s">
-        <v>5466</v>
+        <v>5467</v>
       </c>
       <c r="E1401" t="s">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="F1401" t="s">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="G1401" t="s">
-        <v>5469</v>
+        <v>5470</v>
       </c>
       <c r="H1401">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I1401">
         <v>3</v>
@@ -63445,31 +63448,31 @@
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1402">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B1402">
-        <v>20512</v>
+        <v>20513</v>
       </c>
       <c r="C1402">
         <v>1528</v>
       </c>
       <c r="D1402" t="s">
-        <v>5470</v>
+        <v>5471</v>
       </c>
       <c r="E1402" t="s">
-        <v>5471</v>
+        <v>5472</v>
       </c>
       <c r="F1402" t="s">
-        <v>5472</v>
+        <v>5473</v>
       </c>
       <c r="G1402" t="s">
-        <v>5473</v>
+        <v>5474</v>
       </c>
       <c r="H1402">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1402">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1402">
         <v>9999</v>
@@ -63477,28 +63480,28 @@
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1403">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B1403">
-        <v>20513</v>
+        <v>20515</v>
       </c>
       <c r="C1403">
         <v>1528</v>
       </c>
       <c r="D1403" t="s">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="E1403" t="s">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="F1403" t="s">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="G1403" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="H1403">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I1403">
         <v>1</v>
@@ -63509,28 +63512,28 @@
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1404">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B1404">
-        <v>20515</v>
+        <v>20516</v>
       </c>
       <c r="C1404">
         <v>1528</v>
       </c>
       <c r="D1404" t="s">
-        <v>5478</v>
+        <v>5479</v>
       </c>
       <c r="E1404" t="s">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="F1404" t="s">
-        <v>5480</v>
+        <v>5481</v>
       </c>
       <c r="G1404" t="s">
-        <v>5481</v>
+        <v>5482</v>
       </c>
       <c r="H1404">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I1404">
         <v>1</v>
@@ -63541,28 +63544,28 @@
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1405">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B1405">
-        <v>20516</v>
+        <v>20517</v>
       </c>
       <c r="C1405">
         <v>1528</v>
       </c>
       <c r="D1405" t="s">
-        <v>5482</v>
+        <v>5483</v>
       </c>
       <c r="E1405" t="s">
-        <v>5483</v>
+        <v>5484</v>
       </c>
       <c r="F1405" t="s">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="G1405" t="s">
-        <v>5485</v>
+        <v>5486</v>
       </c>
       <c r="H1405">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I1405">
         <v>1</v>
@@ -63573,31 +63576,31 @@
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1406">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B1406">
-        <v>20517</v>
+        <v>20544</v>
       </c>
       <c r="C1406">
-        <v>1528</v>
+        <v>2768</v>
       </c>
       <c r="D1406" t="s">
-        <v>5486</v>
+        <v>5487</v>
       </c>
       <c r="E1406" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
       <c r="F1406" t="s">
-        <v>5488</v>
+        <v>5489</v>
       </c>
       <c r="G1406" t="s">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="H1406">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I1406">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1406">
         <v>9999</v>
@@ -63605,31 +63608,31 @@
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1407">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B1407">
-        <v>20544</v>
+        <v>20545</v>
       </c>
       <c r="C1407">
         <v>2768</v>
       </c>
       <c r="D1407" t="s">
-        <v>5490</v>
+        <v>5491</v>
       </c>
       <c r="E1407" t="s">
-        <v>5491</v>
+        <v>5492</v>
       </c>
       <c r="F1407" t="s">
-        <v>5492</v>
+        <v>5493</v>
       </c>
       <c r="G1407" t="s">
-        <v>5493</v>
+        <v>5494</v>
       </c>
       <c r="H1407">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I1407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1407">
         <v>9999</v>
@@ -63637,31 +63640,31 @@
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1408">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B1408">
-        <v>20545</v>
+        <v>20546</v>
       </c>
       <c r="C1408">
         <v>2768</v>
       </c>
       <c r="D1408" t="s">
-        <v>5494</v>
+        <v>5495</v>
       </c>
       <c r="E1408" t="s">
-        <v>5495</v>
+        <v>5496</v>
       </c>
       <c r="F1408" t="s">
-        <v>5496</v>
+        <v>5497</v>
       </c>
       <c r="G1408" t="s">
-        <v>5497</v>
+        <v>5498</v>
       </c>
       <c r="H1408">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I1408">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J1408">
         <v>9999</v>
@@ -63669,28 +63672,28 @@
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1409">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B1409">
-        <v>20546</v>
+        <v>20548</v>
       </c>
       <c r="C1409">
         <v>2768</v>
       </c>
       <c r="D1409" t="s">
-        <v>5498</v>
+        <v>5499</v>
       </c>
       <c r="E1409" t="s">
-        <v>5499</v>
+        <v>5500</v>
       </c>
       <c r="F1409" t="s">
-        <v>5500</v>
+        <v>5501</v>
       </c>
       <c r="G1409" t="s">
-        <v>5501</v>
+        <v>5502</v>
       </c>
       <c r="H1409">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I1409">
         <v>5</v>
@@ -63701,31 +63704,31 @@
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1410">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B1410">
-        <v>20548</v>
+        <v>20551</v>
       </c>
       <c r="C1410">
         <v>2768</v>
       </c>
       <c r="D1410" t="s">
-        <v>5502</v>
+        <v>5503</v>
       </c>
       <c r="E1410" t="s">
-        <v>5503</v>
+        <v>5504</v>
       </c>
       <c r="F1410" t="s">
-        <v>5504</v>
+        <v>5505</v>
       </c>
       <c r="G1410" t="s">
-        <v>5505</v>
+        <v>5506</v>
       </c>
       <c r="H1410">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I1410">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1410">
         <v>9999</v>
@@ -63733,31 +63736,31 @@
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1411">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B1411">
-        <v>20551</v>
+        <v>20583</v>
       </c>
       <c r="C1411">
-        <v>2768</v>
+        <v>2800</v>
       </c>
       <c r="D1411" t="s">
-        <v>5506</v>
+        <v>5507</v>
       </c>
       <c r="E1411" t="s">
-        <v>5507</v>
+        <v>5508</v>
       </c>
       <c r="F1411" t="s">
-        <v>5508</v>
+        <v>5509</v>
       </c>
       <c r="G1411" t="s">
-        <v>5509</v>
+        <v>3473</v>
       </c>
       <c r="H1411">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="I1411">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1411">
         <v>9999</v>
@@ -63765,10 +63768,10 @@
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1412">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B1412">
-        <v>20583</v>
+        <v>20584</v>
       </c>
       <c r="C1412">
         <v>2800</v>
@@ -63783,13 +63786,13 @@
         <v>5512</v>
       </c>
       <c r="G1412" t="s">
-        <v>3473</v>
+        <v>5513</v>
       </c>
       <c r="H1412">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I1412">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1412">
         <v>9999</v>
@@ -63797,31 +63800,31 @@
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1413">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B1413">
-        <v>20584</v>
+        <v>20585</v>
       </c>
       <c r="C1413">
         <v>2800</v>
       </c>
       <c r="D1413" t="s">
-        <v>5513</v>
+        <v>5514</v>
       </c>
       <c r="E1413" t="s">
-        <v>5514</v>
+        <v>5515</v>
       </c>
       <c r="F1413" t="s">
-        <v>5515</v>
+        <v>5516</v>
       </c>
       <c r="G1413" t="s">
-        <v>5516</v>
+        <v>5517</v>
       </c>
       <c r="H1413">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I1413">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1413">
         <v>9999</v>
@@ -63829,31 +63832,31 @@
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1414">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B1414">
-        <v>20585</v>
+        <v>20587</v>
       </c>
       <c r="C1414">
         <v>2800</v>
       </c>
       <c r="D1414" t="s">
-        <v>5517</v>
+        <v>5518</v>
       </c>
       <c r="E1414" t="s">
-        <v>5518</v>
+        <v>5519</v>
       </c>
       <c r="F1414" t="s">
-        <v>5519</v>
+        <v>5520</v>
       </c>
       <c r="G1414" t="s">
-        <v>5520</v>
+        <v>5521</v>
       </c>
       <c r="H1414">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="I1414">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1414">
         <v>9999</v>
@@ -63861,31 +63864,31 @@
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1415">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B1415">
-        <v>20587</v>
+        <v>20589</v>
       </c>
       <c r="C1415">
         <v>2800</v>
       </c>
       <c r="D1415" t="s">
-        <v>5521</v>
+        <v>5522</v>
       </c>
       <c r="E1415" t="s">
-        <v>5522</v>
+        <v>5523</v>
       </c>
       <c r="F1415" t="s">
-        <v>5523</v>
+        <v>5524</v>
       </c>
       <c r="G1415" t="s">
-        <v>5524</v>
+        <v>5525</v>
       </c>
       <c r="H1415">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I1415">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1415">
         <v>9999</v>
@@ -63893,31 +63896,31 @@
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1416">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B1416">
-        <v>20589</v>
+        <v>20593</v>
       </c>
       <c r="C1416">
         <v>2800</v>
       </c>
       <c r="D1416" t="s">
-        <v>5525</v>
+        <v>5526</v>
       </c>
       <c r="E1416" t="s">
-        <v>5526</v>
+        <v>5527</v>
       </c>
       <c r="F1416" t="s">
-        <v>5527</v>
+        <v>5528</v>
       </c>
       <c r="G1416" t="s">
-        <v>5528</v>
+        <v>5529</v>
       </c>
       <c r="H1416">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I1416">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J1416">
         <v>9999</v>
@@ -63925,31 +63928,31 @@
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1417">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B1417">
-        <v>20593</v>
+        <v>20594</v>
       </c>
       <c r="C1417">
         <v>2800</v>
       </c>
       <c r="D1417" t="s">
-        <v>5529</v>
+        <v>5530</v>
       </c>
       <c r="E1417" t="s">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="F1417" t="s">
-        <v>5531</v>
+        <v>5532</v>
       </c>
       <c r="G1417" t="s">
-        <v>5532</v>
+        <v>5533</v>
       </c>
       <c r="H1417">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I1417">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1417">
         <v>9999</v>
@@ -63957,31 +63960,31 @@
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1418">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B1418">
-        <v>20594</v>
+        <v>20595</v>
       </c>
       <c r="C1418">
         <v>2800</v>
       </c>
       <c r="D1418" t="s">
-        <v>5533</v>
+        <v>5534</v>
       </c>
       <c r="E1418" t="s">
-        <v>5534</v>
+        <v>5535</v>
       </c>
       <c r="F1418" t="s">
-        <v>5535</v>
+        <v>5536</v>
       </c>
       <c r="G1418" t="s">
-        <v>5536</v>
+        <v>5537</v>
       </c>
       <c r="H1418">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1418">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J1418">
         <v>9999</v>
@@ -63989,31 +63992,31 @@
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1419">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B1419">
-        <v>20595</v>
+        <v>20596</v>
       </c>
       <c r="C1419">
         <v>2800</v>
       </c>
       <c r="D1419" t="s">
-        <v>5537</v>
+        <v>5538</v>
       </c>
       <c r="E1419" t="s">
-        <v>5538</v>
+        <v>5539</v>
       </c>
       <c r="F1419" t="s">
-        <v>5539</v>
+        <v>5540</v>
       </c>
       <c r="G1419" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="H1419">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I1419">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1419">
         <v>9999</v>
@@ -64021,31 +64024,31 @@
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1420">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1420">
-        <v>20596</v>
+        <v>20598</v>
       </c>
       <c r="C1420">
         <v>2800</v>
       </c>
       <c r="D1420" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="E1420" t="s">
-        <v>5542</v>
+        <v>5543</v>
       </c>
       <c r="F1420" t="s">
-        <v>5543</v>
+        <v>5544</v>
       </c>
       <c r="G1420" t="s">
-        <v>5544</v>
+        <v>5545</v>
       </c>
       <c r="H1420">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I1420">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1420">
         <v>9999</v>
@@ -64053,31 +64056,31 @@
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1421">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B1421">
-        <v>20598</v>
+        <v>20630</v>
       </c>
       <c r="C1421">
-        <v>2800</v>
+        <v>2832</v>
       </c>
       <c r="D1421" t="s">
-        <v>5545</v>
+        <v>5546</v>
       </c>
       <c r="E1421" t="s">
-        <v>5546</v>
+        <v>5547</v>
       </c>
       <c r="F1421" t="s">
-        <v>5547</v>
+        <v>5548</v>
       </c>
       <c r="G1421" t="s">
-        <v>5548</v>
+        <v>5549</v>
       </c>
       <c r="H1421">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I1421">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1421">
         <v>9999</v>
@@ -64085,31 +64088,31 @@
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1422">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B1422">
-        <v>20630</v>
+        <v>20642</v>
       </c>
       <c r="C1422">
         <v>2832</v>
       </c>
       <c r="D1422" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
       <c r="E1422" t="s">
-        <v>5550</v>
+        <v>5551</v>
       </c>
       <c r="F1422" t="s">
-        <v>5551</v>
+        <v>5552</v>
       </c>
       <c r="G1422" t="s">
-        <v>5552</v>
+        <v>5553</v>
       </c>
       <c r="H1422">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I1422">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1422">
         <v>9999</v>
@@ -64117,31 +64120,31 @@
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1423">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B1423">
-        <v>20642</v>
+        <v>20674</v>
       </c>
       <c r="C1423">
-        <v>2832</v>
+        <v>2824</v>
       </c>
       <c r="D1423" t="s">
-        <v>5553</v>
+        <v>5554</v>
       </c>
       <c r="E1423" t="s">
-        <v>5554</v>
+        <v>5555</v>
       </c>
       <c r="F1423" t="s">
-        <v>5555</v>
+        <v>5556</v>
       </c>
       <c r="G1423" t="s">
-        <v>5556</v>
+        <v>1083</v>
       </c>
       <c r="H1423">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I1423">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1423">
         <v>9999</v>
@@ -64149,10 +64152,10 @@
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1424">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B1424">
-        <v>20674</v>
+        <v>20675</v>
       </c>
       <c r="C1424">
         <v>2824</v>
@@ -64170,10 +64173,10 @@
         <v>1083</v>
       </c>
       <c r="H1424">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I1424">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1424">
         <v>9999</v>
@@ -64181,10 +64184,10 @@
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1425">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B1425">
-        <v>20675</v>
+        <v>20676</v>
       </c>
       <c r="C1425">
         <v>2824</v>
@@ -64202,10 +64205,10 @@
         <v>1083</v>
       </c>
       <c r="H1425">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I1425">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1425">
         <v>9999</v>
@@ -64213,13 +64216,13 @@
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1426">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B1426">
-        <v>20676</v>
+        <v>20692</v>
       </c>
       <c r="C1426">
-        <v>2824</v>
+        <v>139</v>
       </c>
       <c r="D1426" t="s">
         <v>5563</v>
@@ -64231,71 +64234,71 @@
         <v>5565</v>
       </c>
       <c r="G1426" t="s">
-        <v>1083</v>
+        <v>5566</v>
       </c>
       <c r="H1426">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I1426">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1426">
-        <v>9999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1427">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B1427">
-        <v>20692</v>
+        <v>21081</v>
       </c>
       <c r="C1427">
-        <v>139</v>
+        <v>2953</v>
       </c>
       <c r="D1427" t="s">
-        <v>5566</v>
+        <v>5567</v>
       </c>
       <c r="E1427" t="s">
-        <v>5567</v>
+        <v>5568</v>
       </c>
       <c r="F1427" t="s">
-        <v>5568</v>
+        <v>5569</v>
       </c>
       <c r="G1427" t="s">
-        <v>5569</v>
+        <v>5570</v>
       </c>
       <c r="H1427">
+        <v>47</v>
+      </c>
+      <c r="I1427">
         <v>2</v>
       </c>
-      <c r="I1427">
-        <v>5</v>
-      </c>
       <c r="J1427">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1428">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B1428">
-        <v>21081</v>
+        <v>21086</v>
       </c>
       <c r="C1428">
         <v>2953</v>
       </c>
       <c r="D1428" t="s">
-        <v>5570</v>
+        <v>5571</v>
       </c>
       <c r="E1428" t="s">
-        <v>5571</v>
+        <v>5572</v>
       </c>
       <c r="F1428" t="s">
-        <v>5572</v>
+        <v>5573</v>
       </c>
       <c r="G1428" t="s">
-        <v>5573</v>
+        <v>5574</v>
       </c>
       <c r="H1428">
         <v>47</v>
@@ -64309,25 +64312,25 @@
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1429">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B1429">
-        <v>21086</v>
+        <v>21090</v>
       </c>
       <c r="C1429">
         <v>2953</v>
       </c>
       <c r="D1429" t="s">
-        <v>5574</v>
+        <v>5575</v>
       </c>
       <c r="E1429" t="s">
-        <v>5575</v>
+        <v>5576</v>
       </c>
       <c r="F1429" t="s">
-        <v>5576</v>
+        <v>5577</v>
       </c>
       <c r="G1429" t="s">
-        <v>5577</v>
+        <v>5578</v>
       </c>
       <c r="H1429">
         <v>47</v>
@@ -64341,25 +64344,25 @@
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1430">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B1430">
-        <v>21090</v>
+        <v>21091</v>
       </c>
       <c r="C1430">
         <v>2953</v>
       </c>
       <c r="D1430" t="s">
-        <v>5578</v>
+        <v>5579</v>
       </c>
       <c r="E1430" t="s">
-        <v>5579</v>
+        <v>5580</v>
       </c>
       <c r="F1430" t="s">
-        <v>5580</v>
+        <v>5581</v>
       </c>
       <c r="G1430" t="s">
-        <v>5581</v>
+        <v>5582</v>
       </c>
       <c r="H1430">
         <v>47</v>
@@ -64373,63 +64376,63 @@
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1431">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B1431">
-        <v>21091</v>
+        <v>21348</v>
       </c>
       <c r="C1431">
-        <v>2953</v>
+        <v>1203</v>
       </c>
       <c r="D1431" t="s">
-        <v>5582</v>
+        <v>5583</v>
       </c>
       <c r="E1431" t="s">
-        <v>5583</v>
+        <v>5584</v>
       </c>
       <c r="F1431" t="s">
-        <v>5584</v>
+        <v>5585</v>
       </c>
       <c r="G1431" t="s">
-        <v>5585</v>
+        <v>5586</v>
       </c>
       <c r="H1431">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I1431">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1431">
-        <v>1000</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1432">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B1432">
-        <v>21348</v>
+        <v>21363</v>
       </c>
       <c r="C1432">
         <v>1203</v>
       </c>
       <c r="D1432" t="s">
-        <v>5586</v>
+        <v>5587</v>
       </c>
       <c r="E1432" t="s">
-        <v>5587</v>
+        <v>5588</v>
       </c>
       <c r="F1432" t="s">
-        <v>5588</v>
+        <v>5589</v>
       </c>
       <c r="G1432" t="s">
-        <v>5589</v>
+        <v>5590</v>
       </c>
       <c r="H1432">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I1432">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1432">
         <v>179</v>
@@ -64437,109 +64440,109 @@
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1433">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B1433">
-        <v>21363</v>
+        <v>21748</v>
       </c>
       <c r="C1433">
-        <v>1203</v>
+        <v>11088</v>
       </c>
       <c r="D1433" t="s">
-        <v>5590</v>
+        <v>5591</v>
       </c>
       <c r="E1433" t="s">
-        <v>5591</v>
+        <v>5592</v>
       </c>
       <c r="F1433" t="s">
-        <v>5592</v>
+        <v>5593</v>
       </c>
       <c r="G1433" t="s">
-        <v>5593</v>
+        <v>5594</v>
       </c>
       <c r="H1433">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I1433">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1433">
-        <v>179</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1434">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B1434">
-        <v>21748</v>
+        <v>21766</v>
       </c>
       <c r="C1434">
-        <v>11088</v>
+        <v>11102</v>
       </c>
       <c r="D1434" t="s">
-        <v>5594</v>
+        <v>5595</v>
       </c>
       <c r="E1434" t="s">
-        <v>5595</v>
+        <v>5596</v>
       </c>
       <c r="F1434" t="s">
-        <v>5596</v>
+        <v>5597</v>
       </c>
       <c r="G1434" t="s">
-        <v>5597</v>
+        <v>5598</v>
       </c>
       <c r="H1434">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I1434">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1434">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1435">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B1435">
-        <v>21766</v>
+        <v>21767</v>
       </c>
       <c r="C1435">
-        <v>11102</v>
+        <v>11104</v>
       </c>
       <c r="D1435" t="s">
-        <v>5598</v>
+        <v>5599</v>
       </c>
       <c r="E1435" t="s">
-        <v>5599</v>
+        <v>5600</v>
       </c>
       <c r="F1435" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="G1435" t="s">
-        <v>5601</v>
+        <v>3589</v>
       </c>
       <c r="H1435">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I1435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1435">
-        <v>310</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1436">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B1436">
-        <v>21767</v>
+        <v>21784</v>
       </c>
       <c r="C1436">
-        <v>11104</v>
+        <v>11264</v>
       </c>
       <c r="D1436" t="s">
         <v>5602</v>
@@ -64551,42 +64554,42 @@
         <v>5604</v>
       </c>
       <c r="G1436" t="s">
-        <v>3589</v>
+        <v>5605</v>
       </c>
       <c r="H1436">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I1436">
         <v>2</v>
       </c>
       <c r="J1436">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1437">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B1437">
-        <v>21784</v>
+        <v>21795</v>
       </c>
       <c r="C1437">
         <v>11264</v>
       </c>
       <c r="D1437" t="s">
-        <v>5605</v>
+        <v>5606</v>
       </c>
       <c r="E1437" t="s">
-        <v>5606</v>
+        <v>5607</v>
       </c>
       <c r="F1437" t="s">
-        <v>5607</v>
+        <v>5608</v>
       </c>
       <c r="G1437" t="s">
-        <v>5608</v>
+        <v>5609</v>
       </c>
       <c r="H1437">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I1437">
         <v>2</v>
@@ -64597,16 +64600,16 @@
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1438">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B1438">
-        <v>21795</v>
+        <v>22091</v>
       </c>
       <c r="C1438">
-        <v>11264</v>
+        <v>2959</v>
       </c>
       <c r="D1438" t="s">
-        <v>5609</v>
+        <v>5610</v>
       </c>
       <c r="E1438" t="s">
         <v>5610</v>
@@ -64618,21 +64621,21 @@
         <v>5612</v>
       </c>
       <c r="H1438">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I1438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1438">
-        <v>109</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1439">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B1439">
-        <v>22091</v>
+        <v>22092</v>
       </c>
       <c r="C1439">
         <v>2959</v>
@@ -64661,10 +64664,10 @@
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1440">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B1440">
-        <v>22092</v>
+        <v>22093</v>
       </c>
       <c r="C1440">
         <v>2959</v>
@@ -64682,10 +64685,10 @@
         <v>5618</v>
       </c>
       <c r="H1440">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I1440">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1440">
         <v>9999</v>
@@ -64693,10 +64696,10 @@
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1441">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B1441">
-        <v>22093</v>
+        <v>22094</v>
       </c>
       <c r="C1441">
         <v>2959</v>
@@ -64711,13 +64714,13 @@
         <v>5620</v>
       </c>
       <c r="G1441" t="s">
-        <v>5621</v>
+        <v>3049</v>
       </c>
       <c r="H1441">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I1441">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1441">
         <v>9999</v>
@@ -64725,31 +64728,31 @@
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1442">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1442">
-        <v>22094</v>
+        <v>22095</v>
       </c>
       <c r="C1442">
         <v>2959</v>
       </c>
       <c r="D1442" t="s">
+        <v>5621</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>5621</v>
+      </c>
+      <c r="F1442" t="s">
         <v>5622</v>
       </c>
-      <c r="E1442" t="s">
-        <v>5622</v>
-      </c>
-      <c r="F1442" t="s">
+      <c r="G1442" t="s">
         <v>5623</v>
       </c>
-      <c r="G1442" t="s">
-        <v>3049</v>
-      </c>
       <c r="H1442">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I1442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1442">
         <v>9999</v>
@@ -64757,31 +64760,31 @@
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1443">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B1443">
-        <v>22095</v>
+        <v>22103</v>
       </c>
       <c r="C1443">
-        <v>2959</v>
+        <v>2749</v>
       </c>
       <c r="D1443" t="s">
         <v>5624</v>
       </c>
       <c r="E1443" t="s">
-        <v>5624</v>
+        <v>5625</v>
       </c>
       <c r="F1443" t="s">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="G1443" t="s">
-        <v>5626</v>
+        <v>5627</v>
       </c>
       <c r="H1443">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I1443">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J1443">
         <v>9999</v>
@@ -64789,31 +64792,31 @@
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1444">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B1444">
-        <v>22103</v>
+        <v>22483</v>
       </c>
       <c r="C1444">
         <v>2749</v>
       </c>
       <c r="D1444" t="s">
-        <v>5627</v>
+        <v>5628</v>
       </c>
       <c r="E1444" t="s">
-        <v>5628</v>
+        <v>5629</v>
       </c>
       <c r="F1444" t="s">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="G1444" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="H1444">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I1444">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1444">
         <v>9999</v>
@@ -64821,63 +64824,63 @@
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1445">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B1445">
-        <v>22483</v>
+        <v>22521</v>
       </c>
       <c r="C1445">
-        <v>2749</v>
+        <v>11010</v>
       </c>
       <c r="D1445" t="s">
-        <v>5631</v>
+        <v>5632</v>
       </c>
       <c r="E1445" t="s">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="F1445" t="s">
-        <v>5633</v>
+        <v>5634</v>
       </c>
       <c r="G1445" t="s">
-        <v>5634</v>
+        <v>5635</v>
       </c>
       <c r="H1445">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I1445">
         <v>1</v>
       </c>
       <c r="J1445">
-        <v>9999</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1446">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B1446">
-        <v>22521</v>
+        <v>22522</v>
       </c>
       <c r="C1446">
         <v>11010</v>
       </c>
       <c r="D1446" t="s">
-        <v>5635</v>
+        <v>5636</v>
       </c>
       <c r="E1446" t="s">
-        <v>5636</v>
+        <v>5637</v>
       </c>
       <c r="F1446" t="s">
-        <v>5637</v>
+        <v>5638</v>
       </c>
       <c r="G1446" t="s">
-        <v>5638</v>
+        <v>5639</v>
       </c>
       <c r="H1446">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="I1446">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1446">
         <v>110</v>
@@ -64885,63 +64888,63 @@
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1447">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B1447">
-        <v>22522</v>
+        <v>22523</v>
       </c>
       <c r="C1447">
-        <v>11010</v>
+        <v>1203</v>
       </c>
       <c r="D1447" t="s">
-        <v>5639</v>
+        <v>5640</v>
       </c>
       <c r="E1447" t="s">
-        <v>5640</v>
+        <v>5641</v>
       </c>
       <c r="F1447" t="s">
-        <v>5641</v>
+        <v>5642</v>
       </c>
       <c r="G1447" t="s">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="H1447">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="I1447">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1447">
-        <v>110</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1448">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B1448">
-        <v>22523</v>
+        <v>22524</v>
       </c>
       <c r="C1448">
         <v>1203</v>
       </c>
       <c r="D1448" t="s">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="E1448" t="s">
-        <v>5644</v>
+        <v>5645</v>
       </c>
       <c r="F1448" t="s">
-        <v>5645</v>
+        <v>5646</v>
       </c>
       <c r="G1448" t="s">
-        <v>5646</v>
+        <v>5647</v>
       </c>
       <c r="H1448">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I1448">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J1448">
         <v>179</v>
@@ -64949,25 +64952,25 @@
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1449">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1449">
-        <v>22524</v>
+        <v>22553</v>
       </c>
       <c r="C1449">
-        <v>1203</v>
+        <v>13124</v>
       </c>
       <c r="D1449" t="s">
-        <v>5647</v>
+        <v>5648</v>
       </c>
       <c r="E1449" t="s">
-        <v>5648</v>
+        <v>5649</v>
       </c>
       <c r="F1449" t="s">
-        <v>5649</v>
+        <v>5650</v>
       </c>
       <c r="G1449" t="s">
-        <v>5650</v>
+        <v>1083</v>
       </c>
       <c r="H1449">
         <v>16</v>
@@ -64976,18 +64979,18 @@
         <v>5</v>
       </c>
       <c r="J1449">
-        <v>179</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1450">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B1450">
-        <v>22553</v>
+        <v>22559</v>
       </c>
       <c r="C1450">
-        <v>13124</v>
+        <v>12964</v>
       </c>
       <c r="D1450" t="s">
         <v>5651</v>
@@ -64999,39 +65002,39 @@
         <v>5653</v>
       </c>
       <c r="G1450" t="s">
-        <v>1083</v>
+        <v>5654</v>
       </c>
       <c r="H1450">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I1450">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1450">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1451">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B1451">
-        <v>22559</v>
+        <v>22561</v>
       </c>
       <c r="C1451">
-        <v>12964</v>
+        <v>13004</v>
       </c>
       <c r="D1451" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="E1451" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="F1451" t="s">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="G1451" t="s">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="H1451">
         <v>26</v>
@@ -65045,25 +65048,25 @@
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B1452">
-        <v>22561</v>
+        <v>22562</v>
       </c>
       <c r="C1452">
         <v>13004</v>
       </c>
       <c r="D1452" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="E1452" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="F1452" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="G1452" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="H1452">
         <v>26</v>
@@ -65077,25 +65080,25 @@
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B1453">
-        <v>22562</v>
+        <v>22563</v>
       </c>
       <c r="C1453">
         <v>13004</v>
       </c>
       <c r="D1453" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
       <c r="E1453" t="s">
-        <v>5663</v>
+        <v>5664</v>
       </c>
       <c r="F1453" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="G1453" t="s">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="H1453">
         <v>26</v>
@@ -65109,74 +65112,74 @@
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B1454">
-        <v>22563</v>
+        <v>22567</v>
       </c>
       <c r="C1454">
-        <v>13004</v>
+        <v>12814</v>
       </c>
       <c r="D1454" t="s">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="E1454" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="F1454" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="G1454" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="H1454">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I1454">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1454">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B1455">
-        <v>22567</v>
+        <v>22569</v>
       </c>
       <c r="C1455">
-        <v>12814</v>
+        <v>13233</v>
       </c>
       <c r="D1455" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="E1455" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="F1455" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="G1455" t="s">
-        <v>5673</v>
+        <v>1083</v>
       </c>
       <c r="H1455">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I1455">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1455">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B1456">
-        <v>22569</v>
+        <v>22570</v>
       </c>
       <c r="C1456">
         <v>13233</v>
@@ -65205,13 +65208,13 @@
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B1457">
-        <v>22570</v>
+        <v>22572</v>
       </c>
       <c r="C1457">
-        <v>13233</v>
+        <v>13079</v>
       </c>
       <c r="D1457" t="s">
         <v>5677</v>
@@ -65223,42 +65226,42 @@
         <v>5679</v>
       </c>
       <c r="G1457" t="s">
-        <v>1083</v>
+        <v>5680</v>
       </c>
       <c r="H1457">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I1457">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1457">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B1458">
-        <v>22572</v>
+        <v>22573</v>
       </c>
       <c r="C1458">
         <v>13079</v>
       </c>
       <c r="D1458" t="s">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="E1458" t="s">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="F1458" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="G1458" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="H1458">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1458">
         <v>1</v>
@@ -65269,31 +65272,31 @@
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B1459">
-        <v>22573</v>
+        <v>22574</v>
       </c>
       <c r="C1459">
         <v>13079</v>
       </c>
       <c r="D1459" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="E1459" t="s">
-        <v>5685</v>
+        <v>5686</v>
       </c>
       <c r="F1459" t="s">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="G1459" t="s">
-        <v>5687</v>
+        <v>5688</v>
       </c>
       <c r="H1459">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I1459">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1459">
         <v>9999</v>
@@ -65301,63 +65304,63 @@
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B1460">
-        <v>22574</v>
+        <v>22575</v>
       </c>
       <c r="C1460">
-        <v>13079</v>
+        <v>13152</v>
       </c>
       <c r="D1460" t="s">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="E1460" t="s">
-        <v>5689</v>
+        <v>5690</v>
       </c>
       <c r="F1460" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
       <c r="G1460" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="H1460">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I1460">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1460">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B1461">
-        <v>22575</v>
+        <v>22576</v>
       </c>
       <c r="C1461">
-        <v>13152</v>
+        <v>13009</v>
       </c>
       <c r="D1461" t="s">
-        <v>5692</v>
+        <v>5693</v>
       </c>
       <c r="E1461" t="s">
-        <v>5693</v>
+        <v>5694</v>
       </c>
       <c r="F1461" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="G1461" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="H1461">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1461">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1461">
         <v>1000</v>
@@ -65365,60 +65368,60 @@
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B1462">
-        <v>22576</v>
+        <v>22581</v>
       </c>
       <c r="C1462">
-        <v>13009</v>
+        <v>13178</v>
       </c>
       <c r="D1462" t="s">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="E1462" t="s">
-        <v>5697</v>
+        <v>5698</v>
       </c>
       <c r="F1462" t="s">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="G1462" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="H1462">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I1462">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1462">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B1463">
-        <v>22581</v>
+        <v>22582</v>
       </c>
       <c r="C1463">
         <v>13178</v>
       </c>
       <c r="D1463" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="E1463" t="s">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="F1463" t="s">
-        <v>5702</v>
+        <v>5703</v>
       </c>
       <c r="G1463" t="s">
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="H1463">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I1463">
         <v>1</v>
@@ -65429,28 +65432,28 @@
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B1464">
-        <v>22582</v>
+        <v>22583</v>
       </c>
       <c r="C1464">
         <v>13178</v>
       </c>
       <c r="D1464" t="s">
-        <v>5704</v>
+        <v>5705</v>
       </c>
       <c r="E1464" t="s">
-        <v>5705</v>
+        <v>5706</v>
       </c>
       <c r="F1464" t="s">
-        <v>5706</v>
+        <v>5707</v>
       </c>
       <c r="G1464" t="s">
-        <v>5707</v>
+        <v>5708</v>
       </c>
       <c r="H1464">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I1464">
         <v>1</v>
@@ -65461,28 +65464,28 @@
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B1465">
-        <v>22583</v>
+        <v>22584</v>
       </c>
       <c r="C1465">
         <v>13178</v>
       </c>
       <c r="D1465" t="s">
-        <v>5708</v>
+        <v>5709</v>
       </c>
       <c r="E1465" t="s">
-        <v>5709</v>
+        <v>5710</v>
       </c>
       <c r="F1465" t="s">
-        <v>5710</v>
+        <v>5711</v>
       </c>
       <c r="G1465" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="H1465">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I1465">
         <v>1</v>
@@ -65493,31 +65496,31 @@
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B1466">
-        <v>22584</v>
+        <v>22598</v>
       </c>
       <c r="C1466">
-        <v>13178</v>
+        <v>13053</v>
       </c>
       <c r="D1466" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="E1466" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="F1466" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="G1466" t="s">
-        <v>5715</v>
+        <v>4780</v>
       </c>
       <c r="H1466">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1466">
         <v>9999</v>
@@ -65525,10 +65528,10 @@
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B1467">
-        <v>22598</v>
+        <v>22599</v>
       </c>
       <c r="C1467">
         <v>13053</v>
@@ -65546,10 +65549,10 @@
         <v>4780</v>
       </c>
       <c r="H1467">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I1467">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J1467">
         <v>9999</v>
@@ -65557,10 +65560,10 @@
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B1468">
-        <v>22599</v>
+        <v>22600</v>
       </c>
       <c r="C1468">
         <v>13053</v>
@@ -65578,7 +65581,7 @@
         <v>4780</v>
       </c>
       <c r="H1468">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="I1468">
         <v>5</v>
@@ -65589,10 +65592,10 @@
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B1469">
-        <v>22600</v>
+        <v>22601</v>
       </c>
       <c r="C1469">
         <v>13053</v>
@@ -65610,7 +65613,7 @@
         <v>4780</v>
       </c>
       <c r="H1469">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I1469">
         <v>5</v>
@@ -65621,10 +65624,10 @@
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1470">
-        <v>22601</v>
+        <v>22602</v>
       </c>
       <c r="C1470">
         <v>13053</v>
@@ -65642,10 +65645,10 @@
         <v>4780</v>
       </c>
       <c r="H1470">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I1470">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1470">
         <v>9999</v>
@@ -65653,10 +65656,10 @@
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B1471">
-        <v>22602</v>
+        <v>22603</v>
       </c>
       <c r="C1471">
         <v>13053</v>
@@ -65674,10 +65677,10 @@
         <v>4780</v>
       </c>
       <c r="H1471">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1471">
         <v>9999</v>
@@ -65685,10 +65688,10 @@
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B1472">
-        <v>22603</v>
+        <v>22606</v>
       </c>
       <c r="C1472">
         <v>13053</v>
@@ -65706,10 +65709,10 @@
         <v>4780</v>
       </c>
       <c r="H1472">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I1472">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1472">
         <v>9999</v>
@@ -65717,10 +65720,10 @@
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1473">
-        <v>22606</v>
+        <v>22607</v>
       </c>
       <c r="C1473">
         <v>13053</v>
@@ -65738,10 +65741,10 @@
         <v>4780</v>
       </c>
       <c r="H1473">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I1473">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1473">
         <v>9999</v>
@@ -65749,10 +65752,10 @@
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B1474">
-        <v>22607</v>
+        <v>22608</v>
       </c>
       <c r="C1474">
         <v>13053</v>
@@ -65770,7 +65773,7 @@
         <v>4780</v>
       </c>
       <c r="H1474">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I1474">
         <v>5</v>
@@ -65781,10 +65784,10 @@
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B1475">
-        <v>22608</v>
+        <v>22609</v>
       </c>
       <c r="C1475">
         <v>13053</v>
@@ -65802,7 +65805,7 @@
         <v>4780</v>
       </c>
       <c r="H1475">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1475">
         <v>5</v>
@@ -65813,10 +65816,10 @@
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B1476">
-        <v>22609</v>
+        <v>22612</v>
       </c>
       <c r="C1476">
         <v>13053</v>
@@ -65834,10 +65837,10 @@
         <v>4780</v>
       </c>
       <c r="H1476">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I1476">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1476">
         <v>9999</v>
@@ -65845,10 +65848,10 @@
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B1477">
-        <v>22612</v>
+        <v>22614</v>
       </c>
       <c r="C1477">
         <v>13053</v>
@@ -65866,10 +65869,10 @@
         <v>4780</v>
       </c>
       <c r="H1477">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I1477">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1477">
         <v>9999</v>
@@ -65877,13 +65880,13 @@
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B1478">
-        <v>22614</v>
+        <v>22619</v>
       </c>
       <c r="C1478">
-        <v>13053</v>
+        <v>12904</v>
       </c>
       <c r="D1478" t="s">
         <v>5749</v>
@@ -65895,24 +65898,24 @@
         <v>5751</v>
       </c>
       <c r="G1478" t="s">
-        <v>4780</v>
+        <v>4443</v>
       </c>
       <c r="H1478">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I1478">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1478">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B1479">
-        <v>22619</v>
+        <v>22620</v>
       </c>
       <c r="C1479">
         <v>12904</v>
@@ -65941,13 +65944,13 @@
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1480">
-        <v>22620</v>
+        <v>22628</v>
       </c>
       <c r="C1480">
-        <v>12904</v>
+        <v>13196</v>
       </c>
       <c r="D1480" t="s">
         <v>5755</v>
@@ -65959,24 +65962,24 @@
         <v>5757</v>
       </c>
       <c r="G1480" t="s">
-        <v>4443</v>
+        <v>1083</v>
       </c>
       <c r="H1480">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I1480">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1480">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B1481">
-        <v>22628</v>
+        <v>22629</v>
       </c>
       <c r="C1481">
         <v>13196</v>
@@ -66005,10 +66008,10 @@
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B1482">
-        <v>22629</v>
+        <v>22630</v>
       </c>
       <c r="C1482">
         <v>13196</v>
@@ -66026,7 +66029,7 @@
         <v>1083</v>
       </c>
       <c r="H1482">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I1482">
         <v>6</v>
@@ -66037,10 +66040,10 @@
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B1483">
-        <v>22630</v>
+        <v>22631</v>
       </c>
       <c r="C1483">
         <v>13196</v>
@@ -66058,7 +66061,7 @@
         <v>1083</v>
       </c>
       <c r="H1483">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I1483">
         <v>6</v>
@@ -66069,10 +66072,10 @@
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B1484">
-        <v>22631</v>
+        <v>22633</v>
       </c>
       <c r="C1484">
         <v>13196</v>
@@ -66090,7 +66093,7 @@
         <v>1083</v>
       </c>
       <c r="H1484">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I1484">
         <v>6</v>
@@ -66101,13 +66104,13 @@
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1485">
-        <v>22633</v>
+        <v>22760</v>
       </c>
       <c r="C1485">
-        <v>13196</v>
+        <v>13026</v>
       </c>
       <c r="D1485" t="s">
         <v>5770</v>
@@ -66119,10 +66122,10 @@
         <v>5772</v>
       </c>
       <c r="G1485" t="s">
-        <v>1083</v>
+        <v>5773</v>
       </c>
       <c r="H1485">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1485">
         <v>6</v>
@@ -66133,31 +66136,31 @@
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1486">
-        <v>22760</v>
+        <v>22822</v>
       </c>
       <c r="C1486">
-        <v>13026</v>
+        <v>13204</v>
       </c>
       <c r="D1486" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="E1486" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="F1486" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="G1486" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="H1486">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I1486">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J1486">
         <v>9999</v>
@@ -66165,31 +66168,31 @@
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B1487">
-        <v>22822</v>
+        <v>22823</v>
       </c>
       <c r="C1487">
         <v>13204</v>
       </c>
       <c r="D1487" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="E1487" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="F1487" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="G1487" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="H1487">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I1487">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1487">
         <v>9999</v>
@@ -66197,31 +66200,31 @@
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B1488">
-        <v>22823</v>
+        <v>22824</v>
       </c>
       <c r="C1488">
         <v>13204</v>
       </c>
       <c r="D1488" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="E1488" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="F1488" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="G1488" t="s">
-        <v>5784</v>
+        <v>787</v>
       </c>
       <c r="H1488">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I1488">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1488">
         <v>9999</v>
@@ -66229,10 +66232,10 @@
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B1489">
-        <v>22824</v>
+        <v>22827</v>
       </c>
       <c r="C1489">
         <v>13204</v>
@@ -66247,13 +66250,13 @@
         <v>5787</v>
       </c>
       <c r="G1489" t="s">
-        <v>787</v>
+        <v>5788</v>
       </c>
       <c r="H1489">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I1489">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1489">
         <v>9999</v>
@@ -66261,28 +66264,28 @@
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1490">
-        <v>22827</v>
+        <v>22828</v>
       </c>
       <c r="C1490">
         <v>13204</v>
       </c>
       <c r="D1490" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="E1490" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="F1490" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="G1490" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="H1490">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I1490">
         <v>5</v>
@@ -66293,28 +66296,28 @@
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1491">
-        <v>22828</v>
+        <v>22829</v>
       </c>
       <c r="C1491">
         <v>13204</v>
       </c>
       <c r="D1491" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="E1491" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="F1491" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="G1491" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="H1491">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I1491">
         <v>5</v>
@@ -66325,31 +66328,31 @@
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B1492">
-        <v>22829</v>
+        <v>22830</v>
       </c>
       <c r="C1492">
         <v>13204</v>
       </c>
       <c r="D1492" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="E1492" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="F1492" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="G1492" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="H1492">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I1492">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1492">
         <v>9999</v>
@@ -66357,31 +66360,31 @@
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B1493">
-        <v>22830</v>
+        <v>22831</v>
       </c>
       <c r="C1493">
         <v>13204</v>
       </c>
       <c r="D1493" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="E1493" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="F1493" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="G1493" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="H1493">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I1493">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1493">
         <v>9999</v>
@@ -66389,28 +66392,28 @@
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B1494">
-        <v>22831</v>
+        <v>22832</v>
       </c>
       <c r="C1494">
         <v>13204</v>
       </c>
       <c r="D1494" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="E1494" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="F1494" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="G1494" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="H1494">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I1494">
         <v>2</v>
@@ -66421,31 +66424,31 @@
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1495">
-        <v>22832</v>
+        <v>22833</v>
       </c>
       <c r="C1495">
         <v>13204</v>
       </c>
       <c r="D1495" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="E1495" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="F1495" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="G1495" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="H1495">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I1495">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1495">
         <v>9999</v>
@@ -66453,31 +66456,31 @@
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1496">
-        <v>22833</v>
+        <v>22834</v>
       </c>
       <c r="C1496">
         <v>13204</v>
       </c>
       <c r="D1496" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="E1496" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="F1496" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="G1496" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="H1496">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I1496">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1496">
         <v>9999</v>
@@ -66485,31 +66488,31 @@
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1497">
-        <v>22834</v>
+        <v>22835</v>
       </c>
       <c r="C1497">
         <v>13204</v>
       </c>
       <c r="D1497" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="E1497" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="F1497" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="G1497" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="H1497">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I1497">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1497">
         <v>9999</v>
@@ -66517,31 +66520,31 @@
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1498">
-        <v>22835</v>
+        <v>22837</v>
       </c>
       <c r="C1498">
         <v>13204</v>
       </c>
       <c r="D1498" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="E1498" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="F1498" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="G1498" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="H1498">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I1498">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1498">
         <v>9999</v>
@@ -66549,31 +66552,31 @@
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B1499">
-        <v>22837</v>
+        <v>22841</v>
       </c>
       <c r="C1499">
-        <v>13204</v>
+        <v>12999</v>
       </c>
       <c r="D1499" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="E1499" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="F1499" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="G1499" t="s">
-        <v>5827</v>
+        <v>1083</v>
       </c>
       <c r="H1499">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I1499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1499">
         <v>9999</v>
@@ -66581,10 +66584,10 @@
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B1500">
-        <v>22841</v>
+        <v>22842</v>
       </c>
       <c r="C1500">
         <v>12999</v>
@@ -66602,7 +66605,7 @@
         <v>1083</v>
       </c>
       <c r="H1500">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I1500">
         <v>2</v>
@@ -66613,13 +66616,13 @@
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1501">
-        <v>22842</v>
+        <v>22845</v>
       </c>
       <c r="C1501">
-        <v>12999</v>
+        <v>12848</v>
       </c>
       <c r="D1501" t="s">
         <v>5831</v>
@@ -66631,10 +66634,10 @@
         <v>5833</v>
       </c>
       <c r="G1501" t="s">
-        <v>1083</v>
+        <v>5834</v>
       </c>
       <c r="H1501">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I1501">
         <v>2</v>
@@ -66645,31 +66648,31 @@
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1502">
-        <v>22845</v>
+        <v>22848</v>
       </c>
       <c r="C1502">
         <v>12848</v>
       </c>
       <c r="D1502" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="E1502" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="F1502" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="G1502" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="H1502">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I1502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1502">
         <v>9999</v>
@@ -66677,31 +66680,31 @@
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1503">
-        <v>22848</v>
+        <v>22851</v>
       </c>
       <c r="C1503">
         <v>12848</v>
       </c>
       <c r="D1503" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="E1503" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="F1503" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="G1503" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="H1503">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I1503">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1503">
         <v>9999</v>
@@ -66709,31 +66712,31 @@
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1504">
-        <v>22851</v>
+        <v>22853</v>
       </c>
       <c r="C1504">
         <v>12848</v>
       </c>
       <c r="D1504" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="E1504" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="F1504" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="G1504" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="H1504">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I1504">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1504">
         <v>9999</v>
@@ -66741,28 +66744,28 @@
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1505">
-        <v>22853</v>
+        <v>22855</v>
       </c>
       <c r="C1505">
         <v>12848</v>
       </c>
       <c r="D1505" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="E1505" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="F1505" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="G1505" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="H1505">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I1505">
         <v>2</v>
@@ -66773,31 +66776,31 @@
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1506">
-        <v>22855</v>
+        <v>22856</v>
       </c>
       <c r="C1506">
         <v>12848</v>
       </c>
       <c r="D1506" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="E1506" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="F1506" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="G1506" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="H1506">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I1506">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J1506">
         <v>9999</v>
@@ -66805,31 +66808,31 @@
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1507">
-        <v>22856</v>
+        <v>22857</v>
       </c>
       <c r="C1507">
-        <v>12848</v>
+        <v>12960</v>
       </c>
       <c r="D1507" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="E1507" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="F1507" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="G1507" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="H1507">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I1507">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1507">
         <v>9999</v>
@@ -66837,31 +66840,31 @@
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1508">
-        <v>22857</v>
+        <v>22858</v>
       </c>
       <c r="C1508">
         <v>12960</v>
       </c>
       <c r="D1508" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="E1508" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="F1508" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="G1508" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="H1508">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I1508">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J1508">
         <v>9999</v>
@@ -66869,28 +66872,28 @@
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1509">
-        <v>22858</v>
+        <v>23199</v>
       </c>
       <c r="C1509">
-        <v>12960</v>
+        <v>12835</v>
       </c>
       <c r="D1509" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="E1509" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="F1509" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="G1509" t="s">
-        <v>5865</v>
+        <v>1083</v>
       </c>
       <c r="H1509">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I1509">
         <v>2</v>
@@ -66901,13 +66904,13 @@
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1510">
-        <v>23199</v>
+        <v>23200</v>
       </c>
       <c r="C1510">
-        <v>12835</v>
+        <v>13041</v>
       </c>
       <c r="D1510" t="s">
         <v>5866</v>
@@ -66919,13 +66922,13 @@
         <v>5868</v>
       </c>
       <c r="G1510" t="s">
-        <v>1083</v>
+        <v>4755</v>
       </c>
       <c r="H1510">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I1510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1510">
         <v>9999</v>
@@ -66933,10 +66936,10 @@
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1511">
-        <v>23200</v>
+        <v>23201</v>
       </c>
       <c r="C1511">
         <v>13041</v>
@@ -66954,10 +66957,10 @@
         <v>4755</v>
       </c>
       <c r="H1511">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I1511">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1511">
         <v>9999</v>
@@ -66965,13 +66968,13 @@
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1512">
-        <v>23201</v>
+        <v>23284</v>
       </c>
       <c r="C1512">
-        <v>13041</v>
+        <v>2824</v>
       </c>
       <c r="D1512" t="s">
         <v>5872</v>
@@ -66983,13 +66986,13 @@
         <v>5874</v>
       </c>
       <c r="G1512" t="s">
-        <v>4755</v>
+        <v>1083</v>
       </c>
       <c r="H1512">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I1512">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1512">
         <v>9999</v>
@@ -66997,10 +67000,10 @@
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1513">
-        <v>23284</v>
+        <v>23285</v>
       </c>
       <c r="C1513">
         <v>2824</v>
@@ -67018,10 +67021,10 @@
         <v>1083</v>
       </c>
       <c r="H1513">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I1513">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1513">
         <v>9999</v>
@@ -67029,10 +67032,10 @@
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1514">
-        <v>23285</v>
+        <v>23286</v>
       </c>
       <c r="C1514">
         <v>2824</v>
@@ -67050,10 +67053,10 @@
         <v>1083</v>
       </c>
       <c r="H1514">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I1514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1514">
         <v>9999</v>
@@ -67061,10 +67064,10 @@
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1515">
-        <v>23286</v>
+        <v>23287</v>
       </c>
       <c r="C1515">
         <v>2824</v>
@@ -67082,10 +67085,10 @@
         <v>1083</v>
       </c>
       <c r="H1515">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I1515">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J1515">
         <v>9999</v>
@@ -67093,10 +67096,10 @@
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1516">
-        <v>23287</v>
+        <v>23288</v>
       </c>
       <c r="C1516">
         <v>2824</v>
@@ -67114,10 +67117,10 @@
         <v>1083</v>
       </c>
       <c r="H1516">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I1516">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1516">
         <v>9999</v>
@@ -67125,31 +67128,31 @@
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1517">
-        <v>23288</v>
+        <v>23326</v>
       </c>
       <c r="C1517">
-        <v>2824</v>
+        <v>12988</v>
       </c>
       <c r="D1517" t="s">
         <v>5887</v>
       </c>
       <c r="E1517" t="s">
+        <v>5887</v>
+      </c>
+      <c r="F1517" t="s">
         <v>5888</v>
-      </c>
-      <c r="F1517" t="s">
-        <v>5889</v>
       </c>
       <c r="G1517" t="s">
         <v>1083</v>
       </c>
       <c r="H1517">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I1517">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J1517">
         <v>9999</v>
@@ -67157,16 +67160,16 @@
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1518">
-        <v>23326</v>
+        <v>23349</v>
       </c>
       <c r="C1518">
-        <v>12988</v>
+        <v>12745</v>
       </c>
       <c r="D1518" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="E1518" t="s">
         <v>5890</v>
@@ -67175,13 +67178,13 @@
         <v>5891</v>
       </c>
       <c r="G1518" t="s">
-        <v>1083</v>
+        <v>5892</v>
       </c>
       <c r="H1518">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1518">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1518">
         <v>9999</v>
@@ -67189,31 +67192,31 @@
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1519">
-        <v>23349</v>
+        <v>23375</v>
       </c>
       <c r="C1519">
-        <v>12745</v>
+        <v>23375</v>
       </c>
       <c r="D1519" t="s">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="E1519" t="s">
-        <v>5893</v>
+        <v>5894</v>
       </c>
       <c r="F1519" t="s">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="G1519" t="s">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="H1519">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1519">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J1519">
         <v>9999</v>
@@ -67221,95 +67224,95 @@
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1520">
-        <v>23375</v>
+        <v>23394</v>
       </c>
       <c r="C1520">
-        <v>23375</v>
+        <v>12796</v>
       </c>
       <c r="D1520" t="s">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="E1520" t="s">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="F1520" t="s">
-        <v>5898</v>
+        <v>5899</v>
       </c>
       <c r="G1520" t="s">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="H1520">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I1520">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1520">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="B1521">
-        <v>23394</v>
+        <v>25197</v>
       </c>
       <c r="C1521">
-        <v>12796</v>
+        <v>11388</v>
       </c>
       <c r="D1521" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="E1521" t="s">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="F1521" t="s">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="G1521" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="H1521">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I1521">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1521">
-        <v>1000</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B1522">
-        <v>25197</v>
+        <v>25198</v>
       </c>
       <c r="C1522">
         <v>11388</v>
       </c>
       <c r="D1522" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="E1522" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="F1522" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="G1522" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="H1522">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I1522">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1522">
         <v>54</v>
@@ -67317,45 +67320,45 @@
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1523">
-        <v>25198</v>
+        <v>25277</v>
       </c>
       <c r="C1523">
-        <v>11388</v>
+        <v>13053</v>
       </c>
       <c r="D1523" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="E1523" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="F1523" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="G1523" t="s">
-        <v>5911</v>
+        <v>4780</v>
       </c>
       <c r="H1523">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I1523">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1523">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1524">
-        <v>25277</v>
+        <v>25290</v>
       </c>
       <c r="C1524">
-        <v>13053</v>
+        <v>13621</v>
       </c>
       <c r="D1524" t="s">
         <v>5912</v>
@@ -67367,13 +67370,13 @@
         <v>5914</v>
       </c>
       <c r="G1524" t="s">
-        <v>4780</v>
+        <v>5915</v>
       </c>
       <c r="H1524">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I1524">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1524">
         <v>9999</v>
@@ -67381,74 +67384,74 @@
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1525">
-        <v>25290</v>
+        <v>25397</v>
       </c>
       <c r="C1525">
-        <v>13621</v>
+        <v>11372</v>
       </c>
       <c r="D1525" t="s">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="E1525" t="s">
-        <v>5916</v>
+        <v>5917</v>
       </c>
       <c r="F1525" t="s">
-        <v>5917</v>
+        <v>5918</v>
       </c>
       <c r="G1525" t="s">
-        <v>5918</v>
+        <v>5919</v>
       </c>
       <c r="H1525">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I1525">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1525">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1526">
-        <v>25397</v>
+        <v>25449</v>
       </c>
       <c r="C1526">
-        <v>11372</v>
+        <v>13027</v>
       </c>
       <c r="D1526" t="s">
-        <v>5919</v>
+        <v>5920</v>
       </c>
       <c r="E1526" t="s">
-        <v>5920</v>
+        <v>5921</v>
       </c>
       <c r="F1526" t="s">
-        <v>5921</v>
+        <v>5922</v>
       </c>
       <c r="G1526" t="s">
-        <v>5922</v>
+        <v>1083</v>
       </c>
       <c r="H1526">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I1526">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1526">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1527">
-        <v>25449</v>
+        <v>25450</v>
       </c>
       <c r="C1527">
         <v>13027</v>
@@ -67466,10 +67469,10 @@
         <v>1083</v>
       </c>
       <c r="H1527">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I1527">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1527">
         <v>9999</v>
@@ -67477,10 +67480,10 @@
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1528">
-        <v>25450</v>
+        <v>25451</v>
       </c>
       <c r="C1528">
         <v>13027</v>
@@ -67498,10 +67501,10 @@
         <v>1083</v>
       </c>
       <c r="H1528">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I1528">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1528">
         <v>9999</v>
@@ -67509,10 +67512,10 @@
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1529">
-        <v>25451</v>
+        <v>25452</v>
       </c>
       <c r="C1529">
         <v>13027</v>
@@ -67530,10 +67533,10 @@
         <v>1083</v>
       </c>
       <c r="H1529">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1529">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J1529">
         <v>9999</v>
@@ -67541,10 +67544,10 @@
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1530">
-        <v>25452</v>
+        <v>25453</v>
       </c>
       <c r="C1530">
         <v>13027</v>
@@ -67562,10 +67565,10 @@
         <v>1083</v>
       </c>
       <c r="H1530">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1530">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1530">
         <v>9999</v>
@@ -67573,10 +67576,10 @@
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1531">
-        <v>25453</v>
+        <v>25454</v>
       </c>
       <c r="C1531">
         <v>13027</v>
@@ -67594,10 +67597,10 @@
         <v>1083</v>
       </c>
       <c r="H1531">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="I1531">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1531">
         <v>9999</v>
@@ -67605,10 +67608,10 @@
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1532">
-        <v>25454</v>
+        <v>25455</v>
       </c>
       <c r="C1532">
         <v>13027</v>
@@ -67626,10 +67629,10 @@
         <v>1083</v>
       </c>
       <c r="H1532">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I1532">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1532">
         <v>9999</v>
@@ -67637,10 +67640,10 @@
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1533">
-        <v>25455</v>
+        <v>25456</v>
       </c>
       <c r="C1533">
         <v>13027</v>
@@ -67658,10 +67661,10 @@
         <v>1083</v>
       </c>
       <c r="H1533">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I1533">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1533">
         <v>9999</v>
@@ -67669,13 +67672,13 @@
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1534">
-        <v>25456</v>
+        <v>25536</v>
       </c>
       <c r="C1534">
-        <v>13027</v>
+        <v>11388</v>
       </c>
       <c r="D1534" t="s">
         <v>5944</v>
@@ -67687,77 +67690,77 @@
         <v>5946</v>
       </c>
       <c r="G1534" t="s">
-        <v>1083</v>
+        <v>5947</v>
       </c>
       <c r="H1534">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I1534">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1534">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1535">
-        <v>25536</v>
+        <v>25605</v>
       </c>
       <c r="C1535">
-        <v>11388</v>
+        <v>13204</v>
       </c>
       <c r="D1535" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="E1535" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="F1535" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="G1535" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="H1535">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I1535">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1535">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1536">
-        <v>25605</v>
+        <v>26434</v>
       </c>
       <c r="C1536">
-        <v>13204</v>
+        <v>13027</v>
       </c>
       <c r="D1536" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="E1536" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="F1536" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="G1536" t="s">
-        <v>5954</v>
+        <v>1083</v>
       </c>
       <c r="H1536">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I1536">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1536">
         <v>9999</v>
@@ -67765,10 +67768,10 @@
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B1537">
-        <v>26434</v>
+        <v>26435</v>
       </c>
       <c r="C1537">
         <v>13027</v>
@@ -67786,10 +67789,10 @@
         <v>1083</v>
       </c>
       <c r="H1537">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I1537">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1537">
         <v>9999</v>
@@ -67797,13 +67800,13 @@
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B1538">
-        <v>26435</v>
+        <v>26546</v>
       </c>
       <c r="C1538">
-        <v>13027</v>
+        <v>13053</v>
       </c>
       <c r="D1538" t="s">
         <v>5958</v>
@@ -67815,13 +67818,13 @@
         <v>5960</v>
       </c>
       <c r="G1538" t="s">
-        <v>1083</v>
+        <v>4780</v>
       </c>
       <c r="H1538">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I1538">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1538">
         <v>9999</v>
@@ -67829,13 +67832,13 @@
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B1539">
-        <v>26546</v>
+        <v>26591</v>
       </c>
       <c r="C1539">
-        <v>13053</v>
+        <v>1</v>
       </c>
       <c r="D1539" t="s">
         <v>5961</v>
@@ -67847,30 +67850,30 @@
         <v>5963</v>
       </c>
       <c r="G1539" t="s">
-        <v>4780</v>
+        <v>5964</v>
       </c>
       <c r="H1539">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I1539">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1539">
-        <v>9999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B1540">
-        <v>26591</v>
+        <v>26595</v>
       </c>
       <c r="C1540">
-        <v>1</v>
+        <v>11047</v>
       </c>
       <c r="D1540" t="s">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="E1540" t="s">
         <v>5965</v>
@@ -67879,30 +67882,30 @@
         <v>5966</v>
       </c>
       <c r="G1540" t="s">
-        <v>5967</v>
+        <v>1083</v>
       </c>
       <c r="H1540">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I1540">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1540">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B1541">
-        <v>26595</v>
+        <v>26785</v>
       </c>
       <c r="C1541">
-        <v>11047</v>
+        <v>14204</v>
       </c>
       <c r="D1541" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
       <c r="E1541" t="s">
         <v>5968</v>
@@ -67911,39 +67914,39 @@
         <v>5969</v>
       </c>
       <c r="G1541" t="s">
-        <v>1083</v>
+        <v>5970</v>
       </c>
       <c r="H1541">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I1541">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1541">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B1542">
-        <v>26785</v>
+        <v>26786</v>
       </c>
       <c r="C1542">
         <v>14204</v>
       </c>
       <c r="D1542" t="s">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="E1542" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="F1542" t="s">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="G1542" t="s">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="H1542">
         <v>2</v>
@@ -67957,25 +67960,25 @@
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B1543">
-        <v>26786</v>
+        <v>26787</v>
       </c>
       <c r="C1543">
         <v>14204</v>
       </c>
       <c r="D1543" t="s">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="E1543" t="s">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="F1543" t="s">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="G1543" t="s">
-        <v>5977</v>
+        <v>5978</v>
       </c>
       <c r="H1543">
         <v>2</v>
@@ -67989,25 +67992,25 @@
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B1544">
-        <v>26787</v>
+        <v>26788</v>
       </c>
       <c r="C1544">
         <v>14204</v>
       </c>
       <c r="D1544" t="s">
-        <v>5978</v>
+        <v>5979</v>
       </c>
       <c r="E1544" t="s">
-        <v>5979</v>
+        <v>5980</v>
       </c>
       <c r="F1544" t="s">
-        <v>5980</v>
+        <v>5981</v>
       </c>
       <c r="G1544" t="s">
-        <v>5981</v>
+        <v>5982</v>
       </c>
       <c r="H1544">
         <v>2</v>
@@ -68021,25 +68024,25 @@
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B1545">
-        <v>26788</v>
+        <v>26789</v>
       </c>
       <c r="C1545">
         <v>14204</v>
       </c>
       <c r="D1545" t="s">
-        <v>5982</v>
+        <v>5983</v>
       </c>
       <c r="E1545" t="s">
-        <v>5983</v>
+        <v>5984</v>
       </c>
       <c r="F1545" t="s">
-        <v>5984</v>
+        <v>5985</v>
       </c>
       <c r="G1545" t="s">
-        <v>5985</v>
+        <v>5986</v>
       </c>
       <c r="H1545">
         <v>2</v>
@@ -68053,25 +68056,25 @@
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B1546">
-        <v>26789</v>
+        <v>26790</v>
       </c>
       <c r="C1546">
         <v>14204</v>
       </c>
       <c r="D1546" t="s">
-        <v>5986</v>
+        <v>5987</v>
       </c>
       <c r="E1546" t="s">
-        <v>5987</v>
+        <v>5988</v>
       </c>
       <c r="F1546" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="G1546" t="s">
-        <v>5989</v>
+        <v>5990</v>
       </c>
       <c r="H1546">
         <v>2</v>
@@ -68085,31 +68088,31 @@
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B1547">
-        <v>26790</v>
+        <v>26897</v>
       </c>
       <c r="C1547">
-        <v>14204</v>
+        <v>957</v>
       </c>
       <c r="D1547" t="s">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="E1547" t="s">
-        <v>5991</v>
+        <v>5992</v>
       </c>
       <c r="F1547" t="s">
-        <v>5992</v>
+        <v>5993</v>
       </c>
       <c r="G1547" t="s">
-        <v>5993</v>
+        <v>5994</v>
       </c>
       <c r="H1547">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I1547">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1547">
         <v>75</v>
@@ -68117,25 +68120,25 @@
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B1548">
-        <v>26897</v>
+        <v>26898</v>
       </c>
       <c r="C1548">
         <v>957</v>
       </c>
       <c r="D1548" t="s">
-        <v>5994</v>
+        <v>5995</v>
       </c>
       <c r="E1548" t="s">
-        <v>5995</v>
+        <v>5996</v>
       </c>
       <c r="F1548" t="s">
-        <v>5996</v>
+        <v>5997</v>
       </c>
       <c r="G1548" t="s">
-        <v>5997</v>
+        <v>3850</v>
       </c>
       <c r="H1548">
         <v>45</v>
@@ -68149,10 +68152,10 @@
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B1549">
-        <v>26898</v>
+        <v>26899</v>
       </c>
       <c r="C1549">
         <v>957</v>
@@ -68167,7 +68170,7 @@
         <v>6000</v>
       </c>
       <c r="G1549" t="s">
-        <v>3850</v>
+        <v>3854</v>
       </c>
       <c r="H1549">
         <v>45</v>
@@ -68181,13 +68184,13 @@
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B1550">
-        <v>26899</v>
+        <v>26925</v>
       </c>
       <c r="C1550">
-        <v>957</v>
+        <v>14210</v>
       </c>
       <c r="D1550" t="s">
         <v>6001</v>
@@ -68199,45 +68202,45 @@
         <v>6003</v>
       </c>
       <c r="G1550" t="s">
-        <v>3854</v>
+        <v>6004</v>
       </c>
       <c r="H1550">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I1550">
-        <v>6</v>
+        <v>9999</v>
       </c>
       <c r="J1550">
-        <v>75</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1551">
-        <v>26925</v>
+        <v>26926</v>
       </c>
       <c r="C1551">
         <v>14210</v>
       </c>
       <c r="D1551" t="s">
-        <v>6004</v>
+        <v>6005</v>
       </c>
       <c r="E1551" t="s">
-        <v>6005</v>
+        <v>6006</v>
       </c>
       <c r="F1551" t="s">
-        <v>6006</v>
+        <v>6007</v>
       </c>
       <c r="G1551" t="s">
-        <v>6007</v>
+        <v>6008</v>
       </c>
       <c r="H1551">
         <v>93</v>
       </c>
       <c r="I1551">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J1551">
         <v>1001</v>
@@ -68245,31 +68248,31 @@
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1552">
-        <v>26926</v>
+        <v>26932</v>
       </c>
       <c r="C1552">
-        <v>14210</v>
+        <v>14228</v>
       </c>
       <c r="D1552" t="s">
-        <v>6008</v>
+        <v>6009</v>
       </c>
       <c r="E1552" t="s">
-        <v>6009</v>
+        <v>6010</v>
       </c>
       <c r="F1552" t="s">
-        <v>6010</v>
+        <v>6011</v>
       </c>
       <c r="G1552" t="s">
-        <v>6011</v>
+        <v>1083</v>
       </c>
       <c r="H1552">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I1552">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="J1552">
         <v>1001</v>
@@ -68277,10 +68280,10 @@
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1553">
-        <v>26932</v>
+        <v>26933</v>
       </c>
       <c r="C1553">
         <v>14228</v>
@@ -68309,10 +68312,10 @@
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1554">
-        <v>26933</v>
+        <v>26934</v>
       </c>
       <c r="C1554">
         <v>14228</v>
@@ -68341,10 +68344,10 @@
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1555">
-        <v>26934</v>
+        <v>26935</v>
       </c>
       <c r="C1555">
         <v>14228</v>
@@ -68373,10 +68376,10 @@
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1556">
-        <v>26935</v>
+        <v>26936</v>
       </c>
       <c r="C1556">
         <v>14228</v>
@@ -68405,13 +68408,13 @@
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1557">
-        <v>26936</v>
+        <v>26946</v>
       </c>
       <c r="C1557">
-        <v>14228</v>
+        <v>14221</v>
       </c>
       <c r="D1557" t="s">
         <v>6024</v>
@@ -68423,10 +68426,10 @@
         <v>6026</v>
       </c>
       <c r="G1557" t="s">
-        <v>1083</v>
+        <v>6027</v>
       </c>
       <c r="H1557">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I1557">
         <v>9999</v>
@@ -68437,25 +68440,25 @@
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1558">
-        <v>26946</v>
+        <v>26947</v>
       </c>
       <c r="C1558">
         <v>14221</v>
       </c>
       <c r="D1558" t="s">
-        <v>6027</v>
+        <v>6028</v>
       </c>
       <c r="E1558" t="s">
-        <v>6028</v>
+        <v>6029</v>
       </c>
       <c r="F1558" t="s">
-        <v>6029</v>
+        <v>6030</v>
       </c>
       <c r="G1558" t="s">
-        <v>6030</v>
+        <v>6031</v>
       </c>
       <c r="H1558">
         <v>94</v>
@@ -68464,30 +68467,30 @@
         <v>9999</v>
       </c>
       <c r="J1558">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1559">
-        <v>26947</v>
+        <v>26948</v>
       </c>
       <c r="C1559">
         <v>14221</v>
       </c>
       <c r="D1559" t="s">
-        <v>6031</v>
+        <v>6032</v>
       </c>
       <c r="E1559" t="s">
-        <v>6032</v>
+        <v>6033</v>
       </c>
       <c r="F1559" t="s">
-        <v>6033</v>
+        <v>6034</v>
       </c>
       <c r="G1559" t="s">
-        <v>6034</v>
+        <v>6035</v>
       </c>
       <c r="H1559">
         <v>94</v>
@@ -68496,30 +68499,30 @@
         <v>9999</v>
       </c>
       <c r="J1559">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1560">
-        <v>26948</v>
+        <v>26949</v>
       </c>
       <c r="C1560">
         <v>14221</v>
       </c>
       <c r="D1560" t="s">
-        <v>6035</v>
+        <v>6036</v>
       </c>
       <c r="E1560" t="s">
-        <v>6036</v>
+        <v>6037</v>
       </c>
       <c r="F1560" t="s">
-        <v>6037</v>
+        <v>6038</v>
       </c>
       <c r="G1560" t="s">
-        <v>6038</v>
+        <v>6039</v>
       </c>
       <c r="H1560">
         <v>94</v>
@@ -68533,25 +68536,25 @@
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B1561">
-        <v>26949</v>
+        <v>26953</v>
       </c>
       <c r="C1561">
-        <v>14221</v>
+        <v>14223</v>
       </c>
       <c r="D1561" t="s">
-        <v>6039</v>
+        <v>6040</v>
       </c>
       <c r="E1561" t="s">
-        <v>6040</v>
+        <v>6041</v>
       </c>
       <c r="F1561" t="s">
-        <v>6041</v>
+        <v>6042</v>
       </c>
       <c r="G1561" t="s">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="H1561">
         <v>94</v>
@@ -68565,28 +68568,28 @@
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B1562">
-        <v>26953</v>
+        <v>26957</v>
       </c>
       <c r="C1562">
-        <v>14223</v>
+        <v>14206</v>
       </c>
       <c r="D1562" t="s">
-        <v>6043</v>
+        <v>6044</v>
       </c>
       <c r="E1562" t="s">
-        <v>6044</v>
+        <v>6045</v>
       </c>
       <c r="F1562" t="s">
-        <v>6045</v>
+        <v>6046</v>
       </c>
       <c r="G1562" t="s">
-        <v>6046</v>
+        <v>6047</v>
       </c>
       <c r="H1562">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1562">
         <v>9999</v>
@@ -68597,25 +68600,25 @@
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B1563">
-        <v>26957</v>
+        <v>26958</v>
       </c>
       <c r="C1563">
         <v>14206</v>
       </c>
       <c r="D1563" t="s">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="E1563" t="s">
-        <v>6048</v>
+        <v>6049</v>
       </c>
       <c r="F1563" t="s">
-        <v>6049</v>
+        <v>6050</v>
       </c>
       <c r="G1563" t="s">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="H1563">
         <v>93</v>
@@ -68629,28 +68632,28 @@
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B1564">
-        <v>26958</v>
+        <v>26959</v>
       </c>
       <c r="C1564">
-        <v>14206</v>
+        <v>14227</v>
       </c>
       <c r="D1564" t="s">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="E1564" t="s">
-        <v>6052</v>
+        <v>6053</v>
       </c>
       <c r="F1564" t="s">
-        <v>6053</v>
+        <v>6054</v>
       </c>
       <c r="G1564" t="s">
-        <v>6054</v>
+        <v>1083</v>
       </c>
       <c r="H1564">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1564">
         <v>9999</v>
@@ -68661,10 +68664,10 @@
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B1565">
-        <v>26959</v>
+        <v>26960</v>
       </c>
       <c r="C1565">
         <v>14227</v>
@@ -68693,10 +68696,10 @@
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B1566">
-        <v>26960</v>
+        <v>26961</v>
       </c>
       <c r="C1566">
         <v>14227</v>
@@ -68725,10 +68728,10 @@
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1567">
-        <v>26961</v>
+        <v>26962</v>
       </c>
       <c r="C1567">
         <v>14227</v>
@@ -68757,10 +68760,10 @@
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1568">
-        <v>26962</v>
+        <v>26963</v>
       </c>
       <c r="C1568">
         <v>14227</v>
@@ -68789,13 +68792,13 @@
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B1569">
-        <v>26963</v>
+        <v>26976</v>
       </c>
       <c r="C1569">
-        <v>14227</v>
+        <v>14222</v>
       </c>
       <c r="D1569" t="s">
         <v>6067</v>
@@ -68821,10 +68824,10 @@
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B1570">
-        <v>26976</v>
+        <v>26977</v>
       </c>
       <c r="C1570">
         <v>14222</v>
@@ -68851,39 +68854,17 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="1571" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1571">
-        <v>1575</v>
-      </c>
-      <c r="B1571">
-        <v>26977</v>
-      </c>
-      <c r="C1571">
-        <v>14222</v>
-      </c>
-      <c r="D1571" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E1571" t="s">
-        <v>6074</v>
-      </c>
-      <c r="F1571" t="s">
-        <v>6075</v>
-      </c>
-      <c r="G1571" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1571">
-        <v>94</v>
-      </c>
-      <c r="I1571">
-        <v>9999</v>
-      </c>
-      <c r="J1571">
-        <v>1001</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Вузы.xlsx
+++ b/data/Вузы.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\NIR_Engoyan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\NIR_Engoyan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC870957-2B70-44C5-9D67-E04B762EC33C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4394F1EE-8A4F-4323-A105-364C42486FFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="6074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6295" uniqueCount="6083">
   <si>
     <t>idlistedu</t>
   </si>
@@ -15435,6 +15435,15 @@
     <t>105005, г. Москва, ул. Малая Почтовая, д. 2/2, стр.8</t>
   </si>
   <si>
+    <t>Частное образовательное учреждение высшего образования "Институт международной торговли и права"</t>
+  </si>
+  <si>
+    <t>Институт международной торговли и права</t>
+  </si>
+  <si>
+    <t>121108, г Москва, ул. Кастанаевская, д. 59, корп. 2</t>
+  </si>
+  <si>
     <t>Частное образовательное учреждение высшего образования "Приамурский институт агроэкономики и бизнеса"</t>
   </si>
   <si>
@@ -17730,6 +17739,15 @@
     <t>А.Д. Рейн</t>
   </si>
   <si>
+    <t>Частное образовательное учреждение высшего и дополнительного образования "Байкальский гуманитарный институт" филиал г. Усолье-Сибирское</t>
+  </si>
+  <si>
+    <t>ЧОУ ВДО "Байкальский гуманитарный институт" филиал г. Усолье-Сибирское</t>
+  </si>
+  <si>
+    <t>665451, Иркутская обл., г. Усолье-Сибирское, Комсомольский пр-кт, д. 87</t>
+  </si>
+  <si>
     <t>Филиал федерального государственного бюджетного образовательного учреждения высшего образования “Центральная музыкальная школа - Академия исполнительского искусства” “Приморский”</t>
   </si>
   <si>
@@ -18226,6 +18244,15 @@
   </si>
   <si>
     <t>291016, Луганская Народная Республика, г. Луганск, ул. Советская, д.70</t>
+  </si>
+  <si>
+    <t>Старобельский факультет (филиал) федерального государственного бюджетного образовательного учреждения высшего образования "Луганский государственный педагогический университет"</t>
+  </si>
+  <si>
+    <t>Старобельский факультет (филиал) ФГБОУ "Луганский государственный педагогический университет"</t>
+  </si>
+  <si>
+    <t>292700, Луганская Народная Республика, г. Старобельск, площадь Гоголя, д. 1</t>
   </si>
   <si>
     <t>Филиал "Славяносербский техникум" федерального государственного бюджетного образовательного учреждения высшего образования "Луганский государственный аграрный университет имени К.Е. Ворошилова"</t>
@@ -18599,24 +18626,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1570"/>
+  <dimension ref="A1:J1573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1539" workbookViewId="0">
-      <selection activeCell="L1547" sqref="L1547"/>
+    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
+      <selection activeCell="L1553" sqref="L1553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" customWidth="1"/>
-    <col min="7" max="7" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6073</v>
+        <v>6082</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -60696,13 +60722,13 @@
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1316">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B1316">
-        <v>13607</v>
+        <v>13606</v>
       </c>
       <c r="C1316">
-        <v>13607</v>
+        <v>13606</v>
       </c>
       <c r="D1316" t="s">
         <v>5136</v>
@@ -60713,28 +60739,16 @@
       <c r="F1316" t="s">
         <v>5138</v>
       </c>
-      <c r="G1316" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1316">
-        <v>27</v>
-      </c>
-      <c r="I1316">
-        <v>8</v>
-      </c>
-      <c r="J1316">
-        <v>9999</v>
-      </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1317">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B1317">
-        <v>13617</v>
+        <v>13607</v>
       </c>
       <c r="C1317">
-        <v>13603</v>
+        <v>13607</v>
       </c>
       <c r="D1317" t="s">
         <v>5139</v>
@@ -60749,10 +60763,10 @@
         <v>1083</v>
       </c>
       <c r="H1317">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I1317">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1317">
         <v>9999</v>
@@ -60760,13 +60774,13 @@
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1318">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B1318">
-        <v>13621</v>
+        <v>13617</v>
       </c>
       <c r="C1318">
-        <v>13621</v>
+        <v>13603</v>
       </c>
       <c r="D1318" t="s">
         <v>5142</v>
@@ -60778,13 +60792,13 @@
         <v>5144</v>
       </c>
       <c r="G1318" t="s">
-        <v>5145</v>
+        <v>1083</v>
       </c>
       <c r="H1318">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I1318">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1318">
         <v>9999</v>
@@ -60792,31 +60806,31 @@
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1319">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B1319">
-        <v>13967</v>
+        <v>13621</v>
       </c>
       <c r="C1319">
-        <v>13967</v>
+        <v>13621</v>
       </c>
       <c r="D1319" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E1319" t="s">
         <v>5146</v>
       </c>
-      <c r="E1319" t="s">
+      <c r="F1319" t="s">
         <v>5147</v>
       </c>
-      <c r="F1319" t="s">
+      <c r="G1319" t="s">
         <v>5148</v>
       </c>
-      <c r="G1319" t="s">
-        <v>5149</v>
-      </c>
       <c r="H1319">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I1319">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1319">
         <v>9999</v>
@@ -60824,25 +60838,25 @@
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1320">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B1320">
-        <v>13970</v>
+        <v>13967</v>
       </c>
       <c r="C1320">
-        <v>13970</v>
+        <v>13967</v>
       </c>
       <c r="D1320" t="s">
+        <v>5149</v>
+      </c>
+      <c r="E1320" t="s">
         <v>5150</v>
       </c>
-      <c r="E1320" t="s">
+      <c r="F1320" t="s">
         <v>5151</v>
       </c>
-      <c r="F1320" t="s">
+      <c r="G1320" t="s">
         <v>5152</v>
-      </c>
-      <c r="G1320" t="s">
-        <v>5153</v>
       </c>
       <c r="H1320">
         <v>77</v>
@@ -60856,31 +60870,31 @@
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1321">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B1321">
-        <v>13971</v>
+        <v>13970</v>
       </c>
       <c r="C1321">
-        <v>13971</v>
+        <v>13970</v>
       </c>
       <c r="D1321" t="s">
+        <v>5153</v>
+      </c>
+      <c r="E1321" t="s">
         <v>5154</v>
       </c>
-      <c r="E1321" t="s">
+      <c r="F1321" t="s">
         <v>5155</v>
       </c>
-      <c r="F1321" t="s">
+      <c r="G1321" t="s">
         <v>5156</v>
       </c>
-      <c r="G1321" t="s">
-        <v>5157</v>
-      </c>
       <c r="H1321">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="I1321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1321">
         <v>9999</v>
@@ -60888,95 +60902,95 @@
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1322">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B1322">
-        <v>13984</v>
+        <v>13971</v>
       </c>
       <c r="C1322">
-        <v>13984</v>
+        <v>13971</v>
       </c>
       <c r="D1322" t="s">
+        <v>5157</v>
+      </c>
+      <c r="E1322" t="s">
         <v>5158</v>
       </c>
-      <c r="E1322" t="s">
+      <c r="F1322" t="s">
         <v>5159</v>
       </c>
-      <c r="F1322" t="s">
+      <c r="G1322" t="s">
         <v>5160</v>
       </c>
-      <c r="G1322" t="s">
-        <v>5161</v>
-      </c>
       <c r="H1322">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="I1322">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1322">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1323">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B1323">
-        <v>14045</v>
+        <v>13984</v>
       </c>
       <c r="C1323">
-        <v>14045</v>
+        <v>13984</v>
       </c>
       <c r="D1323" t="s">
+        <v>5161</v>
+      </c>
+      <c r="E1323" t="s">
         <v>5162</v>
       </c>
-      <c r="E1323" t="s">
+      <c r="F1323" t="s">
         <v>5163</v>
       </c>
-      <c r="F1323" t="s">
+      <c r="G1323" t="s">
         <v>5164</v>
       </c>
-      <c r="G1323" t="s">
-        <v>5165</v>
-      </c>
       <c r="H1323">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I1323">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1323">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1324">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B1324">
-        <v>14073</v>
+        <v>14045</v>
       </c>
       <c r="C1324">
-        <v>14073</v>
+        <v>14045</v>
       </c>
       <c r="D1324" t="s">
+        <v>5165</v>
+      </c>
+      <c r="E1324" t="s">
         <v>5166</v>
       </c>
-      <c r="E1324" t="s">
+      <c r="F1324" t="s">
         <v>5167</v>
       </c>
-      <c r="F1324" t="s">
+      <c r="G1324" t="s">
         <v>5168</v>
       </c>
-      <c r="G1324" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1324">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I1324">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1324">
         <v>9999</v>
@@ -60984,13 +60998,13 @@
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1325">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B1325">
-        <v>14074</v>
+        <v>14073</v>
       </c>
       <c r="C1325">
-        <v>14074</v>
+        <v>14073</v>
       </c>
       <c r="D1325" t="s">
         <v>5169</v>
@@ -61005,24 +61019,24 @@
         <v>1083</v>
       </c>
       <c r="H1325">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1325">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1326">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B1326">
-        <v>14076</v>
+        <v>14074</v>
       </c>
       <c r="C1326">
-        <v>14076</v>
+        <v>14074</v>
       </c>
       <c r="D1326" t="s">
         <v>5172</v>
@@ -61034,45 +61048,45 @@
         <v>5174</v>
       </c>
       <c r="G1326" t="s">
-        <v>5175</v>
+        <v>1083</v>
       </c>
       <c r="H1326">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I1326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1326">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1327">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B1327">
-        <v>14097</v>
+        <v>14076</v>
       </c>
       <c r="C1327">
-        <v>14097</v>
+        <v>14076</v>
       </c>
       <c r="D1327" t="s">
+        <v>5175</v>
+      </c>
+      <c r="E1327" t="s">
         <v>5176</v>
       </c>
-      <c r="E1327" t="s">
+      <c r="F1327" t="s">
         <v>5177</v>
       </c>
-      <c r="F1327" t="s">
+      <c r="G1327" t="s">
         <v>5178</v>
       </c>
-      <c r="G1327" t="s">
-        <v>5179</v>
-      </c>
       <c r="H1327">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I1327">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1327">
         <v>9999</v>
@@ -61080,28 +61094,28 @@
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1328">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B1328">
-        <v>14098</v>
+        <v>14097</v>
       </c>
       <c r="C1328">
-        <v>14098</v>
+        <v>14097</v>
       </c>
       <c r="D1328" t="s">
+        <v>5179</v>
+      </c>
+      <c r="E1328" t="s">
         <v>5180</v>
       </c>
-      <c r="E1328" t="s">
+      <c r="F1328" t="s">
         <v>5181</v>
       </c>
-      <c r="F1328" t="s">
+      <c r="G1328" t="s">
         <v>5182</v>
       </c>
-      <c r="G1328" t="s">
-        <v>5183</v>
-      </c>
       <c r="H1328">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1328">
         <v>1</v>
@@ -61112,28 +61126,28 @@
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1329">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B1329">
-        <v>14099</v>
+        <v>14098</v>
       </c>
       <c r="C1329">
-        <v>14099</v>
+        <v>14098</v>
       </c>
       <c r="D1329" t="s">
+        <v>5183</v>
+      </c>
+      <c r="E1329" t="s">
         <v>5184</v>
       </c>
-      <c r="E1329" t="s">
+      <c r="F1329" t="s">
         <v>5185</v>
       </c>
-      <c r="F1329" t="s">
+      <c r="G1329" t="s">
         <v>5186</v>
       </c>
-      <c r="G1329" t="s">
-        <v>5187</v>
-      </c>
       <c r="H1329">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I1329">
         <v>1</v>
@@ -61144,31 +61158,31 @@
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1330">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B1330">
-        <v>14100</v>
+        <v>14099</v>
       </c>
       <c r="C1330">
-        <v>14100</v>
+        <v>14099</v>
       </c>
       <c r="D1330" t="s">
+        <v>5187</v>
+      </c>
+      <c r="E1330" t="s">
         <v>5188</v>
       </c>
-      <c r="E1330" t="s">
+      <c r="F1330" t="s">
         <v>5189</v>
       </c>
-      <c r="F1330" t="s">
+      <c r="G1330" t="s">
         <v>5190</v>
       </c>
-      <c r="G1330" t="s">
-        <v>5191</v>
-      </c>
       <c r="H1330">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1330">
         <v>9999</v>
@@ -61176,31 +61190,31 @@
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1331">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B1331">
-        <v>14101</v>
+        <v>14100</v>
       </c>
       <c r="C1331">
-        <v>14101</v>
+        <v>14100</v>
       </c>
       <c r="D1331" t="s">
+        <v>5191</v>
+      </c>
+      <c r="E1331" t="s">
         <v>5192</v>
       </c>
-      <c r="E1331" t="s">
+      <c r="F1331" t="s">
         <v>5193</v>
       </c>
-      <c r="F1331" t="s">
+      <c r="G1331" t="s">
         <v>5194</v>
       </c>
-      <c r="G1331" t="s">
-        <v>5195</v>
-      </c>
       <c r="H1331">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I1331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1331">
         <v>9999</v>
@@ -61208,31 +61222,31 @@
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1332">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B1332">
-        <v>14102</v>
+        <v>14101</v>
       </c>
       <c r="C1332">
-        <v>14102</v>
+        <v>14101</v>
       </c>
       <c r="D1332" t="s">
+        <v>5195</v>
+      </c>
+      <c r="E1332" t="s">
         <v>5196</v>
       </c>
-      <c r="E1332" t="s">
+      <c r="F1332" t="s">
         <v>5197</v>
       </c>
-      <c r="F1332" t="s">
+      <c r="G1332" t="s">
         <v>5198</v>
       </c>
-      <c r="G1332" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1332">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I1332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1332">
         <v>9999</v>
@@ -61240,13 +61254,13 @@
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1333">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B1333">
-        <v>14108</v>
+        <v>14102</v>
       </c>
       <c r="C1333">
-        <v>14108</v>
+        <v>14102</v>
       </c>
       <c r="D1333" t="s">
         <v>5199</v>
@@ -61258,13 +61272,13 @@
         <v>5201</v>
       </c>
       <c r="G1333" t="s">
-        <v>5202</v>
+        <v>1083</v>
       </c>
       <c r="H1333">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I1333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1333">
         <v>9999</v>
@@ -61272,31 +61286,31 @@
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1334">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B1334">
-        <v>14112</v>
+        <v>14108</v>
       </c>
       <c r="C1334">
-        <v>14112</v>
+        <v>14108</v>
       </c>
       <c r="D1334" t="s">
+        <v>5202</v>
+      </c>
+      <c r="E1334" t="s">
         <v>5203</v>
       </c>
-      <c r="E1334" t="s">
+      <c r="F1334" t="s">
         <v>5204</v>
       </c>
-      <c r="F1334" t="s">
+      <c r="G1334" t="s">
         <v>5205</v>
       </c>
-      <c r="G1334" t="s">
-        <v>5206</v>
-      </c>
       <c r="H1334">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1334">
         <v>9999</v>
@@ -61304,153 +61318,153 @@
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1335">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B1335">
-        <v>14124</v>
+        <v>14112</v>
       </c>
       <c r="C1335">
-        <v>11049</v>
+        <v>14112</v>
       </c>
       <c r="D1335" t="s">
+        <v>5206</v>
+      </c>
+      <c r="E1335" t="s">
         <v>5207</v>
       </c>
-      <c r="E1335" t="s">
+      <c r="F1335" t="s">
         <v>5208</v>
       </c>
-      <c r="F1335" t="s">
+      <c r="G1335" t="s">
         <v>5209</v>
       </c>
-      <c r="G1335" t="s">
-        <v>5210</v>
-      </c>
       <c r="H1335">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I1335">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1335">
-        <v>84</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1336">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B1336">
-        <v>14200</v>
+        <v>14124</v>
       </c>
       <c r="C1336">
-        <v>14200</v>
+        <v>11049</v>
       </c>
       <c r="D1336" t="s">
+        <v>5210</v>
+      </c>
+      <c r="E1336" t="s">
         <v>5211</v>
       </c>
-      <c r="E1336" t="s">
+      <c r="F1336" t="s">
         <v>5212</v>
       </c>
-      <c r="F1336" t="s">
+      <c r="G1336" t="s">
         <v>5213</v>
       </c>
-      <c r="G1336" t="s">
-        <v>5214</v>
-      </c>
       <c r="H1336">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I1336">
         <v>5</v>
       </c>
       <c r="J1336">
-        <v>9999</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1337">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B1337">
-        <v>14204</v>
+        <v>14200</v>
       </c>
       <c r="C1337">
-        <v>14204</v>
+        <v>14200</v>
       </c>
       <c r="D1337" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E1337" t="s">
         <v>5215</v>
       </c>
-      <c r="E1337" t="s">
+      <c r="F1337" t="s">
         <v>5216</v>
       </c>
-      <c r="F1337" t="s">
+      <c r="G1337" t="s">
         <v>5217</v>
       </c>
-      <c r="G1337" t="s">
-        <v>5218</v>
-      </c>
       <c r="H1337">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I1337">
         <v>5</v>
       </c>
       <c r="J1337">
-        <v>75</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1338">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B1338">
-        <v>14205</v>
+        <v>14204</v>
       </c>
       <c r="C1338">
-        <v>14205</v>
+        <v>14204</v>
       </c>
       <c r="D1338" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E1338" t="s">
         <v>5219</v>
       </c>
-      <c r="E1338" t="s">
+      <c r="F1338" t="s">
         <v>5220</v>
       </c>
-      <c r="F1338" t="s">
+      <c r="G1338" t="s">
         <v>5221</v>
       </c>
-      <c r="G1338" t="s">
-        <v>5222</v>
-      </c>
       <c r="H1338">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="I1338">
-        <v>9999</v>
+        <v>5</v>
       </c>
       <c r="J1338">
-        <v>318</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1339">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B1339">
-        <v>14206</v>
+        <v>14205</v>
       </c>
       <c r="C1339">
-        <v>14206</v>
+        <v>14205</v>
       </c>
       <c r="D1339" t="s">
+        <v>5222</v>
+      </c>
+      <c r="E1339" t="s">
         <v>5223</v>
       </c>
-      <c r="E1339" t="s">
+      <c r="F1339" t="s">
         <v>5224</v>
       </c>
-      <c r="F1339" t="s">
+      <c r="G1339" t="s">
         <v>5225</v>
-      </c>
-      <c r="G1339" t="s">
-        <v>5226</v>
       </c>
       <c r="H1339">
         <v>93</v>
@@ -61459,30 +61473,30 @@
         <v>9999</v>
       </c>
       <c r="J1339">
-        <v>75</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1340">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B1340">
-        <v>14207</v>
+        <v>14206</v>
       </c>
       <c r="C1340">
-        <v>14207</v>
+        <v>14206</v>
       </c>
       <c r="D1340" t="s">
+        <v>5226</v>
+      </c>
+      <c r="E1340" t="s">
         <v>5227</v>
       </c>
-      <c r="E1340" t="s">
+      <c r="F1340" t="s">
         <v>5228</v>
       </c>
-      <c r="F1340" t="s">
+      <c r="G1340" t="s">
         <v>5229</v>
-      </c>
-      <c r="G1340" t="s">
-        <v>5230</v>
       </c>
       <c r="H1340">
         <v>93</v>
@@ -61496,25 +61510,25 @@
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1341">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B1341">
-        <v>14208</v>
+        <v>14207</v>
       </c>
       <c r="C1341">
-        <v>14208</v>
+        <v>14207</v>
       </c>
       <c r="D1341" t="s">
+        <v>5230</v>
+      </c>
+      <c r="E1341" t="s">
         <v>5231</v>
       </c>
-      <c r="E1341" t="s">
+      <c r="F1341" t="s">
         <v>5232</v>
       </c>
-      <c r="F1341" t="s">
+      <c r="G1341" t="s">
         <v>5233</v>
-      </c>
-      <c r="G1341" t="s">
-        <v>5234</v>
       </c>
       <c r="H1341">
         <v>93</v>
@@ -61528,25 +61542,25 @@
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1342">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B1342">
-        <v>14209</v>
+        <v>14208</v>
       </c>
       <c r="C1342">
-        <v>14209</v>
+        <v>14208</v>
       </c>
       <c r="D1342" t="s">
+        <v>5234</v>
+      </c>
+      <c r="E1342" t="s">
         <v>5235</v>
       </c>
-      <c r="E1342" t="s">
+      <c r="F1342" t="s">
         <v>5236</v>
       </c>
-      <c r="F1342" t="s">
+      <c r="G1342" t="s">
         <v>5237</v>
-      </c>
-      <c r="G1342" t="s">
-        <v>5238</v>
       </c>
       <c r="H1342">
         <v>93</v>
@@ -61560,25 +61574,25 @@
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1343">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B1343">
-        <v>14210</v>
+        <v>14209</v>
       </c>
       <c r="C1343">
-        <v>14210</v>
+        <v>14209</v>
       </c>
       <c r="D1343" t="s">
+        <v>5238</v>
+      </c>
+      <c r="E1343" t="s">
         <v>5239</v>
       </c>
-      <c r="E1343" t="s">
+      <c r="F1343" t="s">
         <v>5240</v>
       </c>
-      <c r="F1343" t="s">
+      <c r="G1343" t="s">
         <v>5241</v>
-      </c>
-      <c r="G1343" t="s">
-        <v>5242</v>
       </c>
       <c r="H1343">
         <v>93</v>
@@ -61592,25 +61606,25 @@
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1344">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B1344">
-        <v>14211</v>
+        <v>14210</v>
       </c>
       <c r="C1344">
-        <v>14211</v>
+        <v>14210</v>
       </c>
       <c r="D1344" t="s">
+        <v>5242</v>
+      </c>
+      <c r="E1344" t="s">
         <v>5243</v>
       </c>
-      <c r="E1344" t="s">
+      <c r="F1344" t="s">
         <v>5244</v>
       </c>
-      <c r="F1344" t="s">
+      <c r="G1344" t="s">
         <v>5245</v>
-      </c>
-      <c r="G1344" t="s">
-        <v>5246</v>
       </c>
       <c r="H1344">
         <v>93</v>
@@ -61619,30 +61633,30 @@
         <v>9999</v>
       </c>
       <c r="J1344">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1345">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B1345">
-        <v>14212</v>
+        <v>14211</v>
       </c>
       <c r="C1345">
-        <v>14212</v>
+        <v>14211</v>
       </c>
       <c r="D1345" t="s">
+        <v>5246</v>
+      </c>
+      <c r="E1345" t="s">
         <v>5247</v>
       </c>
-      <c r="E1345" t="s">
+      <c r="F1345" t="s">
         <v>5248</v>
       </c>
-      <c r="F1345" t="s">
+      <c r="G1345" t="s">
         <v>5249</v>
-      </c>
-      <c r="G1345" t="s">
-        <v>5250</v>
       </c>
       <c r="H1345">
         <v>93</v>
@@ -61651,30 +61665,30 @@
         <v>9999</v>
       </c>
       <c r="J1345">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1346">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B1346">
-        <v>14213</v>
+        <v>14212</v>
       </c>
       <c r="C1346">
-        <v>14213</v>
+        <v>14212</v>
       </c>
       <c r="D1346" t="s">
+        <v>5250</v>
+      </c>
+      <c r="E1346" t="s">
         <v>5251</v>
       </c>
-      <c r="E1346" t="s">
+      <c r="F1346" t="s">
         <v>5252</v>
       </c>
-      <c r="F1346" t="s">
+      <c r="G1346" t="s">
         <v>5253</v>
-      </c>
-      <c r="G1346" t="s">
-        <v>5254</v>
       </c>
       <c r="H1346">
         <v>93</v>
@@ -61688,25 +61702,25 @@
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1347">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B1347">
-        <v>14214</v>
+        <v>14213</v>
       </c>
       <c r="C1347">
-        <v>14214</v>
+        <v>14213</v>
       </c>
       <c r="D1347" t="s">
+        <v>5254</v>
+      </c>
+      <c r="E1347" t="s">
         <v>5255</v>
       </c>
-      <c r="E1347" t="s">
+      <c r="F1347" t="s">
         <v>5256</v>
       </c>
-      <c r="F1347" t="s">
+      <c r="G1347" t="s">
         <v>5257</v>
-      </c>
-      <c r="G1347" t="s">
-        <v>5258</v>
       </c>
       <c r="H1347">
         <v>93</v>
@@ -61715,30 +61729,30 @@
         <v>9999</v>
       </c>
       <c r="J1347">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1348">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B1348">
-        <v>14215</v>
+        <v>14214</v>
       </c>
       <c r="C1348">
-        <v>14215</v>
+        <v>14214</v>
       </c>
       <c r="D1348" t="s">
+        <v>5258</v>
+      </c>
+      <c r="E1348" t="s">
         <v>5259</v>
       </c>
-      <c r="E1348" t="s">
+      <c r="F1348" t="s">
         <v>5260</v>
       </c>
-      <c r="F1348" t="s">
+      <c r="G1348" t="s">
         <v>5261</v>
-      </c>
-      <c r="G1348" t="s">
-        <v>5262</v>
       </c>
       <c r="H1348">
         <v>93</v>
@@ -61747,30 +61761,30 @@
         <v>9999</v>
       </c>
       <c r="J1348">
-        <v>1001</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1349">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B1349">
-        <v>14216</v>
+        <v>14215</v>
       </c>
       <c r="C1349">
-        <v>14216</v>
+        <v>14215</v>
       </c>
       <c r="D1349" t="s">
+        <v>5262</v>
+      </c>
+      <c r="E1349" t="s">
         <v>5263</v>
       </c>
-      <c r="E1349" t="s">
+      <c r="F1349" t="s">
         <v>5264</v>
       </c>
-      <c r="F1349" t="s">
+      <c r="G1349" t="s">
         <v>5265</v>
-      </c>
-      <c r="G1349" t="s">
-        <v>5266</v>
       </c>
       <c r="H1349">
         <v>93</v>
@@ -61779,30 +61793,30 @@
         <v>9999</v>
       </c>
       <c r="J1349">
-        <v>109</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1350">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B1350">
-        <v>14217</v>
+        <v>14216</v>
       </c>
       <c r="C1350">
-        <v>14217</v>
+        <v>14216</v>
       </c>
       <c r="D1350" t="s">
+        <v>5266</v>
+      </c>
+      <c r="E1350" t="s">
         <v>5267</v>
       </c>
-      <c r="E1350" t="s">
+      <c r="F1350" t="s">
         <v>5268</v>
       </c>
-      <c r="F1350" t="s">
+      <c r="G1350" t="s">
         <v>5269</v>
-      </c>
-      <c r="G1350" t="s">
-        <v>5270</v>
       </c>
       <c r="H1350">
         <v>93</v>
@@ -61811,30 +61825,30 @@
         <v>9999</v>
       </c>
       <c r="J1350">
-        <v>1001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1351">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B1351">
-        <v>14218</v>
+        <v>14217</v>
       </c>
       <c r="C1351">
-        <v>14218</v>
+        <v>14217</v>
       </c>
       <c r="D1351" t="s">
+        <v>5270</v>
+      </c>
+      <c r="E1351" t="s">
         <v>5271</v>
       </c>
-      <c r="E1351" t="s">
+      <c r="F1351" t="s">
         <v>5272</v>
       </c>
-      <c r="F1351" t="s">
+      <c r="G1351" t="s">
         <v>5273</v>
-      </c>
-      <c r="G1351" t="s">
-        <v>5274</v>
       </c>
       <c r="H1351">
         <v>93</v>
@@ -61843,30 +61857,30 @@
         <v>9999</v>
       </c>
       <c r="J1351">
-        <v>54</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1352">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B1352">
-        <v>14219</v>
+        <v>14218</v>
       </c>
       <c r="C1352">
-        <v>14219</v>
+        <v>14218</v>
       </c>
       <c r="D1352" t="s">
+        <v>5274</v>
+      </c>
+      <c r="E1352" t="s">
         <v>5275</v>
       </c>
-      <c r="E1352" t="s">
+      <c r="F1352" t="s">
         <v>5276</v>
       </c>
-      <c r="F1352" t="s">
+      <c r="G1352" t="s">
         <v>5277</v>
-      </c>
-      <c r="G1352" t="s">
-        <v>5278</v>
       </c>
       <c r="H1352">
         <v>93</v>
@@ -61875,62 +61889,62 @@
         <v>9999</v>
       </c>
       <c r="J1352">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1353">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B1353">
-        <v>14221</v>
+        <v>14219</v>
       </c>
       <c r="C1353">
-        <v>14221</v>
+        <v>14219</v>
       </c>
       <c r="D1353" t="s">
+        <v>5278</v>
+      </c>
+      <c r="E1353" t="s">
         <v>5279</v>
       </c>
-      <c r="E1353" t="s">
+      <c r="F1353" t="s">
         <v>5280</v>
       </c>
-      <c r="F1353" t="s">
+      <c r="G1353" t="s">
         <v>5281</v>
       </c>
-      <c r="G1353" t="s">
-        <v>5282</v>
-      </c>
       <c r="H1353">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1353">
         <v>9999</v>
       </c>
       <c r="J1353">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1354">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B1354">
-        <v>14222</v>
+        <v>14221</v>
       </c>
       <c r="C1354">
-        <v>14222</v>
+        <v>14221</v>
       </c>
       <c r="D1354" t="s">
+        <v>5282</v>
+      </c>
+      <c r="E1354" t="s">
         <v>5283</v>
       </c>
-      <c r="E1354" t="s">
+      <c r="F1354" t="s">
         <v>5284</v>
       </c>
-      <c r="F1354" t="s">
+      <c r="G1354" t="s">
         <v>5285</v>
-      </c>
-      <c r="G1354" t="s">
-        <v>5286</v>
       </c>
       <c r="H1354">
         <v>94</v>
@@ -61939,30 +61953,30 @@
         <v>9999</v>
       </c>
       <c r="J1354">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1355">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B1355">
-        <v>14223</v>
+        <v>14222</v>
       </c>
       <c r="C1355">
-        <v>14223</v>
+        <v>14222</v>
       </c>
       <c r="D1355" t="s">
+        <v>5286</v>
+      </c>
+      <c r="E1355" t="s">
         <v>5287</v>
       </c>
-      <c r="E1355" t="s">
+      <c r="F1355" t="s">
         <v>5288</v>
       </c>
-      <c r="F1355" t="s">
+      <c r="G1355" t="s">
         <v>5289</v>
-      </c>
-      <c r="G1355" t="s">
-        <v>5290</v>
       </c>
       <c r="H1355">
         <v>94</v>
@@ -61971,30 +61985,30 @@
         <v>9999</v>
       </c>
       <c r="J1355">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1356">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B1356">
-        <v>14224</v>
+        <v>14223</v>
       </c>
       <c r="C1356">
-        <v>14224</v>
+        <v>14223</v>
       </c>
       <c r="D1356" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E1356" t="s">
         <v>5291</v>
       </c>
-      <c r="E1356" t="s">
+      <c r="F1356" t="s">
         <v>5292</v>
       </c>
-      <c r="F1356" t="s">
+      <c r="G1356" t="s">
         <v>5293</v>
-      </c>
-      <c r="G1356" t="s">
-        <v>5294</v>
       </c>
       <c r="H1356">
         <v>94</v>
@@ -62003,30 +62017,30 @@
         <v>9999</v>
       </c>
       <c r="J1356">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1357">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B1357">
-        <v>14225</v>
+        <v>14224</v>
       </c>
       <c r="C1357">
-        <v>14225</v>
+        <v>14224</v>
       </c>
       <c r="D1357" t="s">
+        <v>5294</v>
+      </c>
+      <c r="E1357" t="s">
         <v>5295</v>
       </c>
-      <c r="E1357" t="s">
+      <c r="F1357" t="s">
         <v>5296</v>
       </c>
-      <c r="F1357" t="s">
+      <c r="G1357" t="s">
         <v>5297</v>
-      </c>
-      <c r="G1357" t="s">
-        <v>5298</v>
       </c>
       <c r="H1357">
         <v>94</v>
@@ -62035,30 +62049,30 @@
         <v>9999</v>
       </c>
       <c r="J1357">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1358">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B1358">
-        <v>14226</v>
+        <v>14225</v>
       </c>
       <c r="C1358">
-        <v>14226</v>
+        <v>14225</v>
       </c>
       <c r="D1358" t="s">
+        <v>5298</v>
+      </c>
+      <c r="E1358" t="s">
         <v>5299</v>
       </c>
-      <c r="E1358" t="s">
+      <c r="F1358" t="s">
         <v>5300</v>
       </c>
-      <c r="F1358" t="s">
+      <c r="G1358" t="s">
         <v>5301</v>
-      </c>
-      <c r="G1358" t="s">
-        <v>5302</v>
       </c>
       <c r="H1358">
         <v>94</v>
@@ -62067,30 +62081,30 @@
         <v>9999</v>
       </c>
       <c r="J1358">
-        <v>1001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1359">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B1359">
-        <v>14227</v>
+        <v>14226</v>
       </c>
       <c r="C1359">
-        <v>14227</v>
+        <v>14226</v>
       </c>
       <c r="D1359" t="s">
+        <v>5302</v>
+      </c>
+      <c r="E1359" t="s">
         <v>5303</v>
       </c>
-      <c r="E1359" t="s">
+      <c r="F1359" t="s">
         <v>5304</v>
       </c>
-      <c r="F1359" t="s">
+      <c r="G1359" t="s">
         <v>5305</v>
-      </c>
-      <c r="G1359" t="s">
-        <v>5306</v>
       </c>
       <c r="H1359">
         <v>94</v>
@@ -62099,82 +62113,82 @@
         <v>9999</v>
       </c>
       <c r="J1359">
-        <v>56</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1360">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B1360">
-        <v>14228</v>
+        <v>14227</v>
       </c>
       <c r="C1360">
-        <v>14228</v>
+        <v>14227</v>
       </c>
       <c r="D1360" t="s">
+        <v>5306</v>
+      </c>
+      <c r="E1360" t="s">
         <v>5307</v>
       </c>
-      <c r="E1360" t="s">
+      <c r="F1360" t="s">
         <v>5308</v>
       </c>
-      <c r="F1360" t="s">
+      <c r="G1360" t="s">
         <v>5309</v>
       </c>
-      <c r="G1360" t="s">
-        <v>5310</v>
-      </c>
       <c r="H1360">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I1360">
         <v>9999</v>
       </c>
       <c r="J1360">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1361">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B1361">
-        <v>14229</v>
+        <v>14228</v>
       </c>
       <c r="C1361">
-        <v>14229</v>
+        <v>14228</v>
       </c>
       <c r="D1361" t="s">
+        <v>5310</v>
+      </c>
+      <c r="E1361" t="s">
         <v>5311</v>
       </c>
-      <c r="E1361" t="s">
+      <c r="F1361" t="s">
         <v>5312</v>
       </c>
-      <c r="F1361" t="s">
+      <c r="G1361" t="s">
         <v>5313</v>
       </c>
-      <c r="G1361" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1361">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I1361">
         <v>9999</v>
       </c>
       <c r="J1361">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1362">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B1362">
-        <v>14230</v>
+        <v>14229</v>
       </c>
       <c r="C1362">
-        <v>14230</v>
+        <v>14229</v>
       </c>
       <c r="D1362" t="s">
         <v>5314</v>
@@ -62195,18 +62209,18 @@
         <v>9999</v>
       </c>
       <c r="J1362">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1363">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B1363">
-        <v>14231</v>
+        <v>14230</v>
       </c>
       <c r="C1363">
-        <v>14231</v>
+        <v>14230</v>
       </c>
       <c r="D1363" t="s">
         <v>5317</v>
@@ -62218,7 +62232,7 @@
         <v>5319</v>
       </c>
       <c r="G1363" t="s">
-        <v>5320</v>
+        <v>1083</v>
       </c>
       <c r="H1363">
         <v>95</v>
@@ -62227,30 +62241,30 @@
         <v>9999</v>
       </c>
       <c r="J1363">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1364">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B1364">
-        <v>14232</v>
+        <v>14231</v>
       </c>
       <c r="C1364">
-        <v>14232</v>
+        <v>14231</v>
       </c>
       <c r="D1364" t="s">
+        <v>5320</v>
+      </c>
+      <c r="E1364" t="s">
         <v>5321</v>
       </c>
-      <c r="E1364" t="s">
+      <c r="F1364" t="s">
         <v>5322</v>
       </c>
-      <c r="F1364" t="s">
+      <c r="G1364" t="s">
         <v>5323</v>
-      </c>
-      <c r="G1364" t="s">
-        <v>5324</v>
       </c>
       <c r="H1364">
         <v>95</v>
@@ -62259,68 +62273,68 @@
         <v>9999</v>
       </c>
       <c r="J1364">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1365">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B1365">
-        <v>14254</v>
+        <v>14232</v>
       </c>
       <c r="C1365">
-        <v>14254</v>
+        <v>14232</v>
       </c>
       <c r="D1365" t="s">
+        <v>5324</v>
+      </c>
+      <c r="E1365" t="s">
         <v>5325</v>
       </c>
-      <c r="E1365" t="s">
+      <c r="F1365" t="s">
         <v>5326</v>
       </c>
-      <c r="F1365" t="s">
+      <c r="G1365" t="s">
         <v>5327</v>
       </c>
-      <c r="G1365" t="s">
-        <v>5328</v>
-      </c>
       <c r="H1365">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I1365">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="J1365">
-        <v>9999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1366">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B1366">
-        <v>14255</v>
+        <v>14254</v>
       </c>
       <c r="C1366">
-        <v>14255</v>
+        <v>14254</v>
       </c>
       <c r="D1366" t="s">
+        <v>5328</v>
+      </c>
+      <c r="E1366" t="s">
         <v>5329</v>
       </c>
-      <c r="E1366" t="s">
+      <c r="F1366" t="s">
         <v>5330</v>
       </c>
-      <c r="F1366" t="s">
+      <c r="G1366" t="s">
         <v>5331</v>
       </c>
-      <c r="G1366" t="s">
-        <v>5332</v>
-      </c>
       <c r="H1366">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1366">
         <v>9999</v>
@@ -62328,45 +62342,45 @@
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1367">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B1367">
-        <v>14256</v>
+        <v>14255</v>
       </c>
       <c r="C1367">
-        <v>14256</v>
+        <v>14255</v>
       </c>
       <c r="D1367" t="s">
+        <v>5332</v>
+      </c>
+      <c r="E1367" t="s">
         <v>5333</v>
       </c>
-      <c r="E1367" t="s">
+      <c r="F1367" t="s">
         <v>5334</v>
       </c>
-      <c r="F1367" t="s">
+      <c r="G1367" t="s">
         <v>5335</v>
       </c>
-      <c r="G1367" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1367">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I1367">
+        <v>2</v>
+      </c>
+      <c r="J1367">
         <v>9999</v>
-      </c>
-      <c r="J1367">
-        <v>73</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1368">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B1368">
-        <v>14257</v>
+        <v>14256</v>
       </c>
       <c r="C1368">
-        <v>14216</v>
+        <v>14256</v>
       </c>
       <c r="D1368" t="s">
         <v>5336</v>
@@ -62378,42 +62392,42 @@
         <v>5338</v>
       </c>
       <c r="G1368" t="s">
-        <v>5339</v>
+        <v>1083</v>
       </c>
       <c r="H1368">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I1368">
         <v>9999</v>
       </c>
       <c r="J1368">
-        <v>1001</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1369">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B1369">
-        <v>14259</v>
+        <v>14257</v>
       </c>
       <c r="C1369">
-        <v>14223</v>
+        <v>14216</v>
       </c>
       <c r="D1369" t="s">
+        <v>5339</v>
+      </c>
+      <c r="E1369" t="s">
         <v>5340</v>
       </c>
-      <c r="E1369" t="s">
+      <c r="F1369" t="s">
         <v>5341</v>
       </c>
-      <c r="F1369" t="s">
+      <c r="G1369" t="s">
         <v>5342</v>
       </c>
-      <c r="G1369" t="s">
-        <v>5343</v>
-      </c>
       <c r="H1369">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1369">
         <v>9999</v>
@@ -62424,25 +62438,25 @@
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1370">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B1370">
-        <v>14260</v>
+        <v>14259</v>
       </c>
       <c r="C1370">
         <v>14223</v>
       </c>
       <c r="D1370" t="s">
+        <v>5343</v>
+      </c>
+      <c r="E1370" t="s">
         <v>5344</v>
       </c>
-      <c r="E1370" t="s">
+      <c r="F1370" t="s">
         <v>5345</v>
       </c>
-      <c r="F1370" t="s">
+      <c r="G1370" t="s">
         <v>5346</v>
-      </c>
-      <c r="G1370" t="s">
-        <v>5347</v>
       </c>
       <c r="H1370">
         <v>94</v>
@@ -62456,25 +62470,25 @@
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1371">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B1371">
-        <v>14261</v>
+        <v>14260</v>
       </c>
       <c r="C1371">
         <v>14223</v>
       </c>
       <c r="D1371" t="s">
+        <v>5347</v>
+      </c>
+      <c r="E1371" t="s">
         <v>5348</v>
       </c>
-      <c r="E1371" t="s">
+      <c r="F1371" t="s">
         <v>5349</v>
       </c>
-      <c r="F1371" t="s">
+      <c r="G1371" t="s">
         <v>5350</v>
-      </c>
-      <c r="G1371" t="s">
-        <v>5351</v>
       </c>
       <c r="H1371">
         <v>94</v>
@@ -62488,28 +62502,28 @@
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1372">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B1372">
-        <v>14264</v>
+        <v>14261</v>
       </c>
       <c r="C1372">
-        <v>14207</v>
+        <v>14223</v>
       </c>
       <c r="D1372" t="s">
+        <v>5351</v>
+      </c>
+      <c r="E1372" t="s">
         <v>5352</v>
       </c>
-      <c r="E1372" t="s">
+      <c r="F1372" t="s">
         <v>5353</v>
       </c>
-      <c r="F1372" t="s">
+      <c r="G1372" t="s">
         <v>5354</v>
       </c>
-      <c r="G1372" t="s">
-        <v>5355</v>
-      </c>
       <c r="H1372">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1372">
         <v>9999</v>
@@ -62520,25 +62534,25 @@
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1373">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B1373">
-        <v>14265</v>
+        <v>14264</v>
       </c>
       <c r="C1373">
         <v>14207</v>
       </c>
       <c r="D1373" t="s">
+        <v>5355</v>
+      </c>
+      <c r="E1373" t="s">
         <v>5356</v>
       </c>
-      <c r="E1373" t="s">
+      <c r="F1373" t="s">
         <v>5357</v>
       </c>
-      <c r="F1373" t="s">
+      <c r="G1373" t="s">
         <v>5358</v>
-      </c>
-      <c r="G1373" t="s">
-        <v>5359</v>
       </c>
       <c r="H1373">
         <v>93</v>
@@ -62552,25 +62566,25 @@
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1374">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B1374">
-        <v>14266</v>
+        <v>14265</v>
       </c>
       <c r="C1374">
         <v>14207</v>
       </c>
       <c r="D1374" t="s">
+        <v>5359</v>
+      </c>
+      <c r="E1374" t="s">
         <v>5360</v>
       </c>
-      <c r="E1374" t="s">
+      <c r="F1374" t="s">
         <v>5361</v>
       </c>
-      <c r="F1374" t="s">
+      <c r="G1374" t="s">
         <v>5362</v>
-      </c>
-      <c r="G1374" t="s">
-        <v>5363</v>
       </c>
       <c r="H1374">
         <v>93</v>
@@ -62584,25 +62598,25 @@
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1375">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B1375">
-        <v>14267</v>
+        <v>14266</v>
       </c>
       <c r="C1375">
         <v>14207</v>
       </c>
       <c r="D1375" t="s">
+        <v>5363</v>
+      </c>
+      <c r="E1375" t="s">
         <v>5364</v>
       </c>
-      <c r="E1375" t="s">
+      <c r="F1375" t="s">
         <v>5365</v>
       </c>
-      <c r="F1375" t="s">
+      <c r="G1375" t="s">
         <v>5366</v>
-      </c>
-      <c r="G1375" t="s">
-        <v>5367</v>
       </c>
       <c r="H1375">
         <v>93</v>
@@ -62616,25 +62630,25 @@
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1376">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B1376">
-        <v>14269</v>
+        <v>14267</v>
       </c>
       <c r="C1376">
-        <v>14209</v>
+        <v>14207</v>
       </c>
       <c r="D1376" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E1376" t="s">
         <v>5368</v>
       </c>
-      <c r="E1376" t="s">
+      <c r="F1376" t="s">
         <v>5369</v>
       </c>
-      <c r="F1376" t="s">
+      <c r="G1376" t="s">
         <v>5370</v>
-      </c>
-      <c r="G1376" t="s">
-        <v>5371</v>
       </c>
       <c r="H1376">
         <v>93</v>
@@ -62648,25 +62662,25 @@
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1377">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B1377">
-        <v>14271</v>
+        <v>14269</v>
       </c>
       <c r="C1377">
         <v>14209</v>
       </c>
       <c r="D1377" t="s">
+        <v>5371</v>
+      </c>
+      <c r="E1377" t="s">
         <v>5372</v>
       </c>
-      <c r="E1377" t="s">
+      <c r="F1377" t="s">
         <v>5373</v>
       </c>
-      <c r="F1377" t="s">
+      <c r="G1377" t="s">
         <v>5374</v>
-      </c>
-      <c r="G1377" t="s">
-        <v>5375</v>
       </c>
       <c r="H1377">
         <v>93</v>
@@ -62680,63 +62694,63 @@
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1378">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B1378">
-        <v>14275</v>
+        <v>14271</v>
       </c>
       <c r="C1378">
-        <v>14275</v>
+        <v>14209</v>
       </c>
       <c r="D1378" t="s">
+        <v>5375</v>
+      </c>
+      <c r="E1378" t="s">
         <v>5376</v>
       </c>
-      <c r="E1378" t="s">
+      <c r="F1378" t="s">
         <v>5377</v>
       </c>
-      <c r="F1378" t="s">
+      <c r="G1378" t="s">
         <v>5378</v>
       </c>
-      <c r="G1378" t="s">
-        <v>5379</v>
-      </c>
       <c r="H1378">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I1378">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="J1378">
-        <v>9999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1379">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B1379">
-        <v>14276</v>
+        <v>14275</v>
       </c>
       <c r="C1379">
-        <v>14276</v>
+        <v>14275</v>
       </c>
       <c r="D1379" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E1379" t="s">
         <v>5380</v>
       </c>
-      <c r="E1379" t="s">
+      <c r="F1379" t="s">
         <v>5381</v>
       </c>
-      <c r="F1379" t="s">
+      <c r="G1379" t="s">
         <v>5382</v>
       </c>
-      <c r="G1379" t="s">
-        <v>5383</v>
-      </c>
       <c r="H1379">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I1379">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1379">
         <v>9999</v>
@@ -62744,31 +62758,31 @@
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1380">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B1380">
-        <v>20021</v>
+        <v>14276</v>
       </c>
       <c r="C1380">
-        <v>2750</v>
+        <v>14276</v>
       </c>
       <c r="D1380" t="s">
+        <v>5383</v>
+      </c>
+      <c r="E1380" t="s">
         <v>5384</v>
       </c>
-      <c r="E1380" t="s">
+      <c r="F1380" t="s">
         <v>5385</v>
       </c>
-      <c r="F1380" t="s">
+      <c r="G1380" t="s">
         <v>5386</v>
       </c>
-      <c r="G1380" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1380">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I1380">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1380">
         <v>9999</v>
@@ -62776,13 +62790,13 @@
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1381">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B1381">
-        <v>20027</v>
+        <v>20021</v>
       </c>
       <c r="C1381">
-        <v>2773</v>
+        <v>2750</v>
       </c>
       <c r="D1381" t="s">
         <v>5387</v>
@@ -62794,13 +62808,13 @@
         <v>5389</v>
       </c>
       <c r="G1381" t="s">
-        <v>5390</v>
+        <v>1083</v>
       </c>
       <c r="H1381">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I1381">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1381">
         <v>9999</v>
@@ -62808,25 +62822,25 @@
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1382">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B1382">
-        <v>20028</v>
+        <v>20027</v>
       </c>
       <c r="C1382">
         <v>2773</v>
       </c>
       <c r="D1382" t="s">
+        <v>5390</v>
+      </c>
+      <c r="E1382" t="s">
         <v>5391</v>
       </c>
-      <c r="E1382" t="s">
+      <c r="F1382" t="s">
         <v>5392</v>
       </c>
-      <c r="F1382" t="s">
+      <c r="G1382" t="s">
         <v>5393</v>
-      </c>
-      <c r="G1382" t="s">
-        <v>5394</v>
       </c>
       <c r="H1382">
         <v>16</v>
@@ -62840,63 +62854,63 @@
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1383">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B1383">
-        <v>20090</v>
+        <v>20028</v>
       </c>
       <c r="C1383">
-        <v>238</v>
+        <v>2773</v>
       </c>
       <c r="D1383" t="s">
+        <v>5394</v>
+      </c>
+      <c r="E1383" t="s">
         <v>5395</v>
       </c>
-      <c r="E1383" t="s">
+      <c r="F1383" t="s">
         <v>5396</v>
       </c>
-      <c r="F1383" t="s">
+      <c r="G1383" t="s">
         <v>5397</v>
       </c>
-      <c r="G1383" t="s">
-        <v>5398</v>
-      </c>
       <c r="H1383">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1383">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1383">
-        <v>75</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1384">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B1384">
-        <v>20169</v>
+        <v>20090</v>
       </c>
       <c r="C1384">
-        <v>2846</v>
+        <v>238</v>
       </c>
       <c r="D1384" t="s">
+        <v>5398</v>
+      </c>
+      <c r="E1384" t="s">
         <v>5399</v>
       </c>
-      <c r="E1384" t="s">
+      <c r="F1384" t="s">
         <v>5400</v>
       </c>
-      <c r="F1384" t="s">
+      <c r="G1384" t="s">
         <v>5401</v>
       </c>
-      <c r="G1384" t="s">
-        <v>5402</v>
-      </c>
       <c r="H1384">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I1384">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1384">
         <v>75</v>
@@ -62904,25 +62918,25 @@
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1385">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B1385">
-        <v>20171</v>
+        <v>20169</v>
       </c>
       <c r="C1385">
         <v>2846</v>
       </c>
       <c r="D1385" t="s">
+        <v>5402</v>
+      </c>
+      <c r="E1385" t="s">
         <v>5403</v>
       </c>
-      <c r="E1385" t="s">
+      <c r="F1385" t="s">
         <v>5404</v>
       </c>
-      <c r="F1385" t="s">
+      <c r="G1385" t="s">
         <v>5405</v>
-      </c>
-      <c r="G1385" t="s">
-        <v>5406</v>
       </c>
       <c r="H1385">
         <v>50</v>
@@ -62936,25 +62950,25 @@
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1386">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B1386">
-        <v>20172</v>
+        <v>20171</v>
       </c>
       <c r="C1386">
         <v>2846</v>
       </c>
       <c r="D1386" t="s">
+        <v>5406</v>
+      </c>
+      <c r="E1386" t="s">
         <v>5407</v>
       </c>
-      <c r="E1386" t="s">
+      <c r="F1386" t="s">
         <v>5408</v>
       </c>
-      <c r="F1386" t="s">
+      <c r="G1386" t="s">
         <v>5409</v>
-      </c>
-      <c r="G1386" t="s">
-        <v>5410</v>
       </c>
       <c r="H1386">
         <v>50</v>
@@ -62968,25 +62982,25 @@
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1387">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B1387">
-        <v>20173</v>
+        <v>20172</v>
       </c>
       <c r="C1387">
         <v>2846</v>
       </c>
       <c r="D1387" t="s">
+        <v>5410</v>
+      </c>
+      <c r="E1387" t="s">
         <v>5411</v>
       </c>
-      <c r="E1387" t="s">
+      <c r="F1387" t="s">
         <v>5412</v>
       </c>
-      <c r="F1387" t="s">
+      <c r="G1387" t="s">
         <v>5413</v>
-      </c>
-      <c r="G1387" t="s">
-        <v>5414</v>
       </c>
       <c r="H1387">
         <v>50</v>
@@ -63000,31 +63014,31 @@
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1388">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B1388">
-        <v>20259</v>
+        <v>20173</v>
       </c>
       <c r="C1388">
-        <v>139</v>
+        <v>2846</v>
       </c>
       <c r="D1388" t="s">
+        <v>5414</v>
+      </c>
+      <c r="E1388" t="s">
         <v>5415</v>
       </c>
-      <c r="E1388" t="s">
+      <c r="F1388" t="s">
         <v>5416</v>
       </c>
-      <c r="F1388" t="s">
+      <c r="G1388" t="s">
         <v>5417</v>
       </c>
-      <c r="G1388" t="s">
-        <v>5418</v>
-      </c>
       <c r="H1388">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I1388">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1388">
         <v>75</v>
@@ -63032,63 +63046,63 @@
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1389">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B1389">
-        <v>20264</v>
+        <v>20259</v>
       </c>
       <c r="C1389">
-        <v>2748</v>
+        <v>139</v>
       </c>
       <c r="D1389" t="s">
+        <v>5418</v>
+      </c>
+      <c r="E1389" t="s">
         <v>5419</v>
       </c>
-      <c r="E1389" t="s">
+      <c r="F1389" t="s">
         <v>5420</v>
       </c>
-      <c r="F1389" t="s">
+      <c r="G1389" t="s">
         <v>5421</v>
       </c>
-      <c r="G1389" t="s">
-        <v>5422</v>
-      </c>
       <c r="H1389">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1389">
         <v>5</v>
       </c>
       <c r="J1389">
-        <v>9999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1390">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B1390">
-        <v>20265</v>
+        <v>20264</v>
       </c>
       <c r="C1390">
         <v>2748</v>
       </c>
       <c r="D1390" t="s">
+        <v>5422</v>
+      </c>
+      <c r="E1390" t="s">
         <v>5423</v>
       </c>
-      <c r="E1390" t="s">
+      <c r="F1390" t="s">
         <v>5424</v>
       </c>
-      <c r="F1390" t="s">
+      <c r="G1390" t="s">
         <v>5425</v>
       </c>
-      <c r="G1390" t="s">
-        <v>5426</v>
-      </c>
       <c r="H1390">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I1390">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1390">
         <v>9999</v>
@@ -63096,89 +63110,89 @@
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1391">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B1391">
-        <v>20451</v>
+        <v>20265</v>
       </c>
       <c r="C1391">
-        <v>2915</v>
+        <v>2748</v>
       </c>
       <c r="D1391" t="s">
+        <v>5426</v>
+      </c>
+      <c r="E1391" t="s">
         <v>5427</v>
       </c>
-      <c r="E1391" t="s">
+      <c r="F1391" t="s">
         <v>5428</v>
       </c>
-      <c r="F1391" t="s">
+      <c r="G1391" t="s">
         <v>5429</v>
       </c>
-      <c r="G1391" t="s">
-        <v>5430</v>
-      </c>
       <c r="H1391">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I1391">
         <v>1</v>
       </c>
       <c r="J1391">
-        <v>73</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1392">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B1392">
-        <v>20478</v>
+        <v>20451</v>
       </c>
       <c r="C1392">
-        <v>2760</v>
+        <v>2915</v>
       </c>
       <c r="D1392" t="s">
+        <v>5430</v>
+      </c>
+      <c r="E1392" t="s">
         <v>5431</v>
       </c>
-      <c r="E1392" t="s">
+      <c r="F1392" t="s">
         <v>5432</v>
       </c>
-      <c r="F1392" t="s">
+      <c r="G1392" t="s">
         <v>5433</v>
       </c>
-      <c r="G1392" t="s">
-        <v>5434</v>
-      </c>
       <c r="H1392">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I1392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1392">
-        <v>9999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1393">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B1393">
-        <v>20482</v>
+        <v>20478</v>
       </c>
       <c r="C1393">
         <v>2760</v>
       </c>
       <c r="D1393" t="s">
+        <v>5434</v>
+      </c>
+      <c r="E1393" t="s">
         <v>5435</v>
       </c>
-      <c r="E1393" t="s">
+      <c r="F1393" t="s">
         <v>5436</v>
       </c>
-      <c r="F1393" t="s">
+      <c r="G1393" t="s">
         <v>5437</v>
-      </c>
-      <c r="G1393" t="s">
-        <v>5438</v>
       </c>
       <c r="H1393">
         <v>61</v>
@@ -63192,31 +63206,31 @@
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1394">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B1394">
-        <v>20489</v>
+        <v>20482</v>
       </c>
       <c r="C1394">
-        <v>2766</v>
+        <v>2760</v>
       </c>
       <c r="D1394" t="s">
+        <v>5438</v>
+      </c>
+      <c r="E1394" t="s">
         <v>5439</v>
       </c>
-      <c r="E1394" t="s">
+      <c r="F1394" t="s">
         <v>5440</v>
       </c>
-      <c r="F1394" t="s">
+      <c r="G1394" t="s">
         <v>5441</v>
       </c>
-      <c r="G1394" t="s">
-        <v>5442</v>
-      </c>
       <c r="H1394">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I1394">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1394">
         <v>9999</v>
@@ -63224,31 +63238,31 @@
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1395">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B1395">
-        <v>20491</v>
+        <v>20489</v>
       </c>
       <c r="C1395">
         <v>2766</v>
       </c>
       <c r="D1395" t="s">
+        <v>5442</v>
+      </c>
+      <c r="E1395" t="s">
         <v>5443</v>
       </c>
-      <c r="E1395" t="s">
+      <c r="F1395" t="s">
         <v>5444</v>
       </c>
-      <c r="F1395" t="s">
+      <c r="G1395" t="s">
         <v>5445</v>
       </c>
-      <c r="G1395" t="s">
-        <v>5446</v>
-      </c>
       <c r="H1395">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I1395">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1395">
         <v>9999</v>
@@ -63256,31 +63270,31 @@
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1396">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B1396">
-        <v>20494</v>
+        <v>20491</v>
       </c>
       <c r="C1396">
         <v>2766</v>
       </c>
       <c r="D1396" t="s">
+        <v>5446</v>
+      </c>
+      <c r="E1396" t="s">
         <v>5447</v>
       </c>
-      <c r="E1396" t="s">
+      <c r="F1396" t="s">
         <v>5448</v>
       </c>
-      <c r="F1396" t="s">
+      <c r="G1396" t="s">
         <v>5449</v>
       </c>
-      <c r="G1396" t="s">
-        <v>5450</v>
-      </c>
       <c r="H1396">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I1396">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1396">
         <v>9999</v>
@@ -63288,31 +63302,31 @@
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1397">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B1397">
-        <v>20495</v>
+        <v>20494</v>
       </c>
       <c r="C1397">
         <v>2766</v>
       </c>
       <c r="D1397" t="s">
+        <v>5450</v>
+      </c>
+      <c r="E1397" t="s">
         <v>5451</v>
       </c>
-      <c r="E1397" t="s">
+      <c r="F1397" t="s">
         <v>5452</v>
       </c>
-      <c r="F1397" t="s">
+      <c r="G1397" t="s">
         <v>5453</v>
       </c>
-      <c r="G1397" t="s">
-        <v>5454</v>
-      </c>
       <c r="H1397">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I1397">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1397">
         <v>9999</v>
@@ -63320,31 +63334,31 @@
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1398">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B1398">
-        <v>20497</v>
+        <v>20495</v>
       </c>
       <c r="C1398">
         <v>2766</v>
       </c>
       <c r="D1398" t="s">
+        <v>5454</v>
+      </c>
+      <c r="E1398" t="s">
         <v>5455</v>
       </c>
-      <c r="E1398" t="s">
+      <c r="F1398" t="s">
         <v>5456</v>
       </c>
-      <c r="F1398" t="s">
+      <c r="G1398" t="s">
         <v>5457</v>
       </c>
-      <c r="G1398" t="s">
-        <v>5458</v>
-      </c>
       <c r="H1398">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I1398">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1398">
         <v>9999</v>
@@ -63352,31 +63366,31 @@
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1399">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B1399">
-        <v>20510</v>
+        <v>20497</v>
       </c>
       <c r="C1399">
-        <v>1528</v>
+        <v>2766</v>
       </c>
       <c r="D1399" t="s">
+        <v>5458</v>
+      </c>
+      <c r="E1399" t="s">
         <v>5459</v>
       </c>
-      <c r="E1399" t="s">
+      <c r="F1399" t="s">
         <v>5460</v>
       </c>
-      <c r="F1399" t="s">
+      <c r="G1399" t="s">
         <v>5461</v>
       </c>
-      <c r="G1399" t="s">
-        <v>5462</v>
-      </c>
       <c r="H1399">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I1399">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1399">
         <v>9999</v>
@@ -63384,31 +63398,31 @@
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1400">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B1400">
-        <v>20511</v>
+        <v>20510</v>
       </c>
       <c r="C1400">
         <v>1528</v>
       </c>
       <c r="D1400" t="s">
+        <v>5462</v>
+      </c>
+      <c r="E1400" t="s">
         <v>5463</v>
       </c>
-      <c r="E1400" t="s">
+      <c r="F1400" t="s">
         <v>5464</v>
       </c>
-      <c r="F1400" t="s">
+      <c r="G1400" t="s">
         <v>5465</v>
       </c>
-      <c r="G1400" t="s">
-        <v>5466</v>
-      </c>
       <c r="H1400">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I1400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1400">
         <v>9999</v>
@@ -63416,28 +63430,28 @@
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1401">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B1401">
-        <v>20512</v>
+        <v>20511</v>
       </c>
       <c r="C1401">
         <v>1528</v>
       </c>
       <c r="D1401" t="s">
+        <v>5466</v>
+      </c>
+      <c r="E1401" t="s">
         <v>5467</v>
       </c>
-      <c r="E1401" t="s">
+      <c r="F1401" t="s">
         <v>5468</v>
       </c>
-      <c r="F1401" t="s">
+      <c r="G1401" t="s">
         <v>5469</v>
       </c>
-      <c r="G1401" t="s">
-        <v>5470</v>
-      </c>
       <c r="H1401">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I1401">
         <v>3</v>
@@ -63448,31 +63462,31 @@
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1402">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B1402">
-        <v>20513</v>
+        <v>20512</v>
       </c>
       <c r="C1402">
         <v>1528</v>
       </c>
       <c r="D1402" t="s">
+        <v>5470</v>
+      </c>
+      <c r="E1402" t="s">
         <v>5471</v>
       </c>
-      <c r="E1402" t="s">
+      <c r="F1402" t="s">
         <v>5472</v>
       </c>
-      <c r="F1402" t="s">
+      <c r="G1402" t="s">
         <v>5473</v>
       </c>
-      <c r="G1402" t="s">
-        <v>5474</v>
-      </c>
       <c r="H1402">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I1402">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1402">
         <v>9999</v>
@@ -63480,28 +63494,28 @@
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1403">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B1403">
-        <v>20515</v>
+        <v>20513</v>
       </c>
       <c r="C1403">
         <v>1528</v>
       </c>
       <c r="D1403" t="s">
+        <v>5474</v>
+      </c>
+      <c r="E1403" t="s">
         <v>5475</v>
       </c>
-      <c r="E1403" t="s">
+      <c r="F1403" t="s">
         <v>5476</v>
       </c>
-      <c r="F1403" t="s">
+      <c r="G1403" t="s">
         <v>5477</v>
       </c>
-      <c r="G1403" t="s">
-        <v>5478</v>
-      </c>
       <c r="H1403">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I1403">
         <v>1</v>
@@ -63512,28 +63526,28 @@
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1404">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B1404">
-        <v>20516</v>
+        <v>20515</v>
       </c>
       <c r="C1404">
         <v>1528</v>
       </c>
       <c r="D1404" t="s">
+        <v>5478</v>
+      </c>
+      <c r="E1404" t="s">
         <v>5479</v>
       </c>
-      <c r="E1404" t="s">
+      <c r="F1404" t="s">
         <v>5480</v>
       </c>
-      <c r="F1404" t="s">
+      <c r="G1404" t="s">
         <v>5481</v>
       </c>
-      <c r="G1404" t="s">
-        <v>5482</v>
-      </c>
       <c r="H1404">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I1404">
         <v>1</v>
@@ -63544,28 +63558,28 @@
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1405">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B1405">
-        <v>20517</v>
+        <v>20516</v>
       </c>
       <c r="C1405">
         <v>1528</v>
       </c>
       <c r="D1405" t="s">
+        <v>5482</v>
+      </c>
+      <c r="E1405" t="s">
         <v>5483</v>
       </c>
-      <c r="E1405" t="s">
+      <c r="F1405" t="s">
         <v>5484</v>
       </c>
-      <c r="F1405" t="s">
+      <c r="G1405" t="s">
         <v>5485</v>
       </c>
-      <c r="G1405" t="s">
-        <v>5486</v>
-      </c>
       <c r="H1405">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I1405">
         <v>1</v>
@@ -63576,31 +63590,31 @@
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1406">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B1406">
-        <v>20544</v>
+        <v>20517</v>
       </c>
       <c r="C1406">
-        <v>2768</v>
+        <v>1528</v>
       </c>
       <c r="D1406" t="s">
+        <v>5486</v>
+      </c>
+      <c r="E1406" t="s">
         <v>5487</v>
       </c>
-      <c r="E1406" t="s">
+      <c r="F1406" t="s">
         <v>5488</v>
       </c>
-      <c r="F1406" t="s">
+      <c r="G1406" t="s">
         <v>5489</v>
       </c>
-      <c r="G1406" t="s">
-        <v>5490</v>
-      </c>
       <c r="H1406">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I1406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1406">
         <v>9999</v>
@@ -63608,31 +63622,31 @@
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1407">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B1407">
-        <v>20545</v>
+        <v>20544</v>
       </c>
       <c r="C1407">
         <v>2768</v>
       </c>
       <c r="D1407" t="s">
+        <v>5490</v>
+      </c>
+      <c r="E1407" t="s">
         <v>5491</v>
       </c>
-      <c r="E1407" t="s">
+      <c r="F1407" t="s">
         <v>5492</v>
       </c>
-      <c r="F1407" t="s">
+      <c r="G1407" t="s">
         <v>5493</v>
       </c>
-      <c r="G1407" t="s">
-        <v>5494</v>
-      </c>
       <c r="H1407">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I1407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1407">
         <v>9999</v>
@@ -63640,31 +63654,31 @@
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1408">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B1408">
-        <v>20546</v>
+        <v>20545</v>
       </c>
       <c r="C1408">
         <v>2768</v>
       </c>
       <c r="D1408" t="s">
+        <v>5494</v>
+      </c>
+      <c r="E1408" t="s">
         <v>5495</v>
       </c>
-      <c r="E1408" t="s">
+      <c r="F1408" t="s">
         <v>5496</v>
       </c>
-      <c r="F1408" t="s">
+      <c r="G1408" t="s">
         <v>5497</v>
       </c>
-      <c r="G1408" t="s">
-        <v>5498</v>
-      </c>
       <c r="H1408">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I1408">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J1408">
         <v>9999</v>
@@ -63672,28 +63686,28 @@
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1409">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B1409">
-        <v>20548</v>
+        <v>20546</v>
       </c>
       <c r="C1409">
         <v>2768</v>
       </c>
       <c r="D1409" t="s">
+        <v>5498</v>
+      </c>
+      <c r="E1409" t="s">
         <v>5499</v>
       </c>
-      <c r="E1409" t="s">
+      <c r="F1409" t="s">
         <v>5500</v>
       </c>
-      <c r="F1409" t="s">
+      <c r="G1409" t="s">
         <v>5501</v>
       </c>
-      <c r="G1409" t="s">
-        <v>5502</v>
-      </c>
       <c r="H1409">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I1409">
         <v>5</v>
@@ -63704,31 +63718,31 @@
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1410">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B1410">
-        <v>20551</v>
+        <v>20548</v>
       </c>
       <c r="C1410">
         <v>2768</v>
       </c>
       <c r="D1410" t="s">
+        <v>5502</v>
+      </c>
+      <c r="E1410" t="s">
         <v>5503</v>
       </c>
-      <c r="E1410" t="s">
+      <c r="F1410" t="s">
         <v>5504</v>
       </c>
-      <c r="F1410" t="s">
+      <c r="G1410" t="s">
         <v>5505</v>
       </c>
-      <c r="G1410" t="s">
-        <v>5506</v>
-      </c>
       <c r="H1410">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I1410">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1410">
         <v>9999</v>
@@ -63736,31 +63750,31 @@
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1411">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B1411">
-        <v>20583</v>
+        <v>20551</v>
       </c>
       <c r="C1411">
-        <v>2800</v>
+        <v>2768</v>
       </c>
       <c r="D1411" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E1411" t="s">
         <v>5507</v>
       </c>
-      <c r="E1411" t="s">
+      <c r="F1411" t="s">
         <v>5508</v>
       </c>
-      <c r="F1411" t="s">
+      <c r="G1411" t="s">
         <v>5509</v>
       </c>
-      <c r="G1411" t="s">
-        <v>3473</v>
-      </c>
       <c r="H1411">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I1411">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1411">
         <v>9999</v>
@@ -63768,10 +63782,10 @@
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1412">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B1412">
-        <v>20584</v>
+        <v>20583</v>
       </c>
       <c r="C1412">
         <v>2800</v>
@@ -63786,13 +63800,13 @@
         <v>5512</v>
       </c>
       <c r="G1412" t="s">
-        <v>5513</v>
+        <v>3473</v>
       </c>
       <c r="H1412">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="I1412">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1412">
         <v>9999</v>
@@ -63800,31 +63814,31 @@
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1413">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B1413">
-        <v>20585</v>
+        <v>20584</v>
       </c>
       <c r="C1413">
         <v>2800</v>
       </c>
       <c r="D1413" t="s">
+        <v>5513</v>
+      </c>
+      <c r="E1413" t="s">
         <v>5514</v>
       </c>
-      <c r="E1413" t="s">
+      <c r="F1413" t="s">
         <v>5515</v>
       </c>
-      <c r="F1413" t="s">
+      <c r="G1413" t="s">
         <v>5516</v>
       </c>
-      <c r="G1413" t="s">
-        <v>5517</v>
-      </c>
       <c r="H1413">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I1413">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1413">
         <v>9999</v>
@@ -63832,31 +63846,31 @@
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1414">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B1414">
-        <v>20587</v>
+        <v>20585</v>
       </c>
       <c r="C1414">
         <v>2800</v>
       </c>
       <c r="D1414" t="s">
+        <v>5517</v>
+      </c>
+      <c r="E1414" t="s">
         <v>5518</v>
       </c>
-      <c r="E1414" t="s">
+      <c r="F1414" t="s">
         <v>5519</v>
       </c>
-      <c r="F1414" t="s">
+      <c r="G1414" t="s">
         <v>5520</v>
       </c>
-      <c r="G1414" t="s">
-        <v>5521</v>
-      </c>
       <c r="H1414">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="I1414">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1414">
         <v>9999</v>
@@ -63864,31 +63878,31 @@
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1415">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B1415">
-        <v>20589</v>
+        <v>20587</v>
       </c>
       <c r="C1415">
         <v>2800</v>
       </c>
       <c r="D1415" t="s">
+        <v>5521</v>
+      </c>
+      <c r="E1415" t="s">
         <v>5522</v>
       </c>
-      <c r="E1415" t="s">
+      <c r="F1415" t="s">
         <v>5523</v>
       </c>
-      <c r="F1415" t="s">
+      <c r="G1415" t="s">
         <v>5524</v>
       </c>
-      <c r="G1415" t="s">
-        <v>5525</v>
-      </c>
       <c r="H1415">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I1415">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1415">
         <v>9999</v>
@@ -63896,31 +63910,31 @@
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1416">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B1416">
-        <v>20593</v>
+        <v>20589</v>
       </c>
       <c r="C1416">
         <v>2800</v>
       </c>
       <c r="D1416" t="s">
+        <v>5525</v>
+      </c>
+      <c r="E1416" t="s">
         <v>5526</v>
       </c>
-      <c r="E1416" t="s">
+      <c r="F1416" t="s">
         <v>5527</v>
       </c>
-      <c r="F1416" t="s">
+      <c r="G1416" t="s">
         <v>5528</v>
       </c>
-      <c r="G1416" t="s">
-        <v>5529</v>
-      </c>
       <c r="H1416">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I1416">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1416">
         <v>9999</v>
@@ -63928,31 +63942,31 @@
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1417">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B1417">
-        <v>20594</v>
+        <v>20593</v>
       </c>
       <c r="C1417">
         <v>2800</v>
       </c>
       <c r="D1417" t="s">
+        <v>5529</v>
+      </c>
+      <c r="E1417" t="s">
         <v>5530</v>
       </c>
-      <c r="E1417" t="s">
+      <c r="F1417" t="s">
         <v>5531</v>
       </c>
-      <c r="F1417" t="s">
+      <c r="G1417" t="s">
         <v>5532</v>
       </c>
-      <c r="G1417" t="s">
-        <v>5533</v>
-      </c>
       <c r="H1417">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1417">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1417">
         <v>9999</v>
@@ -63960,31 +63974,31 @@
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1418">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B1418">
-        <v>20595</v>
+        <v>20594</v>
       </c>
       <c r="C1418">
         <v>2800</v>
       </c>
       <c r="D1418" t="s">
+        <v>5533</v>
+      </c>
+      <c r="E1418" t="s">
         <v>5534</v>
       </c>
-      <c r="E1418" t="s">
+      <c r="F1418" t="s">
         <v>5535</v>
       </c>
-      <c r="F1418" t="s">
+      <c r="G1418" t="s">
         <v>5536</v>
       </c>
-      <c r="G1418" t="s">
-        <v>5537</v>
-      </c>
       <c r="H1418">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1418">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1418">
         <v>9999</v>
@@ -63992,31 +64006,31 @@
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1419">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B1419">
-        <v>20596</v>
+        <v>20595</v>
       </c>
       <c r="C1419">
         <v>2800</v>
       </c>
       <c r="D1419" t="s">
+        <v>5537</v>
+      </c>
+      <c r="E1419" t="s">
         <v>5538</v>
       </c>
-      <c r="E1419" t="s">
+      <c r="F1419" t="s">
         <v>5539</v>
       </c>
-      <c r="F1419" t="s">
+      <c r="G1419" t="s">
         <v>5540</v>
       </c>
-      <c r="G1419" t="s">
-        <v>5541</v>
-      </c>
       <c r="H1419">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I1419">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1419">
         <v>9999</v>
@@ -64024,31 +64038,31 @@
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1420">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B1420">
-        <v>20598</v>
+        <v>20596</v>
       </c>
       <c r="C1420">
         <v>2800</v>
       </c>
       <c r="D1420" t="s">
+        <v>5541</v>
+      </c>
+      <c r="E1420" t="s">
         <v>5542</v>
       </c>
-      <c r="E1420" t="s">
+      <c r="F1420" t="s">
         <v>5543</v>
       </c>
-      <c r="F1420" t="s">
+      <c r="G1420" t="s">
         <v>5544</v>
       </c>
-      <c r="G1420" t="s">
-        <v>5545</v>
-      </c>
       <c r="H1420">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I1420">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1420">
         <v>9999</v>
@@ -64056,31 +64070,31 @@
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1421">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B1421">
-        <v>20630</v>
+        <v>20598</v>
       </c>
       <c r="C1421">
-        <v>2832</v>
+        <v>2800</v>
       </c>
       <c r="D1421" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E1421" t="s">
         <v>5546</v>
       </c>
-      <c r="E1421" t="s">
+      <c r="F1421" t="s">
         <v>5547</v>
       </c>
-      <c r="F1421" t="s">
+      <c r="G1421" t="s">
         <v>5548</v>
       </c>
-      <c r="G1421" t="s">
-        <v>5549</v>
-      </c>
       <c r="H1421">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I1421">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1421">
         <v>9999</v>
@@ -64088,31 +64102,31 @@
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1422">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B1422">
-        <v>20642</v>
+        <v>20630</v>
       </c>
       <c r="C1422">
         <v>2832</v>
       </c>
       <c r="D1422" t="s">
+        <v>5549</v>
+      </c>
+      <c r="E1422" t="s">
         <v>5550</v>
       </c>
-      <c r="E1422" t="s">
+      <c r="F1422" t="s">
         <v>5551</v>
       </c>
-      <c r="F1422" t="s">
+      <c r="G1422" t="s">
         <v>5552</v>
       </c>
-      <c r="G1422" t="s">
-        <v>5553</v>
-      </c>
       <c r="H1422">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I1422">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1422">
         <v>9999</v>
@@ -64120,31 +64134,31 @@
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1423">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B1423">
-        <v>20674</v>
+        <v>20642</v>
       </c>
       <c r="C1423">
-        <v>2824</v>
+        <v>2832</v>
       </c>
       <c r="D1423" t="s">
+        <v>5553</v>
+      </c>
+      <c r="E1423" t="s">
         <v>5554</v>
       </c>
-      <c r="E1423" t="s">
+      <c r="F1423" t="s">
         <v>5555</v>
       </c>
-      <c r="F1423" t="s">
+      <c r="G1423" t="s">
         <v>5556</v>
       </c>
-      <c r="G1423" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1423">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I1423">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1423">
         <v>9999</v>
@@ -64152,10 +64166,10 @@
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1424">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B1424">
-        <v>20675</v>
+        <v>20674</v>
       </c>
       <c r="C1424">
         <v>2824</v>
@@ -64173,10 +64187,10 @@
         <v>1083</v>
       </c>
       <c r="H1424">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I1424">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1424">
         <v>9999</v>
@@ -64184,10 +64198,10 @@
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1425">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B1425">
-        <v>20676</v>
+        <v>20675</v>
       </c>
       <c r="C1425">
         <v>2824</v>
@@ -64205,10 +64219,10 @@
         <v>1083</v>
       </c>
       <c r="H1425">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I1425">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1425">
         <v>9999</v>
@@ -64216,13 +64230,13 @@
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1426">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B1426">
-        <v>20692</v>
+        <v>20676</v>
       </c>
       <c r="C1426">
-        <v>139</v>
+        <v>2824</v>
       </c>
       <c r="D1426" t="s">
         <v>5563</v>
@@ -64234,71 +64248,71 @@
         <v>5565</v>
       </c>
       <c r="G1426" t="s">
-        <v>5566</v>
+        <v>1083</v>
       </c>
       <c r="H1426">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I1426">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1426">
-        <v>75</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1427">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B1427">
-        <v>21081</v>
+        <v>20692</v>
       </c>
       <c r="C1427">
-        <v>2953</v>
+        <v>139</v>
       </c>
       <c r="D1427" t="s">
+        <v>5566</v>
+      </c>
+      <c r="E1427" t="s">
         <v>5567</v>
       </c>
-      <c r="E1427" t="s">
+      <c r="F1427" t="s">
         <v>5568</v>
       </c>
-      <c r="F1427" t="s">
+      <c r="G1427" t="s">
         <v>5569</v>
       </c>
-      <c r="G1427" t="s">
-        <v>5570</v>
-      </c>
       <c r="H1427">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I1427">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J1427">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1428">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B1428">
-        <v>21086</v>
+        <v>21081</v>
       </c>
       <c r="C1428">
         <v>2953</v>
       </c>
       <c r="D1428" t="s">
+        <v>5570</v>
+      </c>
+      <c r="E1428" t="s">
         <v>5571</v>
       </c>
-      <c r="E1428" t="s">
+      <c r="F1428" t="s">
         <v>5572</v>
       </c>
-      <c r="F1428" t="s">
+      <c r="G1428" t="s">
         <v>5573</v>
-      </c>
-      <c r="G1428" t="s">
-        <v>5574</v>
       </c>
       <c r="H1428">
         <v>47</v>
@@ -64312,25 +64326,25 @@
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1429">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B1429">
-        <v>21090</v>
+        <v>21086</v>
       </c>
       <c r="C1429">
         <v>2953</v>
       </c>
       <c r="D1429" t="s">
+        <v>5574</v>
+      </c>
+      <c r="E1429" t="s">
         <v>5575</v>
       </c>
-      <c r="E1429" t="s">
+      <c r="F1429" t="s">
         <v>5576</v>
       </c>
-      <c r="F1429" t="s">
+      <c r="G1429" t="s">
         <v>5577</v>
-      </c>
-      <c r="G1429" t="s">
-        <v>5578</v>
       </c>
       <c r="H1429">
         <v>47</v>
@@ -64344,25 +64358,25 @@
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1430">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B1430">
-        <v>21091</v>
+        <v>21090</v>
       </c>
       <c r="C1430">
         <v>2953</v>
       </c>
       <c r="D1430" t="s">
+        <v>5578</v>
+      </c>
+      <c r="E1430" t="s">
         <v>5579</v>
       </c>
-      <c r="E1430" t="s">
+      <c r="F1430" t="s">
         <v>5580</v>
       </c>
-      <c r="F1430" t="s">
+      <c r="G1430" t="s">
         <v>5581</v>
-      </c>
-      <c r="G1430" t="s">
-        <v>5582</v>
       </c>
       <c r="H1430">
         <v>47</v>
@@ -64376,63 +64390,63 @@
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1431">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B1431">
-        <v>21348</v>
+        <v>21091</v>
       </c>
       <c r="C1431">
-        <v>1203</v>
+        <v>2953</v>
       </c>
       <c r="D1431" t="s">
+        <v>5582</v>
+      </c>
+      <c r="E1431" t="s">
         <v>5583</v>
       </c>
-      <c r="E1431" t="s">
+      <c r="F1431" t="s">
         <v>5584</v>
       </c>
-      <c r="F1431" t="s">
+      <c r="G1431" t="s">
         <v>5585</v>
       </c>
-      <c r="G1431" t="s">
-        <v>5586</v>
-      </c>
       <c r="H1431">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I1431">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1431">
-        <v>179</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1432">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B1432">
-        <v>21363</v>
+        <v>21348</v>
       </c>
       <c r="C1432">
         <v>1203</v>
       </c>
       <c r="D1432" t="s">
+        <v>5586</v>
+      </c>
+      <c r="E1432" t="s">
         <v>5587</v>
       </c>
-      <c r="E1432" t="s">
+      <c r="F1432" t="s">
         <v>5588</v>
       </c>
-      <c r="F1432" t="s">
+      <c r="G1432" t="s">
         <v>5589</v>
       </c>
-      <c r="G1432" t="s">
-        <v>5590</v>
-      </c>
       <c r="H1432">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I1432">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1432">
         <v>179</v>
@@ -64440,109 +64454,109 @@
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1433">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B1433">
-        <v>21748</v>
+        <v>21363</v>
       </c>
       <c r="C1433">
-        <v>11088</v>
+        <v>1203</v>
       </c>
       <c r="D1433" t="s">
+        <v>5590</v>
+      </c>
+      <c r="E1433" t="s">
         <v>5591</v>
       </c>
-      <c r="E1433" t="s">
+      <c r="F1433" t="s">
         <v>5592</v>
       </c>
-      <c r="F1433" t="s">
+      <c r="G1433" t="s">
         <v>5593</v>
       </c>
-      <c r="G1433" t="s">
-        <v>5594</v>
-      </c>
       <c r="H1433">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I1433">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1433">
-        <v>318</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1434">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B1434">
-        <v>21766</v>
+        <v>21748</v>
       </c>
       <c r="C1434">
-        <v>11102</v>
+        <v>11088</v>
       </c>
       <c r="D1434" t="s">
+        <v>5594</v>
+      </c>
+      <c r="E1434" t="s">
         <v>5595</v>
       </c>
-      <c r="E1434" t="s">
+      <c r="F1434" t="s">
         <v>5596</v>
       </c>
-      <c r="F1434" t="s">
+      <c r="G1434" t="s">
         <v>5597</v>
       </c>
-      <c r="G1434" t="s">
-        <v>5598</v>
-      </c>
       <c r="H1434">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I1434">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1434">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1435">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B1435">
-        <v>21767</v>
+        <v>21766</v>
       </c>
       <c r="C1435">
-        <v>11104</v>
+        <v>11102</v>
       </c>
       <c r="D1435" t="s">
+        <v>5598</v>
+      </c>
+      <c r="E1435" t="s">
         <v>5599</v>
       </c>
-      <c r="E1435" t="s">
+      <c r="F1435" t="s">
         <v>5600</v>
       </c>
-      <c r="F1435" t="s">
+      <c r="G1435" t="s">
         <v>5601</v>
       </c>
-      <c r="G1435" t="s">
-        <v>3589</v>
-      </c>
       <c r="H1435">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I1435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1435">
-        <v>110</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1436">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B1436">
-        <v>21784</v>
+        <v>21767</v>
       </c>
       <c r="C1436">
-        <v>11264</v>
+        <v>11104</v>
       </c>
       <c r="D1436" t="s">
         <v>5602</v>
@@ -64554,42 +64568,42 @@
         <v>5604</v>
       </c>
       <c r="G1436" t="s">
-        <v>5605</v>
+        <v>3589</v>
       </c>
       <c r="H1436">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1436">
         <v>2</v>
       </c>
       <c r="J1436">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1437">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B1437">
-        <v>21795</v>
+        <v>21784</v>
       </c>
       <c r="C1437">
         <v>11264</v>
       </c>
       <c r="D1437" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E1437" t="s">
         <v>5606</v>
       </c>
-      <c r="E1437" t="s">
+      <c r="F1437" t="s">
         <v>5607</v>
       </c>
-      <c r="F1437" t="s">
+      <c r="G1437" t="s">
         <v>5608</v>
       </c>
-      <c r="G1437" t="s">
-        <v>5609</v>
-      </c>
       <c r="H1437">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I1437">
         <v>2</v>
@@ -64600,16 +64614,16 @@
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1438">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B1438">
-        <v>22091</v>
+        <v>21795</v>
       </c>
       <c r="C1438">
-        <v>2959</v>
+        <v>11264</v>
       </c>
       <c r="D1438" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="E1438" t="s">
         <v>5610</v>
@@ -64621,21 +64635,21 @@
         <v>5612</v>
       </c>
       <c r="H1438">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I1438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1438">
-        <v>9999</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1439">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B1439">
-        <v>22092</v>
+        <v>22091</v>
       </c>
       <c r="C1439">
         <v>2959</v>
@@ -64664,10 +64678,10 @@
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1440">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B1440">
-        <v>22093</v>
+        <v>22092</v>
       </c>
       <c r="C1440">
         <v>2959</v>
@@ -64685,10 +64699,10 @@
         <v>5618</v>
       </c>
       <c r="H1440">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I1440">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1440">
         <v>9999</v>
@@ -64696,10 +64710,10 @@
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1441">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B1441">
-        <v>22094</v>
+        <v>22093</v>
       </c>
       <c r="C1441">
         <v>2959</v>
@@ -64714,13 +64728,13 @@
         <v>5620</v>
       </c>
       <c r="G1441" t="s">
-        <v>3049</v>
+        <v>5621</v>
       </c>
       <c r="H1441">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I1441">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1441">
         <v>9999</v>
@@ -64728,31 +64742,31 @@
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1442">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B1442">
-        <v>22095</v>
+        <v>22094</v>
       </c>
       <c r="C1442">
         <v>2959</v>
       </c>
       <c r="D1442" t="s">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="E1442" t="s">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="F1442" t="s">
-        <v>5622</v>
+        <v>5623</v>
       </c>
       <c r="G1442" t="s">
-        <v>5623</v>
+        <v>3049</v>
       </c>
       <c r="H1442">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I1442">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1442">
         <v>9999</v>
@@ -64760,31 +64774,31 @@
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1443">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B1443">
-        <v>22103</v>
+        <v>22095</v>
       </c>
       <c r="C1443">
-        <v>2749</v>
+        <v>2959</v>
       </c>
       <c r="D1443" t="s">
         <v>5624</v>
       </c>
       <c r="E1443" t="s">
+        <v>5624</v>
+      </c>
+      <c r="F1443" t="s">
         <v>5625</v>
       </c>
-      <c r="F1443" t="s">
+      <c r="G1443" t="s">
         <v>5626</v>
       </c>
-      <c r="G1443" t="s">
-        <v>5627</v>
-      </c>
       <c r="H1443">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I1443">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J1443">
         <v>9999</v>
@@ -64792,31 +64806,31 @@
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1444">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B1444">
-        <v>22483</v>
+        <v>22103</v>
       </c>
       <c r="C1444">
         <v>2749</v>
       </c>
       <c r="D1444" t="s">
+        <v>5627</v>
+      </c>
+      <c r="E1444" t="s">
         <v>5628</v>
       </c>
-      <c r="E1444" t="s">
+      <c r="F1444" t="s">
         <v>5629</v>
       </c>
-      <c r="F1444" t="s">
+      <c r="G1444" t="s">
         <v>5630</v>
       </c>
-      <c r="G1444" t="s">
-        <v>5631</v>
-      </c>
       <c r="H1444">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I1444">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1444">
         <v>9999</v>
@@ -64824,63 +64838,63 @@
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1445">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B1445">
-        <v>22521</v>
+        <v>22483</v>
       </c>
       <c r="C1445">
-        <v>11010</v>
+        <v>2749</v>
       </c>
       <c r="D1445" t="s">
+        <v>5631</v>
+      </c>
+      <c r="E1445" t="s">
         <v>5632</v>
       </c>
-      <c r="E1445" t="s">
+      <c r="F1445" t="s">
         <v>5633</v>
       </c>
-      <c r="F1445" t="s">
+      <c r="G1445" t="s">
         <v>5634</v>
       </c>
-      <c r="G1445" t="s">
-        <v>5635</v>
-      </c>
       <c r="H1445">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I1445">
         <v>1</v>
       </c>
       <c r="J1445">
-        <v>110</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1446">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B1446">
-        <v>22522</v>
+        <v>22521</v>
       </c>
       <c r="C1446">
         <v>11010</v>
       </c>
       <c r="D1446" t="s">
+        <v>5635</v>
+      </c>
+      <c r="E1446" t="s">
         <v>5636</v>
       </c>
-      <c r="E1446" t="s">
+      <c r="F1446" t="s">
         <v>5637</v>
       </c>
-      <c r="F1446" t="s">
+      <c r="G1446" t="s">
         <v>5638</v>
       </c>
-      <c r="G1446" t="s">
-        <v>5639</v>
-      </c>
       <c r="H1446">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="I1446">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1446">
         <v>110</v>
@@ -64888,63 +64902,63 @@
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1447">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B1447">
-        <v>22523</v>
+        <v>22522</v>
       </c>
       <c r="C1447">
-        <v>1203</v>
+        <v>11010</v>
       </c>
       <c r="D1447" t="s">
+        <v>5639</v>
+      </c>
+      <c r="E1447" t="s">
         <v>5640</v>
       </c>
-      <c r="E1447" t="s">
+      <c r="F1447" t="s">
         <v>5641</v>
       </c>
-      <c r="F1447" t="s">
+      <c r="G1447" t="s">
         <v>5642</v>
       </c>
-      <c r="G1447" t="s">
-        <v>5643</v>
-      </c>
       <c r="H1447">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I1447">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J1447">
-        <v>179</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1448">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B1448">
-        <v>22524</v>
+        <v>22523</v>
       </c>
       <c r="C1448">
         <v>1203</v>
       </c>
       <c r="D1448" t="s">
+        <v>5643</v>
+      </c>
+      <c r="E1448" t="s">
         <v>5644</v>
       </c>
-      <c r="E1448" t="s">
+      <c r="F1448" t="s">
         <v>5645</v>
       </c>
-      <c r="F1448" t="s">
+      <c r="G1448" t="s">
         <v>5646</v>
       </c>
-      <c r="G1448" t="s">
-        <v>5647</v>
-      </c>
       <c r="H1448">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I1448">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1448">
         <v>179</v>
@@ -64952,25 +64966,25 @@
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1449">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B1449">
-        <v>22553</v>
+        <v>22524</v>
       </c>
       <c r="C1449">
-        <v>13124</v>
+        <v>1203</v>
       </c>
       <c r="D1449" t="s">
+        <v>5647</v>
+      </c>
+      <c r="E1449" t="s">
         <v>5648</v>
       </c>
-      <c r="E1449" t="s">
+      <c r="F1449" t="s">
         <v>5649</v>
       </c>
-      <c r="F1449" t="s">
+      <c r="G1449" t="s">
         <v>5650</v>
-      </c>
-      <c r="G1449" t="s">
-        <v>1083</v>
       </c>
       <c r="H1449">
         <v>16</v>
@@ -64979,18 +64993,18 @@
         <v>5</v>
       </c>
       <c r="J1449">
-        <v>9999</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1450">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B1450">
-        <v>22559</v>
+        <v>22553</v>
       </c>
       <c r="C1450">
-        <v>12964</v>
+        <v>13124</v>
       </c>
       <c r="D1450" t="s">
         <v>5651</v>
@@ -65002,39 +65016,39 @@
         <v>5653</v>
       </c>
       <c r="G1450" t="s">
-        <v>5654</v>
+        <v>1083</v>
       </c>
       <c r="H1450">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I1450">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1450">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1451">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B1451">
-        <v>22561</v>
+        <v>22559</v>
       </c>
       <c r="C1451">
-        <v>13004</v>
+        <v>12964</v>
       </c>
       <c r="D1451" t="s">
+        <v>5654</v>
+      </c>
+      <c r="E1451" t="s">
         <v>5655</v>
       </c>
-      <c r="E1451" t="s">
+      <c r="F1451" t="s">
         <v>5656</v>
       </c>
-      <c r="F1451" t="s">
+      <c r="G1451" t="s">
         <v>5657</v>
-      </c>
-      <c r="G1451" t="s">
-        <v>5658</v>
       </c>
       <c r="H1451">
         <v>26</v>
@@ -65048,25 +65062,25 @@
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B1452">
-        <v>22562</v>
+        <v>22561</v>
       </c>
       <c r="C1452">
         <v>13004</v>
       </c>
       <c r="D1452" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E1452" t="s">
         <v>5659</v>
       </c>
-      <c r="E1452" t="s">
+      <c r="F1452" t="s">
         <v>5660</v>
       </c>
-      <c r="F1452" t="s">
+      <c r="G1452" t="s">
         <v>5661</v>
-      </c>
-      <c r="G1452" t="s">
-        <v>5662</v>
       </c>
       <c r="H1452">
         <v>26</v>
@@ -65080,25 +65094,25 @@
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B1453">
-        <v>22563</v>
+        <v>22562</v>
       </c>
       <c r="C1453">
         <v>13004</v>
       </c>
       <c r="D1453" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E1453" t="s">
         <v>5663</v>
       </c>
-      <c r="E1453" t="s">
+      <c r="F1453" t="s">
         <v>5664</v>
       </c>
-      <c r="F1453" t="s">
+      <c r="G1453" t="s">
         <v>5665</v>
-      </c>
-      <c r="G1453" t="s">
-        <v>5666</v>
       </c>
       <c r="H1453">
         <v>26</v>
@@ -65112,74 +65126,74 @@
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B1454">
-        <v>22567</v>
+        <v>22563</v>
       </c>
       <c r="C1454">
-        <v>12814</v>
+        <v>13004</v>
       </c>
       <c r="D1454" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E1454" t="s">
         <v>5667</v>
       </c>
-      <c r="E1454" t="s">
+      <c r="F1454" t="s">
         <v>5668</v>
       </c>
-      <c r="F1454" t="s">
+      <c r="G1454" t="s">
         <v>5669</v>
       </c>
-      <c r="G1454" t="s">
-        <v>5670</v>
-      </c>
       <c r="H1454">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I1454">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1454">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B1455">
-        <v>22569</v>
+        <v>22567</v>
       </c>
       <c r="C1455">
-        <v>13233</v>
+        <v>12814</v>
       </c>
       <c r="D1455" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E1455" t="s">
         <v>5671</v>
       </c>
-      <c r="E1455" t="s">
+      <c r="F1455" t="s">
         <v>5672</v>
       </c>
-      <c r="F1455" t="s">
+      <c r="G1455" t="s">
         <v>5673</v>
       </c>
-      <c r="G1455" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1455">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I1455">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1455">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B1456">
-        <v>22570</v>
+        <v>22569</v>
       </c>
       <c r="C1456">
         <v>13233</v>
@@ -65208,13 +65222,13 @@
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B1457">
-        <v>22572</v>
+        <v>22570</v>
       </c>
       <c r="C1457">
-        <v>13079</v>
+        <v>13233</v>
       </c>
       <c r="D1457" t="s">
         <v>5677</v>
@@ -65226,42 +65240,42 @@
         <v>5679</v>
       </c>
       <c r="G1457" t="s">
-        <v>5680</v>
+        <v>1083</v>
       </c>
       <c r="H1457">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I1457">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1457">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B1458">
-        <v>22573</v>
+        <v>22572</v>
       </c>
       <c r="C1458">
         <v>13079</v>
       </c>
       <c r="D1458" t="s">
+        <v>5680</v>
+      </c>
+      <c r="E1458" t="s">
         <v>5681</v>
       </c>
-      <c r="E1458" t="s">
+      <c r="F1458" t="s">
         <v>5682</v>
       </c>
-      <c r="F1458" t="s">
+      <c r="G1458" t="s">
         <v>5683</v>
       </c>
-      <c r="G1458" t="s">
-        <v>5684</v>
-      </c>
       <c r="H1458">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1458">
         <v>1</v>
@@ -65272,31 +65286,31 @@
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B1459">
-        <v>22574</v>
+        <v>22573</v>
       </c>
       <c r="C1459">
         <v>13079</v>
       </c>
       <c r="D1459" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E1459" t="s">
         <v>5685</v>
       </c>
-      <c r="E1459" t="s">
+      <c r="F1459" t="s">
         <v>5686</v>
       </c>
-      <c r="F1459" t="s">
+      <c r="G1459" t="s">
         <v>5687</v>
       </c>
-      <c r="G1459" t="s">
-        <v>5688</v>
-      </c>
       <c r="H1459">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I1459">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1459">
         <v>9999</v>
@@ -65304,63 +65318,63 @@
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B1460">
-        <v>22575</v>
+        <v>22574</v>
       </c>
       <c r="C1460">
-        <v>13152</v>
+        <v>13079</v>
       </c>
       <c r="D1460" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E1460" t="s">
         <v>5689</v>
       </c>
-      <c r="E1460" t="s">
+      <c r="F1460" t="s">
         <v>5690</v>
       </c>
-      <c r="F1460" t="s">
+      <c r="G1460" t="s">
         <v>5691</v>
       </c>
-      <c r="G1460" t="s">
-        <v>5692</v>
-      </c>
       <c r="H1460">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I1460">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1460">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B1461">
-        <v>22576</v>
+        <v>22575</v>
       </c>
       <c r="C1461">
-        <v>13009</v>
+        <v>13152</v>
       </c>
       <c r="D1461" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E1461" t="s">
         <v>5693</v>
       </c>
-      <c r="E1461" t="s">
+      <c r="F1461" t="s">
         <v>5694</v>
       </c>
-      <c r="F1461" t="s">
+      <c r="G1461" t="s">
         <v>5695</v>
       </c>
-      <c r="G1461" t="s">
-        <v>5696</v>
-      </c>
       <c r="H1461">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1461">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1461">
         <v>1000</v>
@@ -65368,60 +65382,60 @@
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B1462">
-        <v>22581</v>
+        <v>22576</v>
       </c>
       <c r="C1462">
-        <v>13178</v>
+        <v>13009</v>
       </c>
       <c r="D1462" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E1462" t="s">
         <v>5697</v>
       </c>
-      <c r="E1462" t="s">
+      <c r="F1462" t="s">
         <v>5698</v>
       </c>
-      <c r="F1462" t="s">
+      <c r="G1462" t="s">
         <v>5699</v>
       </c>
-      <c r="G1462" t="s">
-        <v>5700</v>
-      </c>
       <c r="H1462">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I1462">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1462">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B1463">
-        <v>22582</v>
+        <v>22581</v>
       </c>
       <c r="C1463">
         <v>13178</v>
       </c>
       <c r="D1463" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E1463" t="s">
         <v>5701</v>
       </c>
-      <c r="E1463" t="s">
+      <c r="F1463" t="s">
         <v>5702</v>
       </c>
-      <c r="F1463" t="s">
+      <c r="G1463" t="s">
         <v>5703</v>
       </c>
-      <c r="G1463" t="s">
-        <v>5704</v>
-      </c>
       <c r="H1463">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I1463">
         <v>1</v>
@@ -65432,28 +65446,28 @@
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B1464">
-        <v>22583</v>
+        <v>22582</v>
       </c>
       <c r="C1464">
         <v>13178</v>
       </c>
       <c r="D1464" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E1464" t="s">
         <v>5705</v>
       </c>
-      <c r="E1464" t="s">
+      <c r="F1464" t="s">
         <v>5706</v>
       </c>
-      <c r="F1464" t="s">
+      <c r="G1464" t="s">
         <v>5707</v>
       </c>
-      <c r="G1464" t="s">
-        <v>5708</v>
-      </c>
       <c r="H1464">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I1464">
         <v>1</v>
@@ -65464,28 +65478,28 @@
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B1465">
-        <v>22584</v>
+        <v>22583</v>
       </c>
       <c r="C1465">
         <v>13178</v>
       </c>
       <c r="D1465" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E1465" t="s">
         <v>5709</v>
       </c>
-      <c r="E1465" t="s">
+      <c r="F1465" t="s">
         <v>5710</v>
       </c>
-      <c r="F1465" t="s">
+      <c r="G1465" t="s">
         <v>5711</v>
       </c>
-      <c r="G1465" t="s">
-        <v>5712</v>
-      </c>
       <c r="H1465">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I1465">
         <v>1</v>
@@ -65496,31 +65510,31 @@
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B1466">
-        <v>22598</v>
+        <v>22584</v>
       </c>
       <c r="C1466">
-        <v>13053</v>
+        <v>13178</v>
       </c>
       <c r="D1466" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E1466" t="s">
         <v>5713</v>
       </c>
-      <c r="E1466" t="s">
+      <c r="F1466" t="s">
         <v>5714</v>
       </c>
-      <c r="F1466" t="s">
+      <c r="G1466" t="s">
         <v>5715</v>
       </c>
-      <c r="G1466" t="s">
-        <v>4780</v>
-      </c>
       <c r="H1466">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I1466">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1466">
         <v>9999</v>
@@ -65528,10 +65542,10 @@
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B1467">
-        <v>22599</v>
+        <v>22598</v>
       </c>
       <c r="C1467">
         <v>13053</v>
@@ -65549,10 +65563,10 @@
         <v>4780</v>
       </c>
       <c r="H1467">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I1467">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J1467">
         <v>9999</v>
@@ -65560,10 +65574,10 @@
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B1468">
-        <v>22600</v>
+        <v>22599</v>
       </c>
       <c r="C1468">
         <v>13053</v>
@@ -65581,7 +65595,7 @@
         <v>4780</v>
       </c>
       <c r="H1468">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="I1468">
         <v>5</v>
@@ -65592,10 +65606,10 @@
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B1469">
-        <v>22601</v>
+        <v>22600</v>
       </c>
       <c r="C1469">
         <v>13053</v>
@@ -65613,7 +65627,7 @@
         <v>4780</v>
       </c>
       <c r="H1469">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I1469">
         <v>5</v>
@@ -65624,10 +65638,10 @@
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B1470">
-        <v>22602</v>
+        <v>22601</v>
       </c>
       <c r="C1470">
         <v>13053</v>
@@ -65645,10 +65659,10 @@
         <v>4780</v>
       </c>
       <c r="H1470">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I1470">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1470">
         <v>9999</v>
@@ -65656,10 +65670,10 @@
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B1471">
-        <v>22603</v>
+        <v>22602</v>
       </c>
       <c r="C1471">
         <v>13053</v>
@@ -65677,10 +65691,10 @@
         <v>4780</v>
       </c>
       <c r="H1471">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1471">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1471">
         <v>9999</v>
@@ -65688,10 +65702,10 @@
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B1472">
-        <v>22606</v>
+        <v>22603</v>
       </c>
       <c r="C1472">
         <v>13053</v>
@@ -65709,10 +65723,10 @@
         <v>4780</v>
       </c>
       <c r="H1472">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I1472">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1472">
         <v>9999</v>
@@ -65720,10 +65734,10 @@
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B1473">
-        <v>22607</v>
+        <v>22606</v>
       </c>
       <c r="C1473">
         <v>13053</v>
@@ -65741,10 +65755,10 @@
         <v>4780</v>
       </c>
       <c r="H1473">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I1473">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1473">
         <v>9999</v>
@@ -65752,10 +65766,10 @@
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B1474">
-        <v>22608</v>
+        <v>22607</v>
       </c>
       <c r="C1474">
         <v>13053</v>
@@ -65773,7 +65787,7 @@
         <v>4780</v>
       </c>
       <c r="H1474">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I1474">
         <v>5</v>
@@ -65784,10 +65798,10 @@
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B1475">
-        <v>22609</v>
+        <v>22608</v>
       </c>
       <c r="C1475">
         <v>13053</v>
@@ -65805,7 +65819,7 @@
         <v>4780</v>
       </c>
       <c r="H1475">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1475">
         <v>5</v>
@@ -65816,10 +65830,10 @@
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B1476">
-        <v>22612</v>
+        <v>22609</v>
       </c>
       <c r="C1476">
         <v>13053</v>
@@ -65837,10 +65851,10 @@
         <v>4780</v>
       </c>
       <c r="H1476">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1476">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1476">
         <v>9999</v>
@@ -65848,10 +65862,10 @@
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B1477">
-        <v>22614</v>
+        <v>22612</v>
       </c>
       <c r="C1477">
         <v>13053</v>
@@ -65869,10 +65883,10 @@
         <v>4780</v>
       </c>
       <c r="H1477">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I1477">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1477">
         <v>9999</v>
@@ -65880,13 +65894,13 @@
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B1478">
-        <v>22619</v>
+        <v>22614</v>
       </c>
       <c r="C1478">
-        <v>12904</v>
+        <v>13053</v>
       </c>
       <c r="D1478" t="s">
         <v>5749</v>
@@ -65898,24 +65912,24 @@
         <v>5751</v>
       </c>
       <c r="G1478" t="s">
-        <v>4443</v>
+        <v>4780</v>
       </c>
       <c r="H1478">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1478">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1478">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B1479">
-        <v>22620</v>
+        <v>22619</v>
       </c>
       <c r="C1479">
         <v>12904</v>
@@ -65944,13 +65958,13 @@
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B1480">
-        <v>22628</v>
+        <v>22620</v>
       </c>
       <c r="C1480">
-        <v>13196</v>
+        <v>12904</v>
       </c>
       <c r="D1480" t="s">
         <v>5755</v>
@@ -65962,24 +65976,24 @@
         <v>5757</v>
       </c>
       <c r="G1480" t="s">
-        <v>1083</v>
+        <v>4443</v>
       </c>
       <c r="H1480">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I1480">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J1480">
-        <v>9999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B1481">
-        <v>22629</v>
+        <v>22628</v>
       </c>
       <c r="C1481">
         <v>13196</v>
@@ -66008,10 +66022,10 @@
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B1482">
-        <v>22630</v>
+        <v>22629</v>
       </c>
       <c r="C1482">
         <v>13196</v>
@@ -66029,7 +66043,7 @@
         <v>1083</v>
       </c>
       <c r="H1482">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I1482">
         <v>6</v>
@@ -66040,10 +66054,10 @@
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B1483">
-        <v>22631</v>
+        <v>22630</v>
       </c>
       <c r="C1483">
         <v>13196</v>
@@ -66061,7 +66075,7 @@
         <v>1083</v>
       </c>
       <c r="H1483">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I1483">
         <v>6</v>
@@ -66072,10 +66086,10 @@
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B1484">
-        <v>22633</v>
+        <v>22631</v>
       </c>
       <c r="C1484">
         <v>13196</v>
@@ -66093,7 +66107,7 @@
         <v>1083</v>
       </c>
       <c r="H1484">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I1484">
         <v>6</v>
@@ -66104,13 +66118,13 @@
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B1485">
-        <v>22760</v>
+        <v>22633</v>
       </c>
       <c r="C1485">
-        <v>13026</v>
+        <v>13196</v>
       </c>
       <c r="D1485" t="s">
         <v>5770</v>
@@ -66122,10 +66136,10 @@
         <v>5772</v>
       </c>
       <c r="G1485" t="s">
-        <v>5773</v>
+        <v>1083</v>
       </c>
       <c r="H1485">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I1485">
         <v>6</v>
@@ -66136,31 +66150,31 @@
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B1486">
-        <v>22822</v>
+        <v>22760</v>
       </c>
       <c r="C1486">
-        <v>13204</v>
+        <v>13026</v>
       </c>
       <c r="D1486" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E1486" t="s">
         <v>5774</v>
       </c>
-      <c r="E1486" t="s">
+      <c r="F1486" t="s">
         <v>5775</v>
       </c>
-      <c r="F1486" t="s">
+      <c r="G1486" t="s">
         <v>5776</v>
       </c>
-      <c r="G1486" t="s">
-        <v>5777</v>
-      </c>
       <c r="H1486">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I1486">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1486">
         <v>9999</v>
@@ -66168,31 +66182,31 @@
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B1487">
-        <v>22823</v>
+        <v>22822</v>
       </c>
       <c r="C1487">
         <v>13204</v>
       </c>
       <c r="D1487" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E1487" t="s">
         <v>5778</v>
       </c>
-      <c r="E1487" t="s">
+      <c r="F1487" t="s">
         <v>5779</v>
       </c>
-      <c r="F1487" t="s">
+      <c r="G1487" t="s">
         <v>5780</v>
       </c>
-      <c r="G1487" t="s">
-        <v>5781</v>
-      </c>
       <c r="H1487">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I1487">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1487">
         <v>9999</v>
@@ -66200,31 +66214,31 @@
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B1488">
-        <v>22824</v>
+        <v>22823</v>
       </c>
       <c r="C1488">
         <v>13204</v>
       </c>
       <c r="D1488" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E1488" t="s">
         <v>5782</v>
       </c>
-      <c r="E1488" t="s">
+      <c r="F1488" t="s">
         <v>5783</v>
       </c>
-      <c r="F1488" t="s">
+      <c r="G1488" t="s">
         <v>5784</v>
       </c>
-      <c r="G1488" t="s">
-        <v>787</v>
-      </c>
       <c r="H1488">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I1488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1488">
         <v>9999</v>
@@ -66232,10 +66246,10 @@
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B1489">
-        <v>22827</v>
+        <v>22824</v>
       </c>
       <c r="C1489">
         <v>13204</v>
@@ -66250,13 +66264,13 @@
         <v>5787</v>
       </c>
       <c r="G1489" t="s">
-        <v>5788</v>
+        <v>787</v>
       </c>
       <c r="H1489">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I1489">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1489">
         <v>9999</v>
@@ -66264,28 +66278,28 @@
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B1490">
-        <v>22828</v>
+        <v>22827</v>
       </c>
       <c r="C1490">
         <v>13204</v>
       </c>
       <c r="D1490" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E1490" t="s">
         <v>5789</v>
       </c>
-      <c r="E1490" t="s">
+      <c r="F1490" t="s">
         <v>5790</v>
       </c>
-      <c r="F1490" t="s">
+      <c r="G1490" t="s">
         <v>5791</v>
       </c>
-      <c r="G1490" t="s">
-        <v>5792</v>
-      </c>
       <c r="H1490">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I1490">
         <v>5</v>
@@ -66296,28 +66310,28 @@
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B1491">
-        <v>22829</v>
+        <v>22828</v>
       </c>
       <c r="C1491">
         <v>13204</v>
       </c>
       <c r="D1491" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E1491" t="s">
         <v>5793</v>
       </c>
-      <c r="E1491" t="s">
+      <c r="F1491" t="s">
         <v>5794</v>
       </c>
-      <c r="F1491" t="s">
+      <c r="G1491" t="s">
         <v>5795</v>
       </c>
-      <c r="G1491" t="s">
-        <v>5796</v>
-      </c>
       <c r="H1491">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I1491">
         <v>5</v>
@@ -66328,31 +66342,31 @@
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B1492">
-        <v>22830</v>
+        <v>22829</v>
       </c>
       <c r="C1492">
         <v>13204</v>
       </c>
       <c r="D1492" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E1492" t="s">
         <v>5797</v>
       </c>
-      <c r="E1492" t="s">
+      <c r="F1492" t="s">
         <v>5798</v>
       </c>
-      <c r="F1492" t="s">
+      <c r="G1492" t="s">
         <v>5799</v>
       </c>
-      <c r="G1492" t="s">
-        <v>5800</v>
-      </c>
       <c r="H1492">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1492">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1492">
         <v>9999</v>
@@ -66360,31 +66374,31 @@
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B1493">
-        <v>22831</v>
+        <v>22830</v>
       </c>
       <c r="C1493">
         <v>13204</v>
       </c>
       <c r="D1493" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E1493" t="s">
         <v>5801</v>
       </c>
-      <c r="E1493" t="s">
+      <c r="F1493" t="s">
         <v>5802</v>
       </c>
-      <c r="F1493" t="s">
+      <c r="G1493" t="s">
         <v>5803</v>
       </c>
-      <c r="G1493" t="s">
-        <v>5804</v>
-      </c>
       <c r="H1493">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I1493">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1493">
         <v>9999</v>
@@ -66392,28 +66406,28 @@
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B1494">
-        <v>22832</v>
+        <v>22831</v>
       </c>
       <c r="C1494">
         <v>13204</v>
       </c>
       <c r="D1494" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E1494" t="s">
         <v>5805</v>
       </c>
-      <c r="E1494" t="s">
+      <c r="F1494" t="s">
         <v>5806</v>
       </c>
-      <c r="F1494" t="s">
+      <c r="G1494" t="s">
         <v>5807</v>
       </c>
-      <c r="G1494" t="s">
-        <v>5808</v>
-      </c>
       <c r="H1494">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I1494">
         <v>2</v>
@@ -66424,31 +66438,31 @@
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B1495">
-        <v>22833</v>
+        <v>22832</v>
       </c>
       <c r="C1495">
         <v>13204</v>
       </c>
       <c r="D1495" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E1495" t="s">
         <v>5809</v>
       </c>
-      <c r="E1495" t="s">
+      <c r="F1495" t="s">
         <v>5810</v>
       </c>
-      <c r="F1495" t="s">
+      <c r="G1495" t="s">
         <v>5811</v>
       </c>
-      <c r="G1495" t="s">
-        <v>5812</v>
-      </c>
       <c r="H1495">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I1495">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1495">
         <v>9999</v>
@@ -66456,31 +66470,31 @@
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B1496">
-        <v>22834</v>
+        <v>22833</v>
       </c>
       <c r="C1496">
         <v>13204</v>
       </c>
       <c r="D1496" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E1496" t="s">
         <v>5813</v>
       </c>
-      <c r="E1496" t="s">
+      <c r="F1496" t="s">
         <v>5814</v>
       </c>
-      <c r="F1496" t="s">
+      <c r="G1496" t="s">
         <v>5815</v>
       </c>
-      <c r="G1496" t="s">
-        <v>5816</v>
-      </c>
       <c r="H1496">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I1496">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1496">
         <v>9999</v>
@@ -66488,31 +66502,31 @@
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B1497">
-        <v>22835</v>
+        <v>22834</v>
       </c>
       <c r="C1497">
         <v>13204</v>
       </c>
       <c r="D1497" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E1497" t="s">
         <v>5817</v>
       </c>
-      <c r="E1497" t="s">
+      <c r="F1497" t="s">
         <v>5818</v>
       </c>
-      <c r="F1497" t="s">
+      <c r="G1497" t="s">
         <v>5819</v>
       </c>
-      <c r="G1497" t="s">
-        <v>5820</v>
-      </c>
       <c r="H1497">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I1497">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1497">
         <v>9999</v>
@@ -66520,31 +66534,31 @@
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B1498">
-        <v>22837</v>
+        <v>22835</v>
       </c>
       <c r="C1498">
         <v>13204</v>
       </c>
       <c r="D1498" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E1498" t="s">
         <v>5821</v>
       </c>
-      <c r="E1498" t="s">
+      <c r="F1498" t="s">
         <v>5822</v>
       </c>
-      <c r="F1498" t="s">
+      <c r="G1498" t="s">
         <v>5823</v>
       </c>
-      <c r="G1498" t="s">
-        <v>5824</v>
-      </c>
       <c r="H1498">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I1498">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1498">
         <v>9999</v>
@@ -66552,31 +66566,31 @@
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B1499">
-        <v>22841</v>
+        <v>22837</v>
       </c>
       <c r="C1499">
-        <v>12999</v>
+        <v>13204</v>
       </c>
       <c r="D1499" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E1499" t="s">
         <v>5825</v>
       </c>
-      <c r="E1499" t="s">
+      <c r="F1499" t="s">
         <v>5826</v>
       </c>
-      <c r="F1499" t="s">
+      <c r="G1499" t="s">
         <v>5827</v>
       </c>
-      <c r="G1499" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1499">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I1499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1499">
         <v>9999</v>
@@ -66584,10 +66598,10 @@
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B1500">
-        <v>22842</v>
+        <v>22841</v>
       </c>
       <c r="C1500">
         <v>12999</v>
@@ -66605,7 +66619,7 @@
         <v>1083</v>
       </c>
       <c r="H1500">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I1500">
         <v>2</v>
@@ -66616,13 +66630,13 @@
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B1501">
-        <v>22845</v>
+        <v>22842</v>
       </c>
       <c r="C1501">
-        <v>12848</v>
+        <v>12999</v>
       </c>
       <c r="D1501" t="s">
         <v>5831</v>
@@ -66634,10 +66648,10 @@
         <v>5833</v>
       </c>
       <c r="G1501" t="s">
-        <v>5834</v>
+        <v>1083</v>
       </c>
       <c r="H1501">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I1501">
         <v>2</v>
@@ -66648,31 +66662,31 @@
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B1502">
-        <v>22848</v>
+        <v>22845</v>
       </c>
       <c r="C1502">
         <v>12848</v>
       </c>
       <c r="D1502" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E1502" t="s">
         <v>5835</v>
       </c>
-      <c r="E1502" t="s">
+      <c r="F1502" t="s">
         <v>5836</v>
       </c>
-      <c r="F1502" t="s">
+      <c r="G1502" t="s">
         <v>5837</v>
       </c>
-      <c r="G1502" t="s">
-        <v>5838</v>
-      </c>
       <c r="H1502">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I1502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1502">
         <v>9999</v>
@@ -66680,31 +66694,31 @@
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B1503">
-        <v>22851</v>
+        <v>22848</v>
       </c>
       <c r="C1503">
         <v>12848</v>
       </c>
       <c r="D1503" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E1503" t="s">
         <v>5839</v>
       </c>
-      <c r="E1503" t="s">
+      <c r="F1503" t="s">
         <v>5840</v>
       </c>
-      <c r="F1503" t="s">
+      <c r="G1503" t="s">
         <v>5841</v>
       </c>
-      <c r="G1503" t="s">
-        <v>5842</v>
-      </c>
       <c r="H1503">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I1503">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1503">
         <v>9999</v>
@@ -66712,31 +66726,31 @@
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B1504">
-        <v>22853</v>
+        <v>22851</v>
       </c>
       <c r="C1504">
         <v>12848</v>
       </c>
       <c r="D1504" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E1504" t="s">
         <v>5843</v>
       </c>
-      <c r="E1504" t="s">
+      <c r="F1504" t="s">
         <v>5844</v>
       </c>
-      <c r="F1504" t="s">
+      <c r="G1504" t="s">
         <v>5845</v>
       </c>
-      <c r="G1504" t="s">
-        <v>5846</v>
-      </c>
       <c r="H1504">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I1504">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1504">
         <v>9999</v>
@@ -66744,28 +66758,28 @@
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B1505">
-        <v>22855</v>
+        <v>22853</v>
       </c>
       <c r="C1505">
         <v>12848</v>
       </c>
       <c r="D1505" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E1505" t="s">
         <v>5847</v>
       </c>
-      <c r="E1505" t="s">
+      <c r="F1505" t="s">
         <v>5848</v>
       </c>
-      <c r="F1505" t="s">
+      <c r="G1505" t="s">
         <v>5849</v>
       </c>
-      <c r="G1505" t="s">
-        <v>5850</v>
-      </c>
       <c r="H1505">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I1505">
         <v>2</v>
@@ -66776,31 +66790,31 @@
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B1506">
-        <v>22856</v>
+        <v>22855</v>
       </c>
       <c r="C1506">
         <v>12848</v>
       </c>
       <c r="D1506" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E1506" t="s">
         <v>5851</v>
       </c>
-      <c r="E1506" t="s">
+      <c r="F1506" t="s">
         <v>5852</v>
       </c>
-      <c r="F1506" t="s">
+      <c r="G1506" t="s">
         <v>5853</v>
       </c>
-      <c r="G1506" t="s">
-        <v>5854</v>
-      </c>
       <c r="H1506">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I1506">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J1506">
         <v>9999</v>
@@ -66808,31 +66822,31 @@
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B1507">
-        <v>22857</v>
+        <v>22856</v>
       </c>
       <c r="C1507">
-        <v>12960</v>
+        <v>12848</v>
       </c>
       <c r="D1507" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E1507" t="s">
         <v>5855</v>
       </c>
-      <c r="E1507" t="s">
+      <c r="F1507" t="s">
         <v>5856</v>
       </c>
-      <c r="F1507" t="s">
+      <c r="G1507" t="s">
         <v>5857</v>
       </c>
-      <c r="G1507" t="s">
-        <v>5858</v>
-      </c>
       <c r="H1507">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I1507">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1507">
         <v>9999</v>
@@ -66840,31 +66854,31 @@
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B1508">
-        <v>22858</v>
+        <v>22857</v>
       </c>
       <c r="C1508">
         <v>12960</v>
       </c>
       <c r="D1508" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E1508" t="s">
         <v>5859</v>
       </c>
-      <c r="E1508" t="s">
+      <c r="F1508" t="s">
         <v>5860</v>
       </c>
-      <c r="F1508" t="s">
+      <c r="G1508" t="s">
         <v>5861</v>
       </c>
-      <c r="G1508" t="s">
-        <v>5862</v>
-      </c>
       <c r="H1508">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I1508">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J1508">
         <v>9999</v>
@@ -66872,28 +66886,28 @@
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B1509">
-        <v>23199</v>
+        <v>22858</v>
       </c>
       <c r="C1509">
-        <v>12835</v>
+        <v>12960</v>
       </c>
       <c r="D1509" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E1509" t="s">
         <v>5863</v>
       </c>
-      <c r="E1509" t="s">
+      <c r="F1509" t="s">
         <v>5864</v>
       </c>
-      <c r="F1509" t="s">
+      <c r="G1509" t="s">
         <v>5865</v>
       </c>
-      <c r="G1509" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1509">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I1509">
         <v>2</v>
@@ -66904,13 +66918,13 @@
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B1510">
-        <v>23200</v>
+        <v>23199</v>
       </c>
       <c r="C1510">
-        <v>13041</v>
+        <v>12835</v>
       </c>
       <c r="D1510" t="s">
         <v>5866</v>
@@ -66922,13 +66936,13 @@
         <v>5868</v>
       </c>
       <c r="G1510" t="s">
-        <v>4755</v>
+        <v>1083</v>
       </c>
       <c r="H1510">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I1510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1510">
         <v>9999</v>
@@ -66936,10 +66950,10 @@
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B1511">
-        <v>23201</v>
+        <v>23200</v>
       </c>
       <c r="C1511">
         <v>13041</v>
@@ -66957,10 +66971,10 @@
         <v>4755</v>
       </c>
       <c r="H1511">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I1511">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1511">
         <v>9999</v>
@@ -66968,13 +66982,13 @@
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B1512">
-        <v>23284</v>
+        <v>23201</v>
       </c>
       <c r="C1512">
-        <v>2824</v>
+        <v>13041</v>
       </c>
       <c r="D1512" t="s">
         <v>5872</v>
@@ -66986,13 +67000,13 @@
         <v>5874</v>
       </c>
       <c r="G1512" t="s">
-        <v>1083</v>
+        <v>4755</v>
       </c>
       <c r="H1512">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I1512">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1512">
         <v>9999</v>
@@ -67000,10 +67014,10 @@
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B1513">
-        <v>23285</v>
+        <v>23284</v>
       </c>
       <c r="C1513">
         <v>2824</v>
@@ -67021,10 +67035,10 @@
         <v>1083</v>
       </c>
       <c r="H1513">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I1513">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1513">
         <v>9999</v>
@@ -67032,10 +67046,10 @@
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B1514">
-        <v>23286</v>
+        <v>23285</v>
       </c>
       <c r="C1514">
         <v>2824</v>
@@ -67053,10 +67067,10 @@
         <v>1083</v>
       </c>
       <c r="H1514">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I1514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1514">
         <v>9999</v>
@@ -67064,10 +67078,10 @@
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B1515">
-        <v>23287</v>
+        <v>23286</v>
       </c>
       <c r="C1515">
         <v>2824</v>
@@ -67085,10 +67099,10 @@
         <v>1083</v>
       </c>
       <c r="H1515">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I1515">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J1515">
         <v>9999</v>
@@ -67096,10 +67110,10 @@
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B1516">
-        <v>23288</v>
+        <v>23287</v>
       </c>
       <c r="C1516">
         <v>2824</v>
@@ -67117,10 +67131,10 @@
         <v>1083</v>
       </c>
       <c r="H1516">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I1516">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1516">
         <v>9999</v>
@@ -67128,31 +67142,31 @@
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B1517">
-        <v>23326</v>
+        <v>23288</v>
       </c>
       <c r="C1517">
-        <v>12988</v>
+        <v>2824</v>
       </c>
       <c r="D1517" t="s">
         <v>5887</v>
       </c>
       <c r="E1517" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="F1517" t="s">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="G1517" t="s">
         <v>1083</v>
       </c>
       <c r="H1517">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I1517">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1517">
         <v>9999</v>
@@ -67160,16 +67174,16 @@
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B1518">
-        <v>23349</v>
+        <v>23326</v>
       </c>
       <c r="C1518">
-        <v>12745</v>
+        <v>12988</v>
       </c>
       <c r="D1518" t="s">
-        <v>5889</v>
+        <v>5890</v>
       </c>
       <c r="E1518" t="s">
         <v>5890</v>
@@ -67178,13 +67192,13 @@
         <v>5891</v>
       </c>
       <c r="G1518" t="s">
-        <v>5892</v>
+        <v>1083</v>
       </c>
       <c r="H1518">
+        <v>1</v>
+      </c>
+      <c r="I1518">
         <v>3</v>
-      </c>
-      <c r="I1518">
-        <v>8</v>
       </c>
       <c r="J1518">
         <v>9999</v>
@@ -67192,31 +67206,31 @@
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B1519">
-        <v>23375</v>
+        <v>23349</v>
       </c>
       <c r="C1519">
-        <v>23375</v>
+        <v>12745</v>
       </c>
       <c r="D1519" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E1519" t="s">
         <v>5893</v>
       </c>
-      <c r="E1519" t="s">
+      <c r="F1519" t="s">
         <v>5894</v>
       </c>
-      <c r="F1519" t="s">
+      <c r="G1519" t="s">
         <v>5895</v>
       </c>
-      <c r="G1519" t="s">
-        <v>5896</v>
-      </c>
       <c r="H1519">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1519">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1519">
         <v>9999</v>
@@ -67224,223 +67238,211 @@
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B1520">
-        <v>23394</v>
+        <v>23375</v>
       </c>
       <c r="C1520">
-        <v>12796</v>
+        <v>23375</v>
       </c>
       <c r="D1520" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E1520" t="s">
         <v>5897</v>
       </c>
-      <c r="E1520" t="s">
+      <c r="F1520" t="s">
         <v>5898</v>
       </c>
-      <c r="F1520" t="s">
+      <c r="G1520" t="s">
         <v>5899</v>
       </c>
-      <c r="G1520" t="s">
-        <v>5900</v>
-      </c>
       <c r="H1520">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="I1520">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1520">
-        <v>1000</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B1521">
-        <v>25197</v>
+        <v>23394</v>
       </c>
       <c r="C1521">
-        <v>11388</v>
+        <v>12796</v>
       </c>
       <c r="D1521" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E1521" t="s">
         <v>5901</v>
       </c>
-      <c r="E1521" t="s">
+      <c r="F1521" t="s">
         <v>5902</v>
       </c>
-      <c r="F1521" t="s">
+      <c r="G1521" t="s">
         <v>5903</v>
       </c>
-      <c r="G1521" t="s">
-        <v>5904</v>
-      </c>
       <c r="H1521">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I1521">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1521">
-        <v>54</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B1522">
-        <v>25198</v>
+        <v>23642</v>
       </c>
       <c r="C1522">
-        <v>11388</v>
+        <v>13154</v>
       </c>
       <c r="D1522" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E1522" t="s">
         <v>5905</v>
       </c>
-      <c r="E1522" t="s">
+      <c r="F1522" t="s">
         <v>5906</v>
-      </c>
-      <c r="F1522" t="s">
-        <v>5907</v>
-      </c>
-      <c r="G1522" t="s">
-        <v>5908</v>
-      </c>
-      <c r="H1522">
-        <v>39</v>
-      </c>
-      <c r="I1522">
-        <v>2</v>
-      </c>
-      <c r="J1522">
-        <v>54</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B1523">
-        <v>25277</v>
+        <v>25197</v>
       </c>
       <c r="C1523">
-        <v>13053</v>
+        <v>11388</v>
       </c>
       <c r="D1523" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>5908</v>
+      </c>
+      <c r="F1523" t="s">
         <v>5909</v>
       </c>
-      <c r="E1523" t="s">
+      <c r="G1523" t="s">
         <v>5910</v>
       </c>
-      <c r="F1523" t="s">
-        <v>5911</v>
-      </c>
-      <c r="G1523" t="s">
-        <v>4780</v>
-      </c>
       <c r="H1523">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I1523">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1523">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B1524">
-        <v>25290</v>
+        <v>25198</v>
       </c>
       <c r="C1524">
-        <v>13621</v>
+        <v>11388</v>
       </c>
       <c r="D1524" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E1524" t="s">
         <v>5912</v>
       </c>
-      <c r="E1524" t="s">
+      <c r="F1524" t="s">
         <v>5913</v>
       </c>
-      <c r="F1524" t="s">
+      <c r="G1524" t="s">
         <v>5914</v>
       </c>
-      <c r="G1524" t="s">
-        <v>5915</v>
-      </c>
       <c r="H1524">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I1524">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1524">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B1525">
-        <v>25397</v>
+        <v>25277</v>
       </c>
       <c r="C1525">
-        <v>11372</v>
+        <v>13053</v>
       </c>
       <c r="D1525" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E1525" t="s">
         <v>5916</v>
       </c>
-      <c r="E1525" t="s">
+      <c r="F1525" t="s">
         <v>5917</v>
       </c>
-      <c r="F1525" t="s">
-        <v>5918</v>
-      </c>
       <c r="G1525" t="s">
-        <v>5919</v>
+        <v>4780</v>
       </c>
       <c r="H1525">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I1525">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1525">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B1526">
-        <v>25449</v>
+        <v>25290</v>
       </c>
       <c r="C1526">
-        <v>13027</v>
+        <v>13621</v>
       </c>
       <c r="D1526" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>5919</v>
+      </c>
+      <c r="F1526" t="s">
         <v>5920</v>
       </c>
-      <c r="E1526" t="s">
+      <c r="G1526" t="s">
         <v>5921</v>
       </c>
-      <c r="F1526" t="s">
-        <v>5922</v>
-      </c>
-      <c r="G1526" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1526">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I1526">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1526">
         <v>9999</v>
@@ -67448,42 +67450,42 @@
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B1527">
-        <v>25450</v>
+        <v>25397</v>
       </c>
       <c r="C1527">
-        <v>13027</v>
+        <v>11372</v>
       </c>
       <c r="D1527" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E1527" t="s">
         <v>5923</v>
       </c>
-      <c r="E1527" t="s">
+      <c r="F1527" t="s">
         <v>5924</v>
       </c>
-      <c r="F1527" t="s">
+      <c r="G1527" t="s">
         <v>5925</v>
       </c>
-      <c r="G1527" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1527">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I1527">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1527">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B1528">
-        <v>25451</v>
+        <v>25449</v>
       </c>
       <c r="C1528">
         <v>13027</v>
@@ -67501,10 +67503,10 @@
         <v>1083</v>
       </c>
       <c r="H1528">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I1528">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1528">
         <v>9999</v>
@@ -67512,10 +67514,10 @@
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B1529">
-        <v>25452</v>
+        <v>25450</v>
       </c>
       <c r="C1529">
         <v>13027</v>
@@ -67533,10 +67535,10 @@
         <v>1083</v>
       </c>
       <c r="H1529">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I1529">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1529">
         <v>9999</v>
@@ -67544,10 +67546,10 @@
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B1530">
-        <v>25453</v>
+        <v>25451</v>
       </c>
       <c r="C1530">
         <v>13027</v>
@@ -67565,10 +67567,10 @@
         <v>1083</v>
       </c>
       <c r="H1530">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I1530">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1530">
         <v>9999</v>
@@ -67576,10 +67578,10 @@
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B1531">
-        <v>25454</v>
+        <v>25452</v>
       </c>
       <c r="C1531">
         <v>13027</v>
@@ -67597,10 +67599,10 @@
         <v>1083</v>
       </c>
       <c r="H1531">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I1531">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1531">
         <v>9999</v>
@@ -67608,10 +67610,10 @@
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B1532">
-        <v>25455</v>
+        <v>25453</v>
       </c>
       <c r="C1532">
         <v>13027</v>
@@ -67629,7 +67631,7 @@
         <v>1083</v>
       </c>
       <c r="H1532">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I1532">
         <v>1</v>
@@ -67640,10 +67642,10 @@
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="B1533">
-        <v>25456</v>
+        <v>25454</v>
       </c>
       <c r="C1533">
         <v>13027</v>
@@ -67661,10 +67663,10 @@
         <v>1083</v>
       </c>
       <c r="H1533">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="I1533">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1533">
         <v>9999</v>
@@ -67672,13 +67674,13 @@
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B1534">
-        <v>25536</v>
+        <v>25455</v>
       </c>
       <c r="C1534">
-        <v>11388</v>
+        <v>13027</v>
       </c>
       <c r="D1534" t="s">
         <v>5944</v>
@@ -67690,45 +67692,45 @@
         <v>5946</v>
       </c>
       <c r="G1534" t="s">
-        <v>5947</v>
+        <v>1083</v>
       </c>
       <c r="H1534">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I1534">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1534">
-        <v>54</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B1535">
-        <v>25605</v>
+        <v>25456</v>
       </c>
       <c r="C1535">
-        <v>13204</v>
+        <v>13027</v>
       </c>
       <c r="D1535" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E1535" t="s">
         <v>5948</v>
       </c>
-      <c r="E1535" t="s">
+      <c r="F1535" t="s">
         <v>5949</v>
       </c>
-      <c r="F1535" t="s">
-        <v>5950</v>
-      </c>
       <c r="G1535" t="s">
-        <v>5951</v>
+        <v>1083</v>
       </c>
       <c r="H1535">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I1535">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1535">
         <v>9999</v>
@@ -67736,57 +67738,57 @@
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="B1536">
-        <v>26434</v>
+        <v>25536</v>
       </c>
       <c r="C1536">
-        <v>13027</v>
+        <v>11388</v>
       </c>
       <c r="D1536" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>5951</v>
+      </c>
+      <c r="F1536" t="s">
         <v>5952</v>
       </c>
-      <c r="E1536" t="s">
+      <c r="G1536" t="s">
         <v>5953</v>
       </c>
-      <c r="F1536" t="s">
-        <v>5954</v>
-      </c>
-      <c r="G1536" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1536">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I1536">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1536">
-        <v>9999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B1537">
-        <v>26435</v>
+        <v>25605</v>
       </c>
       <c r="C1537">
-        <v>13027</v>
+        <v>13204</v>
       </c>
       <c r="D1537" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E1537" t="s">
         <v>5955</v>
       </c>
-      <c r="E1537" t="s">
+      <c r="F1537" t="s">
         <v>5956</v>
       </c>
-      <c r="F1537" t="s">
+      <c r="G1537" t="s">
         <v>5957</v>
-      </c>
-      <c r="G1537" t="s">
-        <v>1083</v>
       </c>
       <c r="H1537">
         <v>50</v>
@@ -67800,13 +67802,13 @@
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B1538">
-        <v>26546</v>
+        <v>26434</v>
       </c>
       <c r="C1538">
-        <v>13053</v>
+        <v>13027</v>
       </c>
       <c r="D1538" t="s">
         <v>5958</v>
@@ -67818,13 +67820,13 @@
         <v>5960</v>
       </c>
       <c r="G1538" t="s">
-        <v>4780</v>
+        <v>1083</v>
       </c>
       <c r="H1538">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="I1538">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1538">
         <v>9999</v>
@@ -67832,13 +67834,13 @@
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B1539">
-        <v>26591</v>
+        <v>26435</v>
       </c>
       <c r="C1539">
-        <v>1</v>
+        <v>13027</v>
       </c>
       <c r="D1539" t="s">
         <v>5961</v>
@@ -67850,30 +67852,30 @@
         <v>5963</v>
       </c>
       <c r="G1539" t="s">
-        <v>5964</v>
+        <v>1083</v>
       </c>
       <c r="H1539">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I1539">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1539">
-        <v>73</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B1540">
-        <v>26595</v>
+        <v>26546</v>
       </c>
       <c r="C1540">
-        <v>11047</v>
+        <v>13053</v>
       </c>
       <c r="D1540" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
       <c r="E1540" t="s">
         <v>5965</v>
@@ -67882,27 +67884,27 @@
         <v>5966</v>
       </c>
       <c r="G1540" t="s">
-        <v>1083</v>
+        <v>4780</v>
       </c>
       <c r="H1540">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I1540">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1540">
-        <v>179</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B1541">
-        <v>26785</v>
+        <v>26591</v>
       </c>
       <c r="C1541">
-        <v>14204</v>
+        <v>1</v>
       </c>
       <c r="D1541" t="s">
         <v>5967</v>
@@ -67917,68 +67919,68 @@
         <v>5970</v>
       </c>
       <c r="H1541">
+        <v>39</v>
+      </c>
+      <c r="I1541">
         <v>2</v>
       </c>
-      <c r="I1541">
-        <v>5</v>
-      </c>
       <c r="J1541">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B1542">
-        <v>26786</v>
+        <v>26595</v>
       </c>
       <c r="C1542">
-        <v>14204</v>
+        <v>11047</v>
       </c>
       <c r="D1542" t="s">
         <v>5971</v>
       </c>
       <c r="E1542" t="s">
+        <v>5971</v>
+      </c>
+      <c r="F1542" t="s">
         <v>5972</v>
       </c>
-      <c r="F1542" t="s">
-        <v>5973</v>
-      </c>
       <c r="G1542" t="s">
-        <v>5974</v>
+        <v>1083</v>
       </c>
       <c r="H1542">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I1542">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1542">
-        <v>75</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B1543">
-        <v>26787</v>
+        <v>26785</v>
       </c>
       <c r="C1543">
         <v>14204</v>
       </c>
       <c r="D1543" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>5974</v>
+      </c>
+      <c r="F1543" t="s">
         <v>5975</v>
       </c>
-      <c r="E1543" t="s">
+      <c r="G1543" t="s">
         <v>5976</v>
-      </c>
-      <c r="F1543" t="s">
-        <v>5977</v>
-      </c>
-      <c r="G1543" t="s">
-        <v>5978</v>
       </c>
       <c r="H1543">
         <v>2</v>
@@ -67992,25 +67994,25 @@
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="B1544">
-        <v>26788</v>
+        <v>26786</v>
       </c>
       <c r="C1544">
         <v>14204</v>
       </c>
       <c r="D1544" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>5978</v>
+      </c>
+      <c r="F1544" t="s">
         <v>5979</v>
       </c>
-      <c r="E1544" t="s">
+      <c r="G1544" t="s">
         <v>5980</v>
-      </c>
-      <c r="F1544" t="s">
-        <v>5981</v>
-      </c>
-      <c r="G1544" t="s">
-        <v>5982</v>
       </c>
       <c r="H1544">
         <v>2</v>
@@ -68024,25 +68026,25 @@
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B1545">
-        <v>26789</v>
+        <v>26787</v>
       </c>
       <c r="C1545">
         <v>14204</v>
       </c>
       <c r="D1545" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F1545" t="s">
         <v>5983</v>
       </c>
-      <c r="E1545" t="s">
+      <c r="G1545" t="s">
         <v>5984</v>
-      </c>
-      <c r="F1545" t="s">
-        <v>5985</v>
-      </c>
-      <c r="G1545" t="s">
-        <v>5986</v>
       </c>
       <c r="H1545">
         <v>2</v>
@@ -68056,25 +68058,25 @@
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="B1546">
-        <v>26790</v>
+        <v>26788</v>
       </c>
       <c r="C1546">
         <v>14204</v>
       </c>
       <c r="D1546" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>5986</v>
+      </c>
+      <c r="F1546" t="s">
         <v>5987</v>
       </c>
-      <c r="E1546" t="s">
+      <c r="G1546" t="s">
         <v>5988</v>
-      </c>
-      <c r="F1546" t="s">
-        <v>5989</v>
-      </c>
-      <c r="G1546" t="s">
-        <v>5990</v>
       </c>
       <c r="H1546">
         <v>2</v>
@@ -68088,31 +68090,31 @@
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B1547">
-        <v>26897</v>
+        <v>26789</v>
       </c>
       <c r="C1547">
-        <v>957</v>
+        <v>14204</v>
       </c>
       <c r="D1547" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>5990</v>
+      </c>
+      <c r="F1547" t="s">
         <v>5991</v>
       </c>
-      <c r="E1547" t="s">
+      <c r="G1547" t="s">
         <v>5992</v>
       </c>
-      <c r="F1547" t="s">
-        <v>5993</v>
-      </c>
-      <c r="G1547" t="s">
-        <v>5994</v>
-      </c>
       <c r="H1547">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I1547">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1547">
         <v>75</v>
@@ -68120,31 +68122,31 @@
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B1548">
-        <v>26898</v>
+        <v>26790</v>
       </c>
       <c r="C1548">
-        <v>957</v>
+        <v>14204</v>
       </c>
       <c r="D1548" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>5994</v>
+      </c>
+      <c r="F1548" t="s">
         <v>5995</v>
       </c>
-      <c r="E1548" t="s">
+      <c r="G1548" t="s">
         <v>5996</v>
       </c>
-      <c r="F1548" t="s">
-        <v>5997</v>
-      </c>
-      <c r="G1548" t="s">
-        <v>3850</v>
-      </c>
       <c r="H1548">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I1548">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1548">
         <v>75</v>
@@ -68152,25 +68154,25 @@
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B1549">
-        <v>26899</v>
+        <v>26897</v>
       </c>
       <c r="C1549">
         <v>957</v>
       </c>
       <c r="D1549" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E1549" t="s">
         <v>5998</v>
       </c>
-      <c r="E1549" t="s">
+      <c r="F1549" t="s">
         <v>5999</v>
       </c>
-      <c r="F1549" t="s">
+      <c r="G1549" t="s">
         <v>6000</v>
-      </c>
-      <c r="G1549" t="s">
-        <v>3854</v>
       </c>
       <c r="H1549">
         <v>45</v>
@@ -68184,13 +68186,13 @@
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B1550">
-        <v>26925</v>
+        <v>26898</v>
       </c>
       <c r="C1550">
-        <v>14210</v>
+        <v>957</v>
       </c>
       <c r="D1550" t="s">
         <v>6001</v>
@@ -68202,74 +68204,74 @@
         <v>6003</v>
       </c>
       <c r="G1550" t="s">
-        <v>6004</v>
+        <v>3850</v>
       </c>
       <c r="H1550">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I1550">
-        <v>9999</v>
+        <v>6</v>
       </c>
       <c r="J1550">
-        <v>1001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B1551">
-        <v>26926</v>
+        <v>26899</v>
       </c>
       <c r="C1551">
-        <v>14210</v>
+        <v>957</v>
       </c>
       <c r="D1551" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E1551" t="s">
         <v>6005</v>
       </c>
-      <c r="E1551" t="s">
+      <c r="F1551" t="s">
         <v>6006</v>
       </c>
-      <c r="F1551" t="s">
-        <v>6007</v>
-      </c>
       <c r="G1551" t="s">
-        <v>6008</v>
+        <v>3854</v>
       </c>
       <c r="H1551">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I1551">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1551">
-        <v>1001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B1552">
-        <v>26932</v>
+        <v>26925</v>
       </c>
       <c r="C1552">
-        <v>14228</v>
+        <v>14210</v>
       </c>
       <c r="D1552" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>6008</v>
+      </c>
+      <c r="F1552" t="s">
         <v>6009</v>
       </c>
-      <c r="E1552" t="s">
+      <c r="G1552" t="s">
         <v>6010</v>
       </c>
-      <c r="F1552" t="s">
-        <v>6011</v>
-      </c>
-      <c r="G1552" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1552">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I1552">
         <v>9999</v>
@@ -68280,31 +68282,31 @@
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B1553">
-        <v>26933</v>
+        <v>26926</v>
       </c>
       <c r="C1553">
-        <v>14228</v>
+        <v>14210</v>
       </c>
       <c r="D1553" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E1553" t="s">
         <v>6012</v>
       </c>
-      <c r="E1553" t="s">
+      <c r="F1553" t="s">
         <v>6013</v>
       </c>
-      <c r="F1553" t="s">
+      <c r="G1553" t="s">
         <v>6014</v>
       </c>
-      <c r="G1553" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1553">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I1553">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J1553">
         <v>1001</v>
@@ -68312,10 +68314,10 @@
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="B1554">
-        <v>26934</v>
+        <v>26932</v>
       </c>
       <c r="C1554">
         <v>14228</v>
@@ -68344,10 +68346,10 @@
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="B1555">
-        <v>26935</v>
+        <v>26933</v>
       </c>
       <c r="C1555">
         <v>14228</v>
@@ -68376,10 +68378,10 @@
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B1556">
-        <v>26936</v>
+        <v>26934</v>
       </c>
       <c r="C1556">
         <v>14228</v>
@@ -68408,13 +68410,13 @@
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B1557">
-        <v>26946</v>
+        <v>26935</v>
       </c>
       <c r="C1557">
-        <v>14221</v>
+        <v>14228</v>
       </c>
       <c r="D1557" t="s">
         <v>6024</v>
@@ -68426,10 +68428,10 @@
         <v>6026</v>
       </c>
       <c r="G1557" t="s">
-        <v>6027</v>
+        <v>1083</v>
       </c>
       <c r="H1557">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I1557">
         <v>9999</v>
@@ -68440,57 +68442,57 @@
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B1558">
-        <v>26947</v>
+        <v>26936</v>
       </c>
       <c r="C1558">
-        <v>14221</v>
+        <v>14228</v>
       </c>
       <c r="D1558" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E1558" t="s">
         <v>6028</v>
       </c>
-      <c r="E1558" t="s">
+      <c r="F1558" t="s">
         <v>6029</v>
       </c>
-      <c r="F1558" t="s">
-        <v>6030</v>
-      </c>
       <c r="G1558" t="s">
-        <v>6031</v>
+        <v>1083</v>
       </c>
       <c r="H1558">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I1558">
         <v>9999</v>
       </c>
       <c r="J1558">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B1559">
-        <v>26948</v>
+        <v>26946</v>
       </c>
       <c r="C1559">
         <v>14221</v>
       </c>
       <c r="D1559" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>6031</v>
+      </c>
+      <c r="F1559" t="s">
         <v>6032</v>
       </c>
-      <c r="E1559" t="s">
+      <c r="G1559" t="s">
         <v>6033</v>
-      </c>
-      <c r="F1559" t="s">
-        <v>6034</v>
-      </c>
-      <c r="G1559" t="s">
-        <v>6035</v>
       </c>
       <c r="H1559">
         <v>94</v>
@@ -68504,25 +68506,25 @@
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B1560">
-        <v>26949</v>
+        <v>26947</v>
       </c>
       <c r="C1560">
         <v>14221</v>
       </c>
       <c r="D1560" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>6035</v>
+      </c>
+      <c r="F1560" t="s">
         <v>6036</v>
       </c>
-      <c r="E1560" t="s">
+      <c r="G1560" t="s">
         <v>6037</v>
-      </c>
-      <c r="F1560" t="s">
-        <v>6038</v>
-      </c>
-      <c r="G1560" t="s">
-        <v>6039</v>
       </c>
       <c r="H1560">
         <v>94</v>
@@ -68531,30 +68533,30 @@
         <v>9999</v>
       </c>
       <c r="J1560">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="B1561">
-        <v>26953</v>
+        <v>26948</v>
       </c>
       <c r="C1561">
-        <v>14223</v>
+        <v>14221</v>
       </c>
       <c r="D1561" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>6039</v>
+      </c>
+      <c r="F1561" t="s">
         <v>6040</v>
       </c>
-      <c r="E1561" t="s">
+      <c r="G1561" t="s">
         <v>6041</v>
-      </c>
-      <c r="F1561" t="s">
-        <v>6042</v>
-      </c>
-      <c r="G1561" t="s">
-        <v>6043</v>
       </c>
       <c r="H1561">
         <v>94</v>
@@ -68568,28 +68570,28 @@
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B1562">
-        <v>26957</v>
+        <v>26949</v>
       </c>
       <c r="C1562">
-        <v>14206</v>
+        <v>14221</v>
       </c>
       <c r="D1562" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>6043</v>
+      </c>
+      <c r="F1562" t="s">
         <v>6044</v>
       </c>
-      <c r="E1562" t="s">
+      <c r="G1562" t="s">
         <v>6045</v>
       </c>
-      <c r="F1562" t="s">
-        <v>6046</v>
-      </c>
-      <c r="G1562" t="s">
-        <v>6047</v>
-      </c>
       <c r="H1562">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1562">
         <v>9999</v>
@@ -68600,28 +68602,28 @@
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="B1563">
-        <v>26958</v>
+        <v>26953</v>
       </c>
       <c r="C1563">
-        <v>14206</v>
+        <v>14223</v>
       </c>
       <c r="D1563" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>6047</v>
+      </c>
+      <c r="F1563" t="s">
         <v>6048</v>
       </c>
-      <c r="E1563" t="s">
+      <c r="G1563" t="s">
         <v>6049</v>
       </c>
-      <c r="F1563" t="s">
-        <v>6050</v>
-      </c>
-      <c r="G1563" t="s">
-        <v>6051</v>
-      </c>
       <c r="H1563">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1563">
         <v>9999</v>
@@ -68632,28 +68634,28 @@
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B1564">
-        <v>26959</v>
+        <v>26957</v>
       </c>
       <c r="C1564">
-        <v>14227</v>
+        <v>14206</v>
       </c>
       <c r="D1564" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>6051</v>
+      </c>
+      <c r="F1564" t="s">
         <v>6052</v>
       </c>
-      <c r="E1564" t="s">
+      <c r="G1564" t="s">
         <v>6053</v>
       </c>
-      <c r="F1564" t="s">
-        <v>6054</v>
-      </c>
-      <c r="G1564" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1564">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1564">
         <v>9999</v>
@@ -68664,28 +68666,28 @@
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B1565">
-        <v>26960</v>
+        <v>26958</v>
       </c>
       <c r="C1565">
-        <v>14227</v>
+        <v>14206</v>
       </c>
       <c r="D1565" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E1565" t="s">
         <v>6055</v>
       </c>
-      <c r="E1565" t="s">
+      <c r="F1565" t="s">
         <v>6056</v>
       </c>
-      <c r="F1565" t="s">
+      <c r="G1565" t="s">
         <v>6057</v>
       </c>
-      <c r="G1565" t="s">
-        <v>1083</v>
-      </c>
       <c r="H1565">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1565">
         <v>9999</v>
@@ -68696,10 +68698,10 @@
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B1566">
-        <v>26961</v>
+        <v>26959</v>
       </c>
       <c r="C1566">
         <v>14227</v>
@@ -68728,10 +68730,10 @@
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="B1567">
-        <v>26962</v>
+        <v>26960</v>
       </c>
       <c r="C1567">
         <v>14227</v>
@@ -68760,10 +68762,10 @@
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B1568">
-        <v>26963</v>
+        <v>26961</v>
       </c>
       <c r="C1568">
         <v>14227</v>
@@ -68792,13 +68794,13 @@
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="B1569">
-        <v>26976</v>
+        <v>26962</v>
       </c>
       <c r="C1569">
-        <v>14222</v>
+        <v>14227</v>
       </c>
       <c r="D1569" t="s">
         <v>6067</v>
@@ -68824,13 +68826,13 @@
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="B1570">
-        <v>26977</v>
+        <v>26963</v>
       </c>
       <c r="C1570">
-        <v>14222</v>
+        <v>14227</v>
       </c>
       <c r="D1570" t="s">
         <v>6070</v>
@@ -68854,17 +68856,91 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="1571" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1571">
+        <v>1570</v>
+      </c>
+      <c r="B1571">
+        <v>26967</v>
+      </c>
+      <c r="C1571">
+        <v>14224</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>6074</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1572">
+        <v>1571</v>
+      </c>
+      <c r="B1572">
+        <v>26976</v>
+      </c>
+      <c r="C1572">
+        <v>14222</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>6077</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>6078</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1572">
+        <v>94</v>
+      </c>
+      <c r="I1572">
+        <v>9999</v>
+      </c>
+      <c r="J1572">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1573">
+        <v>1572</v>
+      </c>
+      <c r="B1573">
+        <v>26977</v>
+      </c>
+      <c r="C1573">
+        <v>14222</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>6080</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>6081</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1573">
+        <v>94</v>
+      </c>
+      <c r="I1573">
+        <v>9999</v>
+      </c>
+      <c r="J1573">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>